--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376D0740-CFE7-4F35-BA9F-864972D35BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC98366-2BAB-4D7D-8F72-DB70C2259F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43995" yWindow="1755" windowWidth="21225" windowHeight="13455" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="42210" yWindow="675" windowWidth="21660" windowHeight="14340" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>mgmt_ip</t>
   </si>
@@ -63,9 +63,6 @@
     <t>192.168.0.215</t>
   </si>
   <si>
-    <t>test-sonic-leaf-1</t>
-  </si>
-  <si>
     <t>STANDARD</t>
   </si>
   <si>
@@ -75,7 +72,76 @@
     <t>true</t>
   </si>
   <si>
-    <t>deafult</t>
+    <t>192.168.0.216</t>
+  </si>
+  <si>
+    <t>192.168.0.217</t>
+  </si>
+  <si>
+    <t>192.168.0.218</t>
+  </si>
+  <si>
+    <t>192.168.0.219</t>
+  </si>
+  <si>
+    <t>192.168.0.220</t>
+  </si>
+  <si>
+    <t>192.168.0.225</t>
+  </si>
+  <si>
+    <t>192.168.0.226</t>
+  </si>
+  <si>
+    <t>192.168.0.227</t>
+  </si>
+  <si>
+    <t>192.168.0.228</t>
+  </si>
+  <si>
+    <t>192.168.0.229</t>
+  </si>
+  <si>
+    <t>192.168.0.230</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>lab3-dc1-sonic-leaf-1</t>
+  </si>
+  <si>
+    <t>lab3-dc1-sonic-spine-1</t>
+  </si>
+  <si>
+    <t>lab3-dc1-sonic-spine-2</t>
+  </si>
+  <si>
+    <t>lab3-dc1-sonic-leaf-2</t>
+  </si>
+  <si>
+    <t>lab3-dc1-sonic-leaf-3</t>
+  </si>
+  <si>
+    <t>lab3-dc1-sonic-borderleaf-1</t>
+  </si>
+  <si>
+    <t>lab3-dc2-sonic-spine-1</t>
+  </si>
+  <si>
+    <t>lab3-dc2-sonic-spine-2</t>
+  </si>
+  <si>
+    <t>lab3-dc2-sonic-leaf-1</t>
+  </si>
+  <si>
+    <t>lab3-dc2-sonic-leaf-2</t>
+  </si>
+  <si>
+    <t>lab3-dc3-sonic-leaf-3</t>
+  </si>
+  <si>
+    <t>lab3-dc2-sonic-borderleaf-1</t>
   </si>
 </sst>
 </file>
@@ -105,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,18 +194,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,16 +566,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035F7E6-6A3D-48A1-B528-F39752DCEDD0}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
@@ -498,46 +610,475 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC98366-2BAB-4D7D-8F72-DB70C2259F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49129C33-4B3A-4B30-B69C-9C3E04D8FA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42210" yWindow="675" windowWidth="21660" windowHeight="14340" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="2140" yWindow="120" windowWidth="21660" windowHeight="14340" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
+    <sheet name="VRF" sheetId="5" r:id="rId2"/>
+    <sheet name="VLAN" sheetId="2" r:id="rId3"/>
+    <sheet name="LOOPBACK" sheetId="3" r:id="rId4"/>
+    <sheet name="PORTCHANNEL" sheetId="4" r:id="rId5"/>
+    <sheet name="INTERFACE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="177">
   <si>
     <t>mgmt_ip</t>
   </si>
@@ -142,6 +147,429 @@
   </si>
   <si>
     <t>lab3-dc2-sonic-borderleaf-1</t>
+  </si>
+  <si>
+    <t>vlan</t>
+  </si>
+  <si>
+    <t>mtu</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>anycast_ip</t>
+  </si>
+  <si>
+    <t>Vrf-Customer-1-Vlan</t>
+  </si>
+  <si>
+    <t>192.168.10.1/24</t>
+  </si>
+  <si>
+    <t>Vrf-Customer-2-Vlan</t>
+  </si>
+  <si>
+    <t>192.168.20.1/24</t>
+  </si>
+  <si>
+    <t>192.168.100.1/24</t>
+  </si>
+  <si>
+    <t>192.168.200.1/24</t>
+  </si>
+  <si>
+    <t>192.168.30.1/24</t>
+  </si>
+  <si>
+    <t>192.168.33.1/24</t>
+  </si>
+  <si>
+    <t>loopback</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>Loopback0</t>
+  </si>
+  <si>
+    <t>Loopback1</t>
+  </si>
+  <si>
+    <t>Loopback2</t>
+  </si>
+  <si>
+    <t>Loopback3</t>
+  </si>
+  <si>
+    <t>router-id</t>
+  </si>
+  <si>
+    <t>Vrf-customer-1</t>
+  </si>
+  <si>
+    <t>Vrf-customer-2</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>10.10.10.3</t>
+  </si>
+  <si>
+    <t>10.10.10.10</t>
+  </si>
+  <si>
+    <t>10.100.100.1</t>
+  </si>
+  <si>
+    <t>10.100.100.5</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
+  </si>
+  <si>
+    <t>20.20.20.1</t>
+  </si>
+  <si>
+    <t>20.20.20.2</t>
+  </si>
+  <si>
+    <t>10.10.10.4</t>
+  </si>
+  <si>
+    <t>10.100.100.2</t>
+  </si>
+  <si>
+    <t>10.100.100.6</t>
+  </si>
+  <si>
+    <t>10.10.10.5</t>
+  </si>
+  <si>
+    <t>10.10.10.11</t>
+  </si>
+  <si>
+    <t>10.100.100.3</t>
+  </si>
+  <si>
+    <t>10.100.100.7</t>
+  </si>
+  <si>
+    <t>10.10.10.6</t>
+  </si>
+  <si>
+    <t>10.10.10.12</t>
+  </si>
+  <si>
+    <t>10.100.100.0</t>
+  </si>
+  <si>
+    <t>10.100.100.4</t>
+  </si>
+  <si>
+    <t>20.20.20.3</t>
+  </si>
+  <si>
+    <t>20.20.20.10</t>
+  </si>
+  <si>
+    <t>20.200.200.1</t>
+  </si>
+  <si>
+    <t>20.200.200.5</t>
+  </si>
+  <si>
+    <t>20.20.20.4</t>
+  </si>
+  <si>
+    <t>20.200.200.2</t>
+  </si>
+  <si>
+    <t>20.200.200.6</t>
+  </si>
+  <si>
+    <t>20.20.20.5</t>
+  </si>
+  <si>
+    <t>20.20.20.11</t>
+  </si>
+  <si>
+    <t>20.200.200.3</t>
+  </si>
+  <si>
+    <t>20.200.200.7</t>
+  </si>
+  <si>
+    <t>20.20.20.6</t>
+  </si>
+  <si>
+    <t>20.20.20.12</t>
+  </si>
+  <si>
+    <t>20.200.200.0</t>
+  </si>
+  <si>
+    <t>20.200.200.4</t>
+  </si>
+  <si>
+    <t>admin_status</t>
+  </si>
+  <si>
+    <t>mclag_domain</t>
+  </si>
+  <si>
+    <t>dest_ip</t>
+  </si>
+  <si>
+    <t>vlan-mclag-peer</t>
+  </si>
+  <si>
+    <t>10.101.101.0</t>
+  </si>
+  <si>
+    <t>PortChannel1</t>
+  </si>
+  <si>
+    <t>access_vlan</t>
+  </si>
+  <si>
+    <t>tagged_vlan</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>PortChannel2</t>
+  </si>
+  <si>
+    <t>portchannel-to-customer</t>
+  </si>
+  <si>
+    <t>portchannel-to-mclag-peer</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>mclag</t>
+  </si>
+  <si>
+    <t>10.101.101.1</t>
+  </si>
+  <si>
+    <t>src_ip</t>
+  </si>
+  <si>
+    <t>mclag_interface</t>
+  </si>
+  <si>
+    <t>20.201.201.0</t>
+  </si>
+  <si>
+    <t>20.201.201.1</t>
+  </si>
+  <si>
+    <t>"2-3", "10", "20", "100", "200", "2999"</t>
+  </si>
+  <si>
+    <t>"2-3", "10", "30", "100", "300", "2999"</t>
+  </si>
+  <si>
+    <t>Eth1/2</t>
+  </si>
+  <si>
+    <t>10.10.0.0</t>
+  </si>
+  <si>
+    <t>Eth1/3</t>
+  </si>
+  <si>
+    <t>Eth1/4</t>
+  </si>
+  <si>
+    <t>Eth1/5</t>
+  </si>
+  <si>
+    <t>10.10.0.2</t>
+  </si>
+  <si>
+    <t>10.10.0.4</t>
+  </si>
+  <si>
+    <t>10.10.0.6</t>
+  </si>
+  <si>
+    <t>to-borderleaf1</t>
+  </si>
+  <si>
+    <t>to-leaf1</t>
+  </si>
+  <si>
+    <t>to-leaf2</t>
+  </si>
+  <si>
+    <t>to-leaf3</t>
+  </si>
+  <si>
+    <t>10.10.0.8</t>
+  </si>
+  <si>
+    <t>10.10.0.10</t>
+  </si>
+  <si>
+    <t>10.10.0.12</t>
+  </si>
+  <si>
+    <t>10.10.0.14</t>
+  </si>
+  <si>
+    <t>Eth1/6</t>
+  </si>
+  <si>
+    <t>Eth1/12</t>
+  </si>
+  <si>
+    <t>channel_group</t>
+  </si>
+  <si>
+    <t>to-customer1-vlan10</t>
+  </si>
+  <si>
+    <t>to-mclag-peer</t>
+  </si>
+  <si>
+    <t>10.10.0.3</t>
+  </si>
+  <si>
+    <t>10.10.0.11</t>
+  </si>
+  <si>
+    <t>10.10.0.5</t>
+  </si>
+  <si>
+    <t>10.10.0.13</t>
+  </si>
+  <si>
+    <t>to-customer2-vlan100</t>
+  </si>
+  <si>
+    <t>10.10.0.7</t>
+  </si>
+  <si>
+    <t>10.10.0.15</t>
+  </si>
+  <si>
+    <t>to-customer1-vlan20</t>
+  </si>
+  <si>
+    <t>to-customer2-vlan200</t>
+  </si>
+  <si>
+    <t>Eth1/7</t>
+  </si>
+  <si>
+    <t>Eth1/8</t>
+  </si>
+  <si>
+    <t>10.10.0.1</t>
+  </si>
+  <si>
+    <t>10.10.0.9</t>
+  </si>
+  <si>
+    <t>30.30.0.0</t>
+  </si>
+  <si>
+    <t>to-dc2-borderleaf1</t>
+  </si>
+  <si>
+    <t>to-spine1</t>
+  </si>
+  <si>
+    <t>to-spine2</t>
+  </si>
+  <si>
+    <t>20.20.0.0</t>
+  </si>
+  <si>
+    <t>20.20.0.2</t>
+  </si>
+  <si>
+    <t>20.20.0.4</t>
+  </si>
+  <si>
+    <t>20.20.0.6</t>
+  </si>
+  <si>
+    <t>20.20.0.8</t>
+  </si>
+  <si>
+    <t>20.20.0.10</t>
+  </si>
+  <si>
+    <t>20.20.0.12</t>
+  </si>
+  <si>
+    <t>20.20.0.14</t>
+  </si>
+  <si>
+    <t>20.20.0.3</t>
+  </si>
+  <si>
+    <t>20.20.0.11</t>
+  </si>
+  <si>
+    <t>20.20.0.5</t>
+  </si>
+  <si>
+    <t>20.20.0.13</t>
+  </si>
+  <si>
+    <t>20.20.0.7</t>
+  </si>
+  <si>
+    <t>20.20.0.15</t>
+  </si>
+  <si>
+    <t>20.20.0.1</t>
+  </si>
+  <si>
+    <t>20.20.0.9</t>
+  </si>
+  <si>
+    <t>30.30.0.1</t>
+  </si>
+  <si>
+    <t>to-customer1-vlan30</t>
+  </si>
+  <si>
+    <t>to-customer2-vlan300</t>
+  </si>
+  <si>
+    <t>vtep-loopback</t>
+  </si>
+  <si>
+    <t>customer1</t>
+  </si>
+  <si>
+    <t>customer2</t>
+  </si>
+  <si>
+    <t>Vrf-customer1</t>
+  </si>
+  <si>
+    <t>Vrf-customer2</t>
+  </si>
+  <si>
+    <t>portchannel_interface</t>
   </si>
 </sst>
 </file>
@@ -235,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -252,6 +680,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +1000,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,4 +1514,3976 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7109AD3-987B-4415-ABB5-79B14DDDE950}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01666E55-9237-448F-B2CC-24EB808BCEEE}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9">
+        <v>200</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9">
+        <v>200</v>
+      </c>
+      <c r="C15" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9">
+        <v>20</v>
+      </c>
+      <c r="C20" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9">
+        <v>100</v>
+      </c>
+      <c r="C21" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9">
+        <v>200</v>
+      </c>
+      <c r="C22" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9">
+        <v>10</v>
+      </c>
+      <c r="C26" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9">
+        <v>20</v>
+      </c>
+      <c r="C27" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>0</v>
+      </c>
+      <c r="B28" s="9">
+        <v>100</v>
+      </c>
+      <c r="C28" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9">
+        <v>200</v>
+      </c>
+      <c r="C29" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9">
+        <v>10</v>
+      </c>
+      <c r="C33" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9">
+        <v>30</v>
+      </c>
+      <c r="C34" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>0</v>
+      </c>
+      <c r="B35" s="9">
+        <v>100</v>
+      </c>
+      <c r="C35" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9">
+        <v>300</v>
+      </c>
+      <c r="C36" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>0</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>0</v>
+      </c>
+      <c r="B39" s="9">
+        <v>3</v>
+      </c>
+      <c r="C39" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>0</v>
+      </c>
+      <c r="B40" s="9">
+        <v>10</v>
+      </c>
+      <c r="C40" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9">
+        <v>30</v>
+      </c>
+      <c r="C41" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>0</v>
+      </c>
+      <c r="B42" s="9">
+        <v>100</v>
+      </c>
+      <c r="C42" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>0</v>
+      </c>
+      <c r="B43" s="9">
+        <v>300</v>
+      </c>
+      <c r="C43" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
+        <v>0</v>
+      </c>
+      <c r="B45" s="9">
+        <v>2</v>
+      </c>
+      <c r="C45" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>0</v>
+      </c>
+      <c r="B46" s="9">
+        <v>3</v>
+      </c>
+      <c r="C46" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
+        <v>0</v>
+      </c>
+      <c r="B47" s="9">
+        <v>10</v>
+      </c>
+      <c r="C47" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
+        <v>0</v>
+      </c>
+      <c r="B48" s="9">
+        <v>30</v>
+      </c>
+      <c r="C48" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
+        <v>0</v>
+      </c>
+      <c r="B49" s="9">
+        <v>100</v>
+      </c>
+      <c r="C49" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
+        <v>0</v>
+      </c>
+      <c r="B50" s="9">
+        <v>300</v>
+      </c>
+      <c r="C50" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>0</v>
+      </c>
+      <c r="B52" s="9">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
+        <v>0</v>
+      </c>
+      <c r="B53" s="9">
+        <v>3</v>
+      </c>
+      <c r="C53" s="9">
+        <v>9050</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="9">
+        <v>0</v>
+      </c>
+      <c r="B54" s="9">
+        <v>10</v>
+      </c>
+      <c r="C54" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="9">
+        <v>0</v>
+      </c>
+      <c r="B55" s="9">
+        <v>30</v>
+      </c>
+      <c r="C55" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="9">
+        <v>0</v>
+      </c>
+      <c r="B56" s="9">
+        <v>100</v>
+      </c>
+      <c r="C56" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="9">
+        <v>0</v>
+      </c>
+      <c r="B57" s="9">
+        <v>300</v>
+      </c>
+      <c r="C57" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EEB4E8-EA78-4265-9CF0-52F7D0DD4BED}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="9">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="9">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="9">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="9">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="9">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="9">
+        <v>32</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="9">
+        <v>32</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="9">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="9">
+        <v>32</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="9">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="9">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="9">
+        <v>32</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="9">
+        <v>32</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="9">
+        <v>32</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>0</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="9">
+        <v>32</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9">
+        <v>32</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="9">
+        <v>32</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="9">
+        <v>32</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="9">
+        <v>32</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="9">
+        <v>32</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="9">
+        <v>32</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="9">
+        <v>32</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="9">
+        <v>32</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="9">
+        <v>32</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>0</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="9">
+        <v>32</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>0</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="9">
+        <v>32</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>0</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="9">
+        <v>32</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="9">
+        <v>32</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>0</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="9">
+        <v>32</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>0</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="9">
+        <v>32</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
+        <v>0</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="9">
+        <v>32</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>0</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="9">
+        <v>32</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
+        <v>0</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="9">
+        <v>32</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
+        <v>0</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="9">
+        <v>32</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
+        <v>0</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="9">
+        <v>32</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E277F-ED5A-4664-B237-01D026EDAD6A}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="8">
+        <v>9050</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2999</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9050</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="8">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9050</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2999</v>
+      </c>
+      <c r="C10" s="8">
+        <v>9050</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="8">
+        <v>31</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <v>10</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="8">
+        <v>9050</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2999</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9050</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="8">
+        <v>31</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9000</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
+        <v>10</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9050</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2999</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9050</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="8">
+        <v>31</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9000</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <v>10</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B68A3E-169F-4894-9368-EF1B0602432C}">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15">
+        <v>9000</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16">
+        <v>9050</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19">
+        <v>31</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20">
+        <v>9000</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21">
+        <v>9100</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22">
+        <v>9050</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26">
+        <v>9100</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27">
+        <v>9100</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28">
+        <v>9100</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31">
+        <v>31</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35">
+        <v>31</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36">
+        <v>31</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37">
+        <v>31</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39">
+        <v>31</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40">
+        <v>31</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41">
+        <v>31</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42">
+        <v>31</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44">
+        <v>31</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45">
+        <v>31</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46">
+        <v>9000</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47">
+        <v>9050</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49">
+        <v>31</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50">
+        <v>31</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51">
+        <v>9000</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52">
+        <v>9100</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>139</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53">
+        <v>9050</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56">
+        <v>31</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57">
+        <v>9100</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58">
+        <v>9100</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59">
+        <v>9100</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61">
+        <v>31</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62">
+        <v>31</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63">
+        <v>31</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49129C33-4B3A-4B30-B69C-9C3E04D8FA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B3473E-4198-483D-8087-D971C5F63059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="120" windowWidth="21660" windowHeight="14340" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,13 @@
     <sheet name="LOOPBACK" sheetId="3" r:id="rId4"/>
     <sheet name="PORTCHANNEL" sheetId="4" r:id="rId5"/>
     <sheet name="INTERFACE" sheetId="6" r:id="rId6"/>
+    <sheet name="ROUTEMAP" sheetId="7" r:id="rId7"/>
+    <sheet name="BGP_GLOBAL" sheetId="8" r:id="rId8"/>
+    <sheet name="BGP_PG" sheetId="9" r:id="rId9"/>
+    <sheet name="BGP_NEIGH" sheetId="10" r:id="rId10"/>
+    <sheet name="BGP_VNI_MAP" sheetId="11" r:id="rId11"/>
+    <sheet name="BGP_VRF" sheetId="12" r:id="rId12"/>
+    <sheet name="VTEP" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="271">
   <si>
     <t>mgmt_ip</t>
   </si>
@@ -570,19 +577,307 @@
   </si>
   <si>
     <t>portchannel_interface</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>policy_result</t>
+  </si>
+  <si>
+    <t>as_number</t>
+  </si>
+  <si>
+    <t>match_set</t>
+  </si>
+  <si>
+    <t>MlagPeer</t>
+  </si>
+  <si>
+    <t>ACCEPT_ROUTE</t>
+  </si>
+  <si>
+    <t>sequence_number</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>router_id</t>
+  </si>
+  <si>
+    <t>maximum_paths</t>
+  </si>
+  <si>
+    <t>peer_group</t>
+  </si>
+  <si>
+    <t>export_policy</t>
+  </si>
+  <si>
+    <t>source_ip</t>
+  </si>
+  <si>
+    <t>fabric-underlay</t>
+  </si>
+  <si>
+    <t>fabric-overlay</t>
+  </si>
+  <si>
+    <t>mclag-peer</t>
+  </si>
+  <si>
+    <t>peer_address</t>
+  </si>
+  <si>
+    <t>peer_as</t>
+  </si>
+  <si>
+    <t>to-leaf1-overlay</t>
+  </si>
+  <si>
+    <t>to-leaf3-overlay</t>
+  </si>
+  <si>
+    <t>to-borderleaf1-overlay</t>
+  </si>
+  <si>
+    <t>101.101.101.1</t>
+  </si>
+  <si>
+    <t>to-leaf2-mclag</t>
+  </si>
+  <si>
+    <t>101.101.101.0</t>
+  </si>
+  <si>
+    <t>to-leaf1-mclag</t>
+  </si>
+  <si>
+    <t>evpn-gw</t>
+  </si>
+  <si>
+    <t>ext-router</t>
+  </si>
+  <si>
+    <t>to-borderleaf1-dci-overlay</t>
+  </si>
+  <si>
+    <t>to-borderleaf1-dci-underlay</t>
+  </si>
+  <si>
+    <t>vni</t>
+  </si>
+  <si>
+    <t>rd_number</t>
+  </si>
+  <si>
+    <t>rt_export</t>
+  </si>
+  <si>
+    <t>rt_import</t>
+  </si>
+  <si>
+    <t>10.10.10.3:10</t>
+  </si>
+  <si>
+    <t>5010:1</t>
+  </si>
+  <si>
+    <t>10.10.10.3:20</t>
+  </si>
+  <si>
+    <t>10.10.10.3:100</t>
+  </si>
+  <si>
+    <t>10.10.10.3:200</t>
+  </si>
+  <si>
+    <t>5020:1</t>
+  </si>
+  <si>
+    <t>5100:1</t>
+  </si>
+  <si>
+    <t>5200:1</t>
+  </si>
+  <si>
+    <t>10.10.10.4:10</t>
+  </si>
+  <si>
+    <t>10.10.10.4:20</t>
+  </si>
+  <si>
+    <t>10.10.10.4:100</t>
+  </si>
+  <si>
+    <t>10.10.10.4:200</t>
+  </si>
+  <si>
+    <t>10.10.10.5:10</t>
+  </si>
+  <si>
+    <t>10.10.10.5:20</t>
+  </si>
+  <si>
+    <t>10.10.10.5:100</t>
+  </si>
+  <si>
+    <t>10.10.10.5:200</t>
+  </si>
+  <si>
+    <t>10.10.10.6:10</t>
+  </si>
+  <si>
+    <t>10.10.10.6:20</t>
+  </si>
+  <si>
+    <t>10.10.10.6:100</t>
+  </si>
+  <si>
+    <t>10.10.10.6:200</t>
+  </si>
+  <si>
+    <t>20.20.20.3:10</t>
+  </si>
+  <si>
+    <t>20.20.20.3:30</t>
+  </si>
+  <si>
+    <t>20.20.20.3:100</t>
+  </si>
+  <si>
+    <t>20.20.20.3:300</t>
+  </si>
+  <si>
+    <t>5030:1</t>
+  </si>
+  <si>
+    <t>5300:1</t>
+  </si>
+  <si>
+    <t>20.20.20.4:10</t>
+  </si>
+  <si>
+    <t>20.20.20.4:30</t>
+  </si>
+  <si>
+    <t>20.20.20.4:100</t>
+  </si>
+  <si>
+    <t>20.20.20.4:300</t>
+  </si>
+  <si>
+    <t>20.20.20.5:10</t>
+  </si>
+  <si>
+    <t>20.20.20.5:30</t>
+  </si>
+  <si>
+    <t>20.20.20.5:100</t>
+  </si>
+  <si>
+    <t>20.20.20.5:300</t>
+  </si>
+  <si>
+    <t>20.20.20.6:10</t>
+  </si>
+  <si>
+    <t>20.20.20.6:30</t>
+  </si>
+  <si>
+    <t>20.20.20.6:100</t>
+  </si>
+  <si>
+    <t>20.20.20.6:300</t>
+  </si>
+  <si>
+    <t>10.10.10.3:2</t>
+  </si>
+  <si>
+    <t>10010:1</t>
+  </si>
+  <si>
+    <t>10.10.10.3:3</t>
+  </si>
+  <si>
+    <t>10020:1</t>
+  </si>
+  <si>
+    <t>10.10.10.4:2</t>
+  </si>
+  <si>
+    <t>10.10.10.5:2</t>
+  </si>
+  <si>
+    <t>10.10.10.6:2</t>
+  </si>
+  <si>
+    <t>20.20.20.3:2</t>
+  </si>
+  <si>
+    <t>10.10.10.4:3</t>
+  </si>
+  <si>
+    <t>10.10.10.5:3</t>
+  </si>
+  <si>
+    <t>10.10.10.6:3</t>
+  </si>
+  <si>
+    <t>20.20.20.3:3</t>
+  </si>
+  <si>
+    <t>20.20.20.4:2</t>
+  </si>
+  <si>
+    <t>20.20.20.4:3</t>
+  </si>
+  <si>
+    <t>20.20.20.5:2</t>
+  </si>
+  <si>
+    <t>20.20.20.5:3</t>
+  </si>
+  <si>
+    <t>20.20.20.6:2</t>
+  </si>
+  <si>
+    <t>20.20.20.6:3</t>
+  </si>
+  <si>
+    <t>peer-group</t>
+  </si>
+  <si>
+    <t>mclag-peer,l3rtr</t>
+  </si>
+  <si>
+    <t>l3rtr</t>
+  </si>
+  <si>
+    <t>external_ip</t>
+  </si>
+  <si>
+    <t>vni_vrf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -663,26 +958,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,10 +1290,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
@@ -1014,7 +1304,7 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,19 +1330,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1078,19 +1368,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1116,19 +1406,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1154,19 +1444,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1192,19 +1482,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -1230,19 +1520,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -1268,19 +1558,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1306,19 +1596,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1344,19 +1634,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -1382,19 +1672,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -1420,19 +1710,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -1458,19 +1748,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -1497,20 +1787,2798 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:H10"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042134A-B227-445A-ADC9-97C4504769C8}">
+  <dimension ref="A1:E85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>65106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4">
+        <v>65103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5">
+        <v>65104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>65105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>65103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>65104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>65105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>65106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12">
+        <v>65106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13">
+        <v>65103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14">
+        <v>65104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15">
+        <v>65105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <v>65103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <v>65104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>65105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <v>65106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21">
+        <v>65101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <v>65102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>65101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>65102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25">
+        <v>65104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>65101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28">
+        <v>65102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29">
+        <v>65101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>65102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31">
+        <v>65103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33">
+        <v>65101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34">
+        <v>65102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35">
+        <v>65101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>65102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38">
+        <v>65101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39">
+        <v>65102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40">
+        <v>65101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>65102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42">
+        <v>65206</v>
+      </c>
+      <c r="D42" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43">
+        <v>65206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45">
+        <v>65206</v>
+      </c>
+      <c r="D45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46">
+        <v>65203</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
+        <v>65204</v>
+      </c>
+      <c r="D47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48">
+        <v>65205</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>65203</v>
+      </c>
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50">
+        <v>65204</v>
+      </c>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51">
+        <v>65205</v>
+      </c>
+      <c r="D51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <v>65206</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54">
+        <v>65206</v>
+      </c>
+      <c r="D54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55">
+        <v>65203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56">
+        <v>65204</v>
+      </c>
+      <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57">
+        <v>65205</v>
+      </c>
+      <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>65203</v>
+      </c>
+      <c r="D58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59">
+        <v>65204</v>
+      </c>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>65205</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61">
+        <v>65206</v>
+      </c>
+      <c r="D61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63">
+        <v>65201</v>
+      </c>
+      <c r="D63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64">
+        <v>65202</v>
+      </c>
+      <c r="D64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>65201</v>
+      </c>
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>65202</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67">
+        <v>65204</v>
+      </c>
+      <c r="D67" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69">
+        <v>65201</v>
+      </c>
+      <c r="D69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70">
+        <v>65202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71">
+        <v>65201</v>
+      </c>
+      <c r="D71" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72">
+        <v>65202</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73">
+        <v>65203</v>
+      </c>
+      <c r="D73" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75">
+        <v>65201</v>
+      </c>
+      <c r="D75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76">
+        <v>65202</v>
+      </c>
+      <c r="D76" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77">
+        <v>65201</v>
+      </c>
+      <c r="D77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78">
+        <v>65202</v>
+      </c>
+      <c r="D78" t="s">
+        <v>191</v>
+      </c>
+      <c r="E78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80">
+        <v>65201</v>
+      </c>
+      <c r="D80" t="s">
+        <v>190</v>
+      </c>
+      <c r="E80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81">
+        <v>65202</v>
+      </c>
+      <c r="D81" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82">
+        <v>65201</v>
+      </c>
+      <c r="D82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83">
+        <v>65202</v>
+      </c>
+      <c r="D83" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84">
+        <v>65106</v>
+      </c>
+      <c r="D84" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85">
+        <v>65106</v>
+      </c>
+      <c r="D85" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C52FBF0-50B8-419E-8B18-9F1CF31FBDEC}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>5010</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>5020</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>5100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>5200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>5010</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>5020</v>
+      </c>
+      <c r="D9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>5100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>5200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>5010</v>
+      </c>
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>5020</v>
+      </c>
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>5100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>5200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>5010</v>
+      </c>
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>5020</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>5100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>5200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>5010</v>
+      </c>
+      <c r="D23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>5030</v>
+      </c>
+      <c r="D24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>5100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>5300</v>
+      </c>
+      <c r="D26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>5010</v>
+      </c>
+      <c r="D28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>5030</v>
+      </c>
+      <c r="D29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>5100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>5300</v>
+      </c>
+      <c r="D31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>5010</v>
+      </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>5030</v>
+      </c>
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>5100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>5300</v>
+      </c>
+      <c r="D36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>5010</v>
+      </c>
+      <c r="D38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>5030</v>
+      </c>
+      <c r="D39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>5100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>5300</v>
+      </c>
+      <c r="D41" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C7F1D9-1766-4B3E-BAFD-2A3F26354F25}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>65103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <v>65103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6">
+        <v>65104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7">
+        <v>65104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <v>65105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>65105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>65106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <v>65106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>65203</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16">
+        <v>65203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18">
+        <v>65204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19">
+        <v>65204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21">
+        <v>65205</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22">
+        <v>65205</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24">
+        <v>65206</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25">
+        <v>65206</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE81A0-AC4B-4D30-8365-F6A87D15D01B}">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3">
+        <v>10010</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4">
+        <v>10020</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="D5">
+        <v>5010</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6">
+        <v>5020</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7">
+        <v>5100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8">
+        <v>5200</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12">
+        <v>10010</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13">
+        <v>10020</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14">
+        <v>5010</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15">
+        <v>5020</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16">
+        <v>5100</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="D17">
+        <v>5200</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="D21">
+        <v>10010</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22">
+        <v>10020</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23">
+        <v>5010</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24">
+        <v>5020</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25">
+        <v>5100</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="D26">
+        <v>5200</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="D30">
+        <v>10010</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31">
+        <v>10020</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="D32">
+        <v>5010</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="D33">
+        <v>5020</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="D34">
+        <v>5100</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="D35">
+        <v>5200</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="D39">
+        <v>10010</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="D40">
+        <v>10020</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="D41">
+        <v>5010</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="D42">
+        <v>5030</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="D43">
+        <v>5100</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="D44">
+        <v>5300</v>
+      </c>
+      <c r="E44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="D48">
+        <v>10010</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="D49">
+        <v>10020</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="D50">
+        <v>5010</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="D51">
+        <v>5030</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="D52">
+        <v>5100</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="D53">
+        <v>5300</v>
+      </c>
+      <c r="E53">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="F55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="D57">
+        <v>10010</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="D58">
+        <v>10020</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="D59">
+        <v>5010</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="D60">
+        <v>5030</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="D61">
+        <v>5100</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="D62">
+        <v>5300</v>
+      </c>
+      <c r="E62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="F63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="F64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="D66">
+        <v>10010</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="D67">
+        <v>10020</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="D68">
+        <v>5010</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="D69">
+        <v>5030</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="D70">
+        <v>5100</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="D71">
+        <v>5300</v>
+      </c>
+      <c r="E71">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="F73" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73">
+        <v>10020</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1524,186 +4592,186 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="5">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="5">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="5">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="5">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>0</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="5">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>0</v>
-      </c>
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="5">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>0</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="5">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>0</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="5">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1721,1134 +4789,1134 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>9050</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>9050</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>9000</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9">
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
         <v>20</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>9000</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5">
         <v>100</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>9000</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9">
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
         <v>200</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>9000</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9">
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>9050</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9">
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>9050</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9">
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>9000</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9">
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5">
         <v>20</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>9000</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9">
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5">
         <v>100</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>9000</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9">
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5">
         <v>200</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>9000</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9">
+    <row r="17" spans="1:7">
+      <c r="A17" s="5">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
         <v>2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>9050</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9">
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5">
         <v>3</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>9050</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9">
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5">
         <v>10</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>9000</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>0</v>
-      </c>
-      <c r="B20" s="9">
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
         <v>20</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="5">
         <v>9000</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>0</v>
-      </c>
-      <c r="B21" s="9">
+    <row r="21" spans="1:7">
+      <c r="A21" s="5">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5">
         <v>100</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>9000</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>0</v>
-      </c>
-      <c r="B22" s="9">
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
         <v>200</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>9000</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>0</v>
-      </c>
-      <c r="B24" s="9">
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5">
         <v>2</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="5">
         <v>9050</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>0</v>
-      </c>
-      <c r="B25" s="9">
+    <row r="25" spans="1:7">
+      <c r="A25" s="5">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5">
         <v>3</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>9050</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
-        <v>0</v>
-      </c>
-      <c r="B26" s="9">
+    <row r="26" spans="1:7">
+      <c r="A26" s="5">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5">
         <v>10</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
         <v>9000</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
-        <v>0</v>
-      </c>
-      <c r="B27" s="9">
+    <row r="27" spans="1:7">
+      <c r="A27" s="5">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5">
         <v>20</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="5">
         <v>9000</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
-        <v>0</v>
-      </c>
-      <c r="B28" s="9">
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5">
         <v>100</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="5">
         <v>9000</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>0</v>
-      </c>
-      <c r="B29" s="9">
+    <row r="29" spans="1:7">
+      <c r="A29" s="5">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5">
         <v>200</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="5">
         <v>9000</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
-        <v>0</v>
-      </c>
-      <c r="B31" s="9">
+    <row r="31" spans="1:7">
+      <c r="A31" s="5">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5">
         <v>2</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="5">
         <v>9050</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
-        <v>0</v>
-      </c>
-      <c r="B32" s="9">
+    <row r="32" spans="1:7">
+      <c r="A32" s="5">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5">
         <v>3</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="5">
         <v>9050</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
-        <v>0</v>
-      </c>
-      <c r="B33" s="9">
+    <row r="33" spans="1:7">
+      <c r="A33" s="5">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5">
         <v>10</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="5">
         <v>9000</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
-        <v>0</v>
-      </c>
-      <c r="B34" s="9">
+    <row r="34" spans="1:7">
+      <c r="A34" s="5">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5">
         <v>30</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="5">
         <v>9000</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
-        <v>0</v>
-      </c>
-      <c r="B35" s="9">
+    <row r="35" spans="1:7">
+      <c r="A35" s="5">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
         <v>100</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="5">
         <v>9000</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
-        <v>0</v>
-      </c>
-      <c r="B36" s="9">
+    <row r="36" spans="1:7">
+      <c r="A36" s="5">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5">
         <v>300</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="5">
         <v>9000</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
-        <v>0</v>
-      </c>
-      <c r="B38" s="9">
+    <row r="38" spans="1:7">
+      <c r="A38" s="5">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5">
         <v>2</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="5">
         <v>9050</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
-        <v>0</v>
-      </c>
-      <c r="B39" s="9">
+    <row r="39" spans="1:7">
+      <c r="A39" s="5">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5">
         <v>3</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="5">
         <v>9050</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
-        <v>0</v>
-      </c>
-      <c r="B40" s="9">
+    <row r="40" spans="1:7">
+      <c r="A40" s="5">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5">
         <v>10</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="5">
         <v>9000</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
-        <v>0</v>
-      </c>
-      <c r="B41" s="9">
+    <row r="41" spans="1:7">
+      <c r="A41" s="5">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5">
         <v>30</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="5">
         <v>9000</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
-        <v>0</v>
-      </c>
-      <c r="B42" s="9">
+    <row r="42" spans="1:7">
+      <c r="A42" s="5">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5">
         <v>100</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="5">
         <v>9000</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
-        <v>0</v>
-      </c>
-      <c r="B43" s="9">
+    <row r="43" spans="1:7">
+      <c r="A43" s="5">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5">
         <v>300</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="5">
         <v>9000</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
-        <v>0</v>
-      </c>
-      <c r="B45" s="9">
+    <row r="45" spans="1:7">
+      <c r="A45" s="5">
+        <v>0</v>
+      </c>
+      <c r="B45" s="5">
         <v>2</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="5">
         <v>9050</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
-        <v>0</v>
-      </c>
-      <c r="B46" s="9">
+    <row r="46" spans="1:7">
+      <c r="A46" s="5">
+        <v>0</v>
+      </c>
+      <c r="B46" s="5">
         <v>3</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="5">
         <v>9050</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
-        <v>0</v>
-      </c>
-      <c r="B47" s="9">
+    <row r="47" spans="1:7">
+      <c r="A47" s="5">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5">
         <v>10</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="5">
         <v>9000</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
-        <v>0</v>
-      </c>
-      <c r="B48" s="9">
+    <row r="48" spans="1:7">
+      <c r="A48" s="5">
+        <v>0</v>
+      </c>
+      <c r="B48" s="5">
         <v>30</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="5">
         <v>9000</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
-        <v>0</v>
-      </c>
-      <c r="B49" s="9">
+    <row r="49" spans="1:7">
+      <c r="A49" s="5">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5">
         <v>100</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="5">
         <v>9000</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
-        <v>0</v>
-      </c>
-      <c r="B50" s="9">
+    <row r="50" spans="1:7">
+      <c r="A50" s="5">
+        <v>0</v>
+      </c>
+      <c r="B50" s="5">
         <v>300</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="5">
         <v>9000</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:7">
+      <c r="A51" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="9">
-        <v>0</v>
-      </c>
-      <c r="B52" s="9">
+    <row r="52" spans="1:7">
+      <c r="A52" s="5">
+        <v>0</v>
+      </c>
+      <c r="B52" s="5">
         <v>2</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="5">
         <v>9050</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
-        <v>0</v>
-      </c>
-      <c r="B53" s="9">
+    <row r="53" spans="1:7">
+      <c r="A53" s="5">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5">
         <v>3</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="5">
         <v>9050</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="9">
-        <v>0</v>
-      </c>
-      <c r="B54" s="9">
+    <row r="54" spans="1:7">
+      <c r="A54" s="5">
+        <v>0</v>
+      </c>
+      <c r="B54" s="5">
         <v>10</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="5">
         <v>9000</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
-        <v>0</v>
-      </c>
-      <c r="B55" s="9">
+    <row r="55" spans="1:7">
+      <c r="A55" s="5">
+        <v>0</v>
+      </c>
+      <c r="B55" s="5">
         <v>30</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="5">
         <v>9000</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="9">
-        <v>0</v>
-      </c>
-      <c r="B56" s="9">
+    <row r="56" spans="1:7">
+      <c r="A56" s="5">
+        <v>0</v>
+      </c>
+      <c r="B56" s="5">
         <v>100</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="5">
         <v>9000</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
-        <v>0</v>
-      </c>
-      <c r="B57" s="9">
+    <row r="57" spans="1:7">
+      <c r="A57" s="5">
+        <v>0</v>
+      </c>
+      <c r="B57" s="5">
         <v>300</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="5">
         <v>9000</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2862,870 +5930,870 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EEB4E8-EA78-4265-9CF0-52F7D0DD4BED}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>32</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>32</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>32</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>32</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>32</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>32</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>32</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>32</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>32</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="5">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>32</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>32</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>32</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>0</v>
-      </c>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="5">
         <v>32</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>0</v>
-      </c>
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="5">
         <v>32</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>0</v>
-      </c>
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="5">
         <v>32</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>0</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="5">
         <v>32</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>0</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="5">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="5">
         <v>32</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
-        <v>0</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="5">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="5">
         <v>32</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>0</v>
-      </c>
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="5">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="5">
         <v>32</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
-        <v>0</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="5">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="5">
         <v>32</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
-        <v>0</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="5">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="5">
         <v>32</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
-        <v>0</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="5">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="5">
         <v>32</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
-        <v>0</v>
-      </c>
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="5">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="5">
         <v>32</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
-        <v>0</v>
-      </c>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="5">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="5">
         <v>32</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
-        <v>0</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="5">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="5">
         <v>32</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
-        <v>0</v>
-      </c>
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="5">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="5">
         <v>32</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="9" t="s">
+      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
-        <v>0</v>
-      </c>
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="5">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="5">
         <v>32</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
-        <v>0</v>
-      </c>
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="5">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="5">
         <v>32</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="E41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
-        <v>0</v>
-      </c>
-      <c r="B42" s="9" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="5">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="5">
         <v>32</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="9" t="s">
+      <c r="E42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
-        <v>0</v>
-      </c>
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="5">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="5">
         <v>32</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="E43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
-        <v>0</v>
-      </c>
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="5">
+        <v>0</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="5">
         <v>32</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
-        <v>0</v>
-      </c>
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="5">
+        <v>0</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="5">
         <v>32</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="9" t="s">
+      <c r="E46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
-        <v>0</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" s="5">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="5">
         <v>32</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
-        <v>0</v>
-      </c>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="5">
+        <v>0</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="5">
         <v>32</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="E48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
-        <v>0</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="5">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="5">
         <v>32</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="E49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3743,7 +6811,7 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
@@ -3760,577 +6828,577 @@
     <col min="13" max="14" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <v>9050</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
         <v>1</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="5" spans="1:14">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
         <v>2999</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>9050</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>31</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <v>9000</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>9050</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>0</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
         <v>1</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>0</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="10" spans="1:14">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
         <v>2999</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <v>9050</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>31</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>0</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <v>9000</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>10</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>0</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="4">
         <v>9050</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="10" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>0</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>0</v>
-      </c>
-      <c r="B15" s="8">
+    <row r="15" spans="1:14">
+      <c r="A15" s="4">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
         <v>2999</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="4">
         <v>9050</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="4">
         <v>31</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>0</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="4">
         <v>9000</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
         <v>10</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>9050</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="10" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>0</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
         <v>1</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
-      <c r="B20" s="8">
+    <row r="20" spans="1:14">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
         <v>2999</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>9050</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <v>31</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>0</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="4">
         <v>9000</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
         <v>10</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4342,11 +7410,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B68A3E-169F-4894-9368-EF1B0602432C}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
@@ -4360,8 +7428,8 @@
     <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4370,34 +7438,34 @@
       <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4410,14 +7478,14 @@
       <c r="D3">
         <v>31</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4430,14 +7498,14 @@
       <c r="D4">
         <v>31</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4450,14 +7518,14 @@
       <c r="D5">
         <v>31</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4470,19 +7538,19 @@
       <c r="D6">
         <v>31</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4495,14 +7563,14 @@
       <c r="D8">
         <v>31</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4515,14 +7583,14 @@
       <c r="D9">
         <v>31</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4535,14 +7603,14 @@
       <c r="D10">
         <v>31</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4555,19 +7623,19 @@
       <c r="D11">
         <v>31</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4580,14 +7648,14 @@
       <c r="D13">
         <v>31</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4600,14 +7668,14 @@
       <c r="D14">
         <v>31</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4617,7 +7685,7 @@
       <c r="E15">
         <v>9000</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
@@ -4630,7 +7698,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4640,7 +7708,7 @@
       <c r="E16">
         <v>9050</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
@@ -4653,12 +7721,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4671,14 +7739,14 @@
       <c r="D18">
         <v>31</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4691,14 +7759,14 @@
       <c r="D19">
         <v>31</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4708,7 +7776,7 @@
       <c r="E20">
         <v>9000</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
@@ -4721,7 +7789,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4731,7 +7799,7 @@
       <c r="E21">
         <v>9100</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
@@ -4741,7 +7809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4751,7 +7819,7 @@
       <c r="E22">
         <v>9050</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
@@ -4764,12 +7832,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4782,14 +7850,14 @@
       <c r="D24">
         <v>31</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4802,14 +7870,14 @@
       <c r="D25">
         <v>31</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>0</v>
       </c>
@@ -4819,7 +7887,7 @@
       <c r="E26">
         <v>9100</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
@@ -4832,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>0</v>
       </c>
@@ -4842,7 +7910,7 @@
       <c r="E27">
         <v>9100</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
@@ -4852,7 +7920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4862,7 +7930,7 @@
       <c r="E28">
         <v>9100</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="s">
@@ -4875,12 +7943,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4893,14 +7961,14 @@
       <c r="D30">
         <v>31</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>0</v>
       </c>
@@ -4913,14 +7981,14 @@
       <c r="D31">
         <v>31</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>0</v>
       </c>
@@ -4933,19 +8001,19 @@
       <c r="D32">
         <v>31</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>0</v>
       </c>
@@ -4958,14 +8026,14 @@
       <c r="D34">
         <v>31</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>0</v>
       </c>
@@ -4978,14 +8046,14 @@
       <c r="D35">
         <v>31</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>0</v>
       </c>
@@ -4998,14 +8066,14 @@
       <c r="D36">
         <v>31</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>0</v>
       </c>
@@ -5018,19 +8086,19 @@
       <c r="D37">
         <v>31</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G37" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>0</v>
       </c>
@@ -5043,14 +8111,14 @@
       <c r="D39">
         <v>31</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>0</v>
       </c>
@@ -5063,14 +8131,14 @@
       <c r="D40">
         <v>31</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>0</v>
       </c>
@@ -5083,14 +8151,14 @@
       <c r="D41">
         <v>31</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>0</v>
       </c>
@@ -5103,19 +8171,19 @@
       <c r="D42">
         <v>31</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>0</v>
       </c>
@@ -5128,14 +8196,14 @@
       <c r="D44">
         <v>31</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>0</v>
       </c>
@@ -5148,14 +8216,14 @@
       <c r="D45">
         <v>31</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>0</v>
       </c>
@@ -5165,7 +8233,7 @@
       <c r="E46">
         <v>9000</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
@@ -5178,7 +8246,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>0</v>
       </c>
@@ -5188,7 +8256,7 @@
       <c r="E47">
         <v>9050</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
@@ -5201,12 +8269,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>0</v>
       </c>
@@ -5219,14 +8287,14 @@
       <c r="D49">
         <v>31</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G49" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>0</v>
       </c>
@@ -5239,14 +8307,14 @@
       <c r="D50">
         <v>31</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>0</v>
       </c>
@@ -5256,7 +8324,7 @@
       <c r="E51">
         <v>9000</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G51" t="s">
@@ -5269,7 +8337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>0</v>
       </c>
@@ -5279,7 +8347,7 @@
       <c r="E52">
         <v>9100</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
@@ -5289,7 +8357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>0</v>
       </c>
@@ -5299,7 +8367,7 @@
       <c r="E53">
         <v>9050</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G53" t="s">
@@ -5312,12 +8380,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>0</v>
       </c>
@@ -5330,14 +8398,14 @@
       <c r="D55">
         <v>31</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G55" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>0</v>
       </c>
@@ -5350,14 +8418,14 @@
       <c r="D56">
         <v>31</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>0</v>
       </c>
@@ -5367,7 +8435,7 @@
       <c r="E57">
         <v>9100</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
@@ -5377,7 +8445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>0</v>
       </c>
@@ -5387,7 +8455,7 @@
       <c r="E58">
         <v>9100</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G58" t="s">
@@ -5397,7 +8465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>0</v>
       </c>
@@ -5407,7 +8475,7 @@
       <c r="E59">
         <v>9100</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
@@ -5417,12 +8485,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>0</v>
       </c>
@@ -5435,14 +8503,14 @@
       <c r="D61">
         <v>31</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G61" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>0</v>
       </c>
@@ -5455,14 +8523,14 @@
       <c r="D62">
         <v>31</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G62" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>0</v>
       </c>
@@ -5475,11 +8543,700 @@
       <c r="D63">
         <v>31</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G63" t="s">
         <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D80B7A-2F7F-44CB-94D3-672C4C9BED17}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3">
+        <v>65103</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5">
+        <v>65103</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7">
+        <v>65103</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9">
+        <v>65103</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFDFCCB-DFF7-466C-95F8-BB752093AD46}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3">
+        <v>65101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <v>65102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7">
+        <v>65103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>65104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <v>65105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
+        <v>65106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15">
+        <v>65101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17">
+        <v>65102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19">
+        <v>65103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21">
+        <v>65104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23">
+        <v>65105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25">
+        <v>65106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F6DC45-993E-4A5F-A2BF-10AE02B022F6}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B3473E-4198-483D-8087-D971C5F63059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88532567-6F04-4298-8088-ABDB49AD890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="39570" yWindow="435" windowWidth="24960" windowHeight="13680" firstSheet="4" activeTab="12" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="272">
   <si>
     <t>mgmt_ip</t>
   </si>
@@ -846,9 +846,6 @@
     <t>20.20.20.6:3</t>
   </si>
   <si>
-    <t>peer-group</t>
-  </si>
-  <si>
     <t>mclag-peer,l3rtr</t>
   </si>
   <si>
@@ -859,6 +856,12 @@
   </si>
   <si>
     <t>vni_vrf</t>
+  </si>
+  <si>
+    <t>vtep_name</t>
+  </si>
+  <si>
+    <t>vtep1</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -973,6 +976,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035F7E6-6A3D-48A1-B528-F39752DCEDD0}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1797,7 +1803,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2904,7 +2910,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3532,7 +3538,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3570,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3598,7 +3604,7 @@
         <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3621,7 +3627,7 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3649,7 +3655,7 @@
         <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3672,7 +3678,7 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3700,7 +3706,7 @@
         <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3723,7 +3729,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3751,7 +3757,7 @@
         <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3774,7 +3780,7 @@
         <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3802,7 +3808,7 @@
         <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3825,7 +3831,7 @@
         <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3853,7 +3859,7 @@
         <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3876,7 +3882,7 @@
         <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3904,7 +3910,7 @@
         <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3927,7 +3933,7 @@
         <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3955,7 +3961,7 @@
         <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3978,7 +3984,7 @@
         <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3989,596 +3995,877 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE81A0-AC4B-4D30-8365-F6A87D15D01B}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>269</v>
       </c>
-      <c r="D1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="D3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4">
         <v>10010</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="D4">
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5">
         <v>10020</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="D5">
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6">
         <v>5010</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="D6">
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7">
         <v>5020</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="D7">
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8">
         <v>5100</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="D8">
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9">
         <v>5200</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="F9" t="s">
+    <row r="10" spans="1:8">
+      <c r="G10" t="s">
         <v>56</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>10010</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="F10" t="s">
+    <row r="11" spans="1:8">
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>10020</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14">
         <v>10010</v>
       </c>
-      <c r="E12">
+      <c r="F14">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="D13">
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15">
         <v>10020</v>
       </c>
-      <c r="E13">
+      <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="D14">
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16">
         <v>5010</v>
       </c>
-      <c r="E14">
+      <c r="F16">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="D15">
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17">
         <v>5020</v>
       </c>
-      <c r="E15">
+      <c r="F17">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="D16">
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18">
         <v>5100</v>
       </c>
-      <c r="E16">
+      <c r="F18">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="D17">
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19">
         <v>5200</v>
       </c>
-      <c r="E17">
+      <c r="F19">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="F18" t="s">
+    <row r="20" spans="1:8">
+      <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="G18">
+      <c r="H20">
         <v>10010</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="F19" t="s">
+    <row r="21" spans="1:8">
+      <c r="G21" t="s">
         <v>57</v>
       </c>
-      <c r="G19">
+      <c r="H21">
         <v>10020</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="D21">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24">
         <v>10010</v>
       </c>
-      <c r="E21">
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="D22">
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25">
         <v>10020</v>
       </c>
-      <c r="E22">
+      <c r="F25">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="D23">
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26">
         <v>5010</v>
       </c>
-      <c r="E23">
+      <c r="F26">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="D24">
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27">
         <v>5020</v>
       </c>
-      <c r="E24">
+      <c r="F27">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="D25">
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28">
         <v>5100</v>
       </c>
-      <c r="E25">
+      <c r="F28">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="D26">
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29">
         <v>5200</v>
       </c>
-      <c r="E26">
+      <c r="F29">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="F27" t="s">
+    <row r="30" spans="1:8">
+      <c r="G30" t="s">
         <v>56</v>
       </c>
-      <c r="G27">
+      <c r="H30">
         <v>10010</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="F28" t="s">
+    <row r="31" spans="1:8">
+      <c r="G31" t="s">
         <v>57</v>
       </c>
-      <c r="G28">
+      <c r="H31">
         <v>10020</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="D30">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34">
         <v>10010</v>
       </c>
-      <c r="E30">
+      <c r="F34">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="D31">
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35">
         <v>10020</v>
       </c>
-      <c r="E31">
+      <c r="F35">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="D32">
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36">
         <v>5010</v>
       </c>
-      <c r="E32">
+      <c r="F36">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="D33">
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37">
         <v>5020</v>
       </c>
-      <c r="E33">
+      <c r="F37">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="D34">
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38">
         <v>5100</v>
       </c>
-      <c r="E34">
+      <c r="F38">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="D35">
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39">
         <v>5200</v>
       </c>
-      <c r="E35">
+      <c r="F39">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="F36" t="s">
+    <row r="40" spans="1:8">
+      <c r="G40" t="s">
         <v>56</v>
       </c>
-      <c r="G36">
+      <c r="H40">
         <v>10010</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="F37" t="s">
+    <row r="41" spans="1:8">
+      <c r="G41" t="s">
         <v>57</v>
       </c>
-      <c r="G37">
+      <c r="H41">
         <v>10020</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="D39">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44">
         <v>10010</v>
       </c>
-      <c r="E39">
+      <c r="F44">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="D40">
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45">
         <v>10020</v>
       </c>
-      <c r="E40">
+      <c r="F45">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="D41">
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E46">
         <v>5010</v>
       </c>
-      <c r="E41">
+      <c r="F46">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="D42">
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E47">
         <v>5030</v>
       </c>
-      <c r="E42">
+      <c r="F47">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="D43">
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48">
         <v>5100</v>
       </c>
-      <c r="E43">
+      <c r="F48">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="D44">
+    <row r="49" spans="1:8">
+      <c r="B49" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49">
         <v>5300</v>
       </c>
-      <c r="E44">
+      <c r="F49">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="F45" t="s">
+    <row r="50" spans="1:8">
+      <c r="G50" t="s">
         <v>56</v>
       </c>
-      <c r="G45">
+      <c r="H50">
         <v>10010</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="F46" t="s">
+    <row r="51" spans="1:8">
+      <c r="G51" t="s">
         <v>57</v>
       </c>
-      <c r="G46">
+      <c r="H51">
         <v>10020</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="D48">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54">
         <v>10010</v>
       </c>
-      <c r="E48">
+      <c r="F54">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="D49">
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55">
         <v>10020</v>
       </c>
-      <c r="E49">
+      <c r="F55">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="D50">
+    <row r="56" spans="1:8">
+      <c r="B56" t="s">
+        <v>271</v>
+      </c>
+      <c r="E56">
         <v>5010</v>
       </c>
-      <c r="E50">
+      <c r="F56">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="D51">
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57">
         <v>5030</v>
       </c>
-      <c r="E51">
+      <c r="F57">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="D52">
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58">
         <v>5100</v>
       </c>
-      <c r="E52">
+      <c r="F58">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="D53">
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
+        <v>271</v>
+      </c>
+      <c r="E59">
         <v>5300</v>
       </c>
-      <c r="E53">
+      <c r="F59">
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="F54" t="s">
+    <row r="60" spans="1:8">
+      <c r="G60" t="s">
         <v>56</v>
       </c>
-      <c r="G54">
+      <c r="H60">
         <v>10010</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="F55" t="s">
+    <row r="61" spans="1:8">
+      <c r="G61" t="s">
         <v>57</v>
       </c>
-      <c r="G55">
+      <c r="H61">
         <v>10020</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="D57">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
+        <v>271</v>
+      </c>
+      <c r="E64">
         <v>10010</v>
       </c>
-      <c r="E57">
+      <c r="F64">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="D58">
+    <row r="65" spans="1:8">
+      <c r="B65" t="s">
+        <v>271</v>
+      </c>
+      <c r="E65">
         <v>10020</v>
       </c>
-      <c r="E58">
+      <c r="F65">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="D59">
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>271</v>
+      </c>
+      <c r="E66">
         <v>5010</v>
       </c>
-      <c r="E59">
+      <c r="F66">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="D60">
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67">
         <v>5030</v>
       </c>
-      <c r="E60">
+      <c r="F67">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="D61">
+    <row r="68" spans="1:8">
+      <c r="B68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68">
         <v>5100</v>
       </c>
-      <c r="E61">
+      <c r="F68">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="D62">
+    <row r="69" spans="1:8">
+      <c r="B69" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69">
         <v>5300</v>
       </c>
-      <c r="E62">
+      <c r="F69">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="F63" t="s">
+    <row r="70" spans="1:8">
+      <c r="G70" t="s">
         <v>56</v>
       </c>
-      <c r="G63">
+      <c r="H70">
         <v>10010</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="F64" t="s">
+    <row r="71" spans="1:8">
+      <c r="G71" t="s">
         <v>57</v>
       </c>
-      <c r="G64">
+      <c r="H71">
         <v>10020</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="D66">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
+        <v>271</v>
+      </c>
+      <c r="E74">
         <v>10010</v>
       </c>
-      <c r="E66">
+      <c r="F74">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="D67">
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
+        <v>271</v>
+      </c>
+      <c r="E75">
         <v>10020</v>
       </c>
-      <c r="E67">
+      <c r="F75">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="D68">
+    <row r="76" spans="1:8">
+      <c r="B76" t="s">
+        <v>271</v>
+      </c>
+      <c r="E76">
         <v>5010</v>
       </c>
-      <c r="E68">
+      <c r="F76">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="D69">
+    <row r="77" spans="1:8">
+      <c r="B77" t="s">
+        <v>271</v>
+      </c>
+      <c r="E77">
         <v>5030</v>
       </c>
-      <c r="E69">
+      <c r="F77">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="D70">
+    <row r="78" spans="1:8">
+      <c r="B78" t="s">
+        <v>271</v>
+      </c>
+      <c r="E78">
         <v>5100</v>
       </c>
-      <c r="E70">
+      <c r="F78">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="D71">
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>271</v>
+      </c>
+      <c r="E79">
         <v>5300</v>
       </c>
-      <c r="E71">
+      <c r="F79">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="F72" t="s">
+    <row r="80" spans="1:8">
+      <c r="G80" t="s">
         <v>56</v>
       </c>
-      <c r="G72">
+      <c r="H80">
         <v>10010</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="F73" t="s">
+    <row r="81" spans="7:8">
+      <c r="G81" t="s">
         <v>57</v>
       </c>
-      <c r="G73">
+      <c r="H81">
         <v>10020</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A22:H22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6808,7 +7095,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8561,7 +8848,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8693,10 +8980,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFDFCCB-DFF7-466C-95F8-BB752093AD46}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8706,11 +8993,12 @@
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8726,13 +9014,22 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="B3">
         <v>65101</v>
       </c>
@@ -8746,36 +9043,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8">
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="F5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5">
+    <row r="7" spans="1:8">
+      <c r="B7">
         <v>65102</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>64</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7">
-        <v>65103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -8784,36 +9075,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9">
-        <v>65104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    <row r="8" spans="1:8">
+      <c r="F8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11">
-        <v>65105</v>
+        <v>65103</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>16</v>
@@ -8822,93 +9107,78 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8">
+      <c r="F12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16">
+        <v>65104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13">
-        <v>65106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15">
-        <v>65101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17">
-        <v>65102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19">
-        <v>65103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    <row r="17" spans="1:8">
+      <c r="F17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="B21">
-        <v>65104</v>
+        <v>65105</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -8917,31 +9187,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23">
-        <v>65105</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="22" spans="1:8">
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" t="s">
         <v>70</v>
       </c>
-      <c r="D23">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25">
         <v>65106</v>
       </c>
@@ -8953,6 +9217,227 @@
       </c>
       <c r="E25" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29">
+        <v>65101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33">
+        <v>65102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="F35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37">
+        <v>65103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="F38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="F39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="F40" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42">
+        <v>65104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="F43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="F44" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="F45" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47">
+        <v>65105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="F48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="F49" t="s">
+        <v>191</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51">
+        <v>65106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="F52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8965,8 +9450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F6DC45-993E-4A5F-A2BF-10AE02B022F6}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F739E-D569-4E71-8B6F-DEF13D3FF2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A8FFB-848A-45FE-AC6A-C1C92D04D4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40080" yWindow="945" windowWidth="24960" windowHeight="13680" firstSheet="4" activeTab="9" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="40080" yWindow="945" windowWidth="24960" windowHeight="13680" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -1381,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035F7E6-6A3D-48A1-B528-F39752DCEDD0}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042134A-B227-445A-ADC9-97C4504769C8}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5640,14 +5640,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A72:H72"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A72:H72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11433,11 +11433,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A25:D25"/>
@@ -11445,6 +11440,11 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A8FFB-848A-45FE-AC6A-C1C92D04D4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09164500-A20D-444B-A86B-C44D9167376F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40080" yWindow="945" windowWidth="24960" windowHeight="13680" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="40080" yWindow="945" windowWidth="24960" windowHeight="13680" firstSheet="1" activeTab="9" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="276">
   <si>
     <t>mgmt_ip</t>
   </si>
@@ -639,13 +639,7 @@
     <t>to-borderleaf1-overlay</t>
   </si>
   <si>
-    <t>101.101.101.1</t>
-  </si>
-  <si>
     <t>to-leaf2-mclag</t>
-  </si>
-  <si>
-    <t>101.101.101.0</t>
   </si>
   <si>
     <t>to-leaf1-mclag</t>
@@ -1381,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035F7E6-6A3D-48A1-B528-F39752DCEDD0}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1676,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
@@ -1714,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -1752,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>11</v>
@@ -1790,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -1828,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
@@ -1866,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -1902,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042134A-B227-445A-ADC9-97C4504769C8}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2240,7 +2234,7 @@
         <v>190</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2255,13 +2249,13 @@
         <v>190</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="C25" s="12">
         <v>65104</v>
@@ -2270,7 +2264,7 @@
         <v>191</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2324,7 +2318,7 @@
         <v>190</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2339,13 +2333,13 @@
         <v>190</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="C31" s="13">
         <v>65103</v>
@@ -2354,7 +2348,7 @@
         <v>191</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2408,7 +2402,7 @@
         <v>190</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2423,7 +2417,7 @@
         <v>190</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2477,7 +2471,7 @@
         <v>190</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2492,7 +2486,7 @@
         <v>190</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2504,10 +2498,10 @@
         <v>65206</v>
       </c>
       <c r="D42" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2519,10 +2513,10 @@
         <v>65206</v>
       </c>
       <c r="D43" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2537,7 +2531,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C45" s="12">
         <v>65206</v>
@@ -2552,7 +2546,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C46" s="12">
         <v>65203</v>
@@ -2567,7 +2561,7 @@
     <row r="47" spans="1:5">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C47" s="12">
         <v>65204</v>
@@ -2582,7 +2576,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C48" s="12">
         <v>65205</v>
@@ -2597,7 +2591,7 @@
     <row r="49" spans="1:5">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C49" s="12">
         <v>65203</v>
@@ -2612,7 +2606,7 @@
     <row r="50" spans="1:5">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C50" s="12">
         <v>65204</v>
@@ -2627,7 +2621,7 @@
     <row r="51" spans="1:5">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C51" s="12">
         <v>65205</v>
@@ -2642,7 +2636,7 @@
     <row r="52" spans="1:5">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C52" s="12">
         <v>65206</v>
@@ -2666,7 +2660,7 @@
     <row r="54" spans="1:5">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C54" s="13">
         <v>65206</v>
@@ -2681,7 +2675,7 @@
     <row r="55" spans="1:5">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C55" s="13">
         <v>65203</v>
@@ -2696,7 +2690,7 @@
     <row r="56" spans="1:5">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C56" s="13">
         <v>65204</v>
@@ -2711,7 +2705,7 @@
     <row r="57" spans="1:5">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C57" s="13">
         <v>65205</v>
@@ -2725,8 +2719,8 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="13"/>
-      <c r="B58" s="13" t="s">
-        <v>59</v>
+      <c r="B58" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C58" s="13">
         <v>65203</v>
@@ -2740,8 +2734,8 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="13"/>
-      <c r="B59" s="13" t="s">
-        <v>67</v>
+      <c r="B59" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C59" s="13">
         <v>65204</v>
@@ -2755,8 +2749,8 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="13"/>
-      <c r="B60" s="13" t="s">
-        <v>70</v>
+      <c r="B60" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C60" s="13">
         <v>65205</v>
@@ -2770,8 +2764,8 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="13"/>
-      <c r="B61" s="13" t="s">
-        <v>74</v>
+      <c r="B61" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C61" s="13">
         <v>65206</v>
@@ -2795,7 +2789,7 @@
     <row r="63" spans="1:5">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C63" s="12">
         <v>65201</v>
@@ -2810,7 +2804,7 @@
     <row r="64" spans="1:5">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C64" s="12">
         <v>65202</v>
@@ -2825,7 +2819,7 @@
     <row r="65" spans="1:5">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" s="12">
         <v>65201</v>
@@ -2834,13 +2828,13 @@
         <v>190</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C66" s="12">
         <v>65202</v>
@@ -2849,13 +2843,13 @@
         <v>190</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="C67" s="12">
         <v>65204</v>
@@ -2864,7 +2858,7 @@
         <v>191</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2879,7 +2873,7 @@
     <row r="69" spans="1:5">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C69" s="13">
         <v>65201</v>
@@ -2894,7 +2888,7 @@
     <row r="70" spans="1:5">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C70" s="13">
         <v>65202</v>
@@ -2908,8 +2902,8 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="13"/>
-      <c r="B71" s="13" t="s">
-        <v>63</v>
+      <c r="B71" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C71" s="13">
         <v>65201</v>
@@ -2918,13 +2912,13 @@
         <v>190</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="13"/>
-      <c r="B72" s="13" t="s">
-        <v>64</v>
+      <c r="B72" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="C72" s="13">
         <v>65202</v>
@@ -2933,13 +2927,13 @@
         <v>190</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="C73" s="13">
         <v>65203</v>
@@ -2948,7 +2942,7 @@
         <v>191</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2963,7 +2957,7 @@
     <row r="75" spans="1:5">
       <c r="A75" s="12"/>
       <c r="B75" s="12" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C75" s="12">
         <v>65201</v>
@@ -2978,7 +2972,7 @@
     <row r="76" spans="1:5">
       <c r="A76" s="12"/>
       <c r="B76" s="12" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C76" s="12">
         <v>65202</v>
@@ -2993,7 +2987,7 @@
     <row r="77" spans="1:5">
       <c r="A77" s="12"/>
       <c r="B77" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C77" s="12">
         <v>65201</v>
@@ -3002,13 +2996,13 @@
         <v>190</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="12"/>
       <c r="B78" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C78" s="12">
         <v>65202</v>
@@ -3017,7 +3011,7 @@
         <v>190</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3032,7 +3026,7 @@
     <row r="80" spans="1:5">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="C80" s="13">
         <v>65201</v>
@@ -3047,7 +3041,7 @@
     <row r="81" spans="1:5">
       <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C81" s="13">
         <v>65202</v>
@@ -3061,8 +3055,8 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="13"/>
-      <c r="B82" s="13" t="s">
-        <v>63</v>
+      <c r="B82" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C82" s="13">
         <v>65201</v>
@@ -3071,13 +3065,13 @@
         <v>190</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="13"/>
-      <c r="B83" s="13" t="s">
-        <v>64</v>
+      <c r="B83" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="C83" s="13">
         <v>65202</v>
@@ -3086,7 +3080,7 @@
         <v>190</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3098,10 +3092,10 @@
         <v>65106</v>
       </c>
       <c r="D84" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3113,10 +3107,10 @@
         <v>65106</v>
       </c>
       <c r="D85" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3165,16 +3159,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3196,13 +3190,13 @@
         <v>5010</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3214,13 +3208,13 @@
         <v>5020</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3232,13 +3226,13 @@
         <v>5100</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3250,13 +3244,13 @@
         <v>5200</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3278,13 +3272,13 @@
         <v>5010</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3296,13 +3290,13 @@
         <v>5020</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3314,13 +3308,13 @@
         <v>5100</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3332,13 +3326,13 @@
         <v>5200</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3360,13 +3354,13 @@
         <v>5010</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3378,13 +3372,13 @@
         <v>5020</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3396,13 +3390,13 @@
         <v>5100</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3414,13 +3408,13 @@
         <v>5200</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3442,13 +3436,13 @@
         <v>5010</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3460,13 +3454,13 @@
         <v>5020</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3478,13 +3472,13 @@
         <v>5100</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3496,13 +3490,13 @@
         <v>5200</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3524,13 +3518,13 @@
         <v>5010</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3542,13 +3536,13 @@
         <v>5030</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3560,13 +3554,13 @@
         <v>5100</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3578,13 +3572,13 @@
         <v>5300</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3606,13 +3600,13 @@
         <v>5010</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3624,13 +3618,13 @@
         <v>5030</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3642,13 +3636,13 @@
         <v>5100</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3660,13 +3654,13 @@
         <v>5300</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3688,13 +3682,13 @@
         <v>5010</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3706,13 +3700,13 @@
         <v>5030</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3724,13 +3718,13 @@
         <v>5100</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3742,13 +3736,13 @@
         <v>5300</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3770,13 +3764,13 @@
         <v>5010</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3788,13 +3782,13 @@
         <v>5030</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3806,13 +3800,13 @@
         <v>5100</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3824,13 +3818,13 @@
         <v>5300</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G41" s="14"/>
     </row>
@@ -3881,13 +3875,13 @@
         <v>184</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
@@ -3917,19 +3911,19 @@
         <v>61</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3941,19 +3935,19 @@
         <v>62</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3977,19 +3971,19 @@
         <v>68</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4001,19 +3995,19 @@
         <v>69</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4037,19 +4031,19 @@
         <v>72</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4061,19 +4055,19 @@
         <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4097,19 +4091,19 @@
         <v>76</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4121,19 +4115,19 @@
         <v>77</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4157,19 +4151,19 @@
         <v>80</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4181,19 +4175,19 @@
         <v>81</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4217,19 +4211,19 @@
         <v>83</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4241,19 +4235,19 @@
         <v>84</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4277,19 +4271,19 @@
         <v>87</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4301,19 +4295,19 @@
         <v>88</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4337,19 +4331,19 @@
         <v>91</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4361,19 +4355,19 @@
         <v>92</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4417,16 +4411,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>36</v>
@@ -4435,7 +4429,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4453,7 +4447,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>60</v>
@@ -4467,7 +4461,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4483,7 +4477,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4499,7 +4493,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -4515,7 +4509,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4531,7 +4525,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4547,7 +4541,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4603,7 +4597,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>60</v>
@@ -4617,7 +4611,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4633,7 +4627,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4649,7 +4643,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4665,7 +4659,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4681,7 +4675,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4697,7 +4691,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4753,7 +4747,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>71</v>
@@ -4767,7 +4761,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4783,7 +4777,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4799,7 +4793,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4815,7 +4809,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -4831,7 +4825,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4847,7 +4841,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4903,7 +4897,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>75</v>
@@ -4917,7 +4911,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -4933,7 +4927,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -4949,7 +4943,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4965,7 +4959,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -4981,7 +4975,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -4997,7 +4991,7 @@
     <row r="39" spans="1:8">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -5053,7 +5047,7 @@
     <row r="43" spans="1:8">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>79</v>
@@ -5067,7 +5061,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -5083,7 +5077,7 @@
     <row r="45" spans="1:8">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5099,7 +5093,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5115,7 +5109,7 @@
     <row r="47" spans="1:8">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -5131,7 +5125,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5147,7 +5141,7 @@
     <row r="49" spans="1:8">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -5203,7 +5197,7 @@
     <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>79</v>
@@ -5217,7 +5211,7 @@
     <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5233,7 +5227,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -5249,7 +5243,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -5265,7 +5259,7 @@
     <row r="57" spans="1:8">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -5281,7 +5275,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -5297,7 +5291,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -5353,7 +5347,7 @@
     <row r="63" spans="1:8">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>86</v>
@@ -5367,7 +5361,7 @@
     <row r="64" spans="1:8">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -5383,7 +5377,7 @@
     <row r="65" spans="1:8">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -5399,7 +5393,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -5415,7 +5409,7 @@
     <row r="67" spans="1:8">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -5431,7 +5425,7 @@
     <row r="68" spans="1:8">
       <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -5447,7 +5441,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -5503,7 +5497,7 @@
     <row r="73" spans="1:8">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>90</v>
@@ -5517,7 +5511,7 @@
     <row r="74" spans="1:8">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -5533,7 +5527,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -5549,7 +5543,7 @@
     <row r="76" spans="1:8">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -5565,7 +5559,7 @@
     <row r="77" spans="1:8">
       <c r="A77" s="13"/>
       <c r="B77" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -5581,7 +5575,7 @@
     <row r="78" spans="1:8">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -5597,7 +5591,7 @@
     <row r="79" spans="1:8">
       <c r="A79" s="13"/>
       <c r="B79" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -7511,10 +7505,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D26" s="8">
         <v>32</v>
@@ -7523,7 +7517,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G26" s="8"/>
     </row>
@@ -7990,10 +7984,10 @@
     <row r="51" spans="1:14">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D51" s="8">
         <v>32</v>
@@ -8002,7 +7996,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51"/>
@@ -8037,7 +8031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E277F-ED5A-4664-B237-01D026EDAD6A}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -11433,6 +11429,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A25:D25"/>
@@ -11440,11 +11441,6 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09164500-A20D-444B-A86B-C44D9167376F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A88C1C-4B74-49A4-AD21-5772D75E59FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40080" yWindow="945" windowWidth="24960" windowHeight="13680" firstSheet="1" activeTab="9" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -880,7 +880,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +898,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1896,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042134A-B227-445A-ADC9-97C4504769C8}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2719,7 +2725,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="13"/>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="13">
@@ -2734,7 +2740,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="13"/>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C59" s="13">
@@ -2749,7 +2755,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="13"/>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="13">
@@ -2764,7 +2770,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="13"/>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C61" s="13">
@@ -2902,7 +2908,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="13"/>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="13">
@@ -2917,7 +2923,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="13"/>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C72" s="13">
@@ -3055,7 +3061,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="13"/>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C82" s="13">
@@ -3070,7 +3076,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="13"/>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C83" s="13">
@@ -3086,7 +3092,7 @@
     <row r="84" spans="1:5">
       <c r="A84" s="13"/>
       <c r="B84" s="13" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C84" s="13">
         <v>65106</v>
@@ -3101,7 +3107,7 @@
     <row r="85" spans="1:5">
       <c r="A85" s="13"/>
       <c r="B85" s="13" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C85" s="13">
         <v>65106</v>
@@ -3137,7 +3143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C52FBF0-50B8-419E-8B18-9F1CF31FBDEC}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -4390,8 +4396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE81A0-AC4B-4D30-8365-F6A87D15D01B}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5877,7 +5883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01666E55-9237-448F-B2CC-24EB808BCEEE}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -5885,7 +5891,7 @@
   <cols>
     <col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.08984375" style="3" customWidth="1"/>
@@ -7003,7 +7009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EEB4E8-EA78-4265-9CF0-52F7D0DD4BED}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
@@ -8031,8 +8037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E277F-ED5A-4664-B237-01D026EDAD6A}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8215,7 +8221,9 @@
       <c r="J6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -8339,7 +8347,9 @@
       <c r="J11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -8463,7 +8473,9 @@
       <c r="J16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -8587,7 +8599,9 @@
       <c r="J21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="8"/>
@@ -8620,7 +8634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B68A3E-169F-4894-9368-EF1B0602432C}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -9095,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -9791,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -10071,6 +10087,7 @@
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="A38:J38"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10245,8 +10262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFDFCCB-DFF7-466C-95F8-BB752093AD46}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10666,10 +10683,10 @@
     <row r="29" spans="1:8">
       <c r="A29" s="12"/>
       <c r="B29" s="12">
-        <v>65101</v>
+        <v>65201</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="12">
         <v>16</v>
@@ -10722,10 +10739,10 @@
     <row r="33" spans="1:8">
       <c r="A33" s="13"/>
       <c r="B33" s="13">
-        <v>65102</v>
+        <v>65202</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" s="13">
         <v>16</v>
@@ -10778,10 +10795,10 @@
     <row r="37" spans="1:8">
       <c r="A37" s="12"/>
       <c r="B37" s="12">
-        <v>65103</v>
+        <v>65203</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D37" s="12">
         <v>16</v>
@@ -10848,10 +10865,10 @@
     <row r="42" spans="1:8">
       <c r="A42" s="13"/>
       <c r="B42" s="13">
-        <v>65104</v>
+        <v>65204</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D42" s="13">
         <v>16</v>
@@ -10918,10 +10935,10 @@
     <row r="47" spans="1:8">
       <c r="A47" s="12"/>
       <c r="B47" s="12">
-        <v>65105</v>
+        <v>65205</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D47" s="12">
         <v>16</v>
@@ -10974,10 +10991,10 @@
     <row r="51" spans="1:13">
       <c r="A51" s="13"/>
       <c r="B51" s="13">
-        <v>65106</v>
+        <v>65206</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D51" s="13">
         <v>16</v>
@@ -11044,7 +11061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F6DC45-993E-4A5F-A2BF-10AE02B022F6}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -11429,11 +11446,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A25:D25"/>
@@ -11441,6 +11453,11 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A88C1C-4B74-49A4-AD21-5772D75E59FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBA5F82-EB40-486D-B8F6-DBF34EE0691D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="70320" yWindow="1200" windowWidth="19200" windowHeight="11265" activeTab="3" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="276">
   <si>
     <t>mgmt_ip</t>
   </si>
@@ -570,9 +570,6 @@
     <t>customer2</t>
   </si>
   <si>
-    <t>Vrf-customer2</t>
-  </si>
-  <si>
     <t>portchannel_interface</t>
   </si>
   <si>
@@ -874,13 +871,16 @@
   </si>
   <si>
     <t>to-spine2-overlay</t>
+  </si>
+  <si>
+    <t>configurar API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +904,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1006,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1065,6 +1072,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1676,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
@@ -1714,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -1752,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>11</v>
@@ -1790,7 +1799,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -1828,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
@@ -1866,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -1900,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042134A-B227-445A-ADC9-97C4504769C8}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1919,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>49</v>
@@ -1949,7 +1958,7 @@
         <v>65106</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>122</v>
@@ -1964,7 +1973,7 @@
         <v>65103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>123</v>
@@ -1979,7 +1988,7 @@
         <v>65104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>125</v>
@@ -1994,7 +2003,7 @@
         <v>65105</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>125</v>
@@ -2009,10 +2018,10 @@
         <v>65103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2024,10 +2033,10 @@
         <v>65104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2039,10 +2048,10 @@
         <v>65105</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2054,10 +2063,10 @@
         <v>65106</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2078,7 +2087,7 @@
         <v>65106</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>122</v>
@@ -2093,7 +2102,7 @@
         <v>65103</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>123</v>
@@ -2108,7 +2117,7 @@
         <v>65104</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>125</v>
@@ -2123,7 +2132,7 @@
         <v>65105</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>125</v>
@@ -2138,10 +2147,10 @@
         <v>65103</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2153,10 +2162,10 @@
         <v>65104</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2168,10 +2177,10 @@
         <v>65105</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2183,10 +2192,10 @@
         <v>65106</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2207,7 +2216,7 @@
         <v>65101</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>150</v>
@@ -2222,7 +2231,7 @@
         <v>65102</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>151</v>
@@ -2237,10 +2246,10 @@
         <v>65101</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2252,10 +2261,10 @@
         <v>65102</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2267,10 +2276,10 @@
         <v>65104</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2291,7 +2300,7 @@
         <v>65101</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>150</v>
@@ -2306,7 +2315,7 @@
         <v>65102</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>151</v>
@@ -2321,10 +2330,10 @@
         <v>65101</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2336,10 +2345,10 @@
         <v>65102</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2351,10 +2360,10 @@
         <v>65103</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2366,7 +2375,7 @@
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
         <v>121</v>
@@ -2375,13 +2384,13 @@
         <v>65101</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
         <v>129</v>
@@ -2390,13 +2399,13 @@
         <v>65102</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
         <v>63</v>
@@ -2405,13 +2414,13 @@
         <v>65101</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
         <v>64</v>
@@ -2420,13 +2429,13 @@
         <v>65102</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="28" t="s">
         <v>16</v>
       </c>
@@ -2435,7 +2444,7 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:7">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>115</v>
@@ -2444,13 +2453,13 @@
         <v>65101</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:7">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
         <v>126</v>
@@ -2459,13 +2468,13 @@
         <v>65102</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
         <v>63</v>
@@ -2474,13 +2483,13 @@
         <v>65101</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
         <v>64</v>
@@ -2489,43 +2498,51 @@
         <v>65102</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E41" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="13"/>
+      <c r="B42" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="30">
+        <v>65206</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="31" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="13">
+      <c r="G42" s="31"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13"/>
+      <c r="B43" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="30">
         <v>65206</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D43" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E43" s="30" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="13">
-        <v>65206</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="29" t="s">
         <v>17</v>
       </c>
@@ -2534,7 +2551,7 @@
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:7">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
         <v>166</v>
@@ -2543,13 +2560,13 @@
         <v>65206</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:7">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
         <v>160</v>
@@ -2558,13 +2575,13 @@
         <v>65203</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:7">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
         <v>162</v>
@@ -2573,13 +2590,13 @@
         <v>65204</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:7">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
         <v>164</v>
@@ -2588,7 +2605,7 @@
         <v>65205</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>125</v>
@@ -2603,10 +2620,10 @@
         <v>65203</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2618,10 +2635,10 @@
         <v>65204</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2633,10 +2650,10 @@
         <v>65205</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2648,10 +2665,10 @@
         <v>65206</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2672,7 +2689,7 @@
         <v>65206</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>122</v>
@@ -2687,7 +2704,7 @@
         <v>65203</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>123</v>
@@ -2702,7 +2719,7 @@
         <v>65204</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>125</v>
@@ -2717,7 +2734,7 @@
         <v>65205</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>125</v>
@@ -2732,10 +2749,10 @@
         <v>65203</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2747,10 +2764,10 @@
         <v>65204</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2762,10 +2779,10 @@
         <v>65205</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2777,10 +2794,10 @@
         <v>65206</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2801,7 +2818,7 @@
         <v>65201</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>150</v>
@@ -2816,7 +2833,7 @@
         <v>65202</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>151</v>
@@ -2831,10 +2848,10 @@
         <v>65201</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2846,10 +2863,10 @@
         <v>65202</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2861,10 +2878,10 @@
         <v>65204</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2885,7 +2902,7 @@
         <v>65201</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>150</v>
@@ -2900,7 +2917,7 @@
         <v>65202</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>151</v>
@@ -2915,10 +2932,10 @@
         <v>65201</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2930,10 +2947,10 @@
         <v>65202</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2945,10 +2962,10 @@
         <v>65203</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2969,7 +2986,7 @@
         <v>65201</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>150</v>
@@ -2984,7 +3001,7 @@
         <v>65202</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>151</v>
@@ -2999,10 +3016,10 @@
         <v>65201</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3014,10 +3031,10 @@
         <v>65202</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3038,13 +3055,13 @@
         <v>65201</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
         <v>156</v>
@@ -3053,13 +3070,13 @@
         <v>65202</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
         <v>65</v>
@@ -3068,13 +3085,13 @@
         <v>65201</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
         <v>66</v>
@@ -3083,40 +3100,46 @@
         <v>65202</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E83" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="13"/>
+      <c r="B84" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="30">
+        <v>65106</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="31" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="13">
+    <row r="85" spans="1:6">
+      <c r="A85" s="13"/>
+      <c r="B85" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="30">
         <v>65106</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D85" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E85" s="30" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" s="13">
-        <v>65106</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>202</v>
+      <c r="F85" s="31" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3165,16 +3188,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3196,13 +3219,13 @@
         <v>5010</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3214,13 +3237,13 @@
         <v>5020</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3232,13 +3255,13 @@
         <v>5100</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3250,13 +3273,13 @@
         <v>5200</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3278,13 +3301,13 @@
         <v>5010</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3296,13 +3319,13 @@
         <v>5020</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3314,13 +3337,13 @@
         <v>5100</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3332,13 +3355,13 @@
         <v>5200</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3360,13 +3383,13 @@
         <v>5010</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3378,13 +3401,13 @@
         <v>5020</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3396,13 +3419,13 @@
         <v>5100</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3414,13 +3437,13 @@
         <v>5200</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3442,13 +3465,13 @@
         <v>5010</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3460,13 +3483,13 @@
         <v>5020</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3478,13 +3501,13 @@
         <v>5100</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3496,13 +3519,13 @@
         <v>5200</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3524,13 +3547,13 @@
         <v>5010</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3542,13 +3565,13 @@
         <v>5030</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3560,13 +3583,13 @@
         <v>5100</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3578,13 +3601,13 @@
         <v>5300</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3606,13 +3629,13 @@
         <v>5010</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3624,13 +3647,13 @@
         <v>5030</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3642,13 +3665,13 @@
         <v>5100</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3660,13 +3683,13 @@
         <v>5300</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3688,13 +3711,13 @@
         <v>5010</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3706,13 +3729,13 @@
         <v>5030</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3724,13 +3747,13 @@
         <v>5100</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3742,13 +3765,13 @@
         <v>5300</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3770,13 +3793,13 @@
         <v>5010</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3788,13 +3811,13 @@
         <v>5030</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3806,13 +3829,13 @@
         <v>5100</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3824,13 +3847,13 @@
         <v>5300</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G41" s="14"/>
     </row>
@@ -3875,25 +3898,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3917,19 +3940,19 @@
         <v>61</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3941,19 +3964,19 @@
         <v>62</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3977,19 +4000,19 @@
         <v>68</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4001,19 +4024,19 @@
         <v>69</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4037,19 +4060,19 @@
         <v>72</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4061,19 +4084,19 @@
         <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4097,19 +4120,19 @@
         <v>76</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4121,19 +4144,19 @@
         <v>77</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4157,19 +4180,19 @@
         <v>80</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4181,19 +4204,19 @@
         <v>81</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4217,19 +4240,19 @@
         <v>83</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4241,19 +4264,19 @@
         <v>84</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4277,19 +4300,19 @@
         <v>87</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4301,19 +4324,19 @@
         <v>88</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4337,19 +4360,19 @@
         <v>91</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4361,19 +4384,19 @@
         <v>92</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4417,16 +4440,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>36</v>
@@ -4435,7 +4458,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4453,7 +4476,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>60</v>
@@ -4467,7 +4490,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4483,7 +4506,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4499,7 +4522,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -4515,7 +4538,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4531,7 +4554,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4547,7 +4570,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4603,7 +4626,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>60</v>
@@ -4617,7 +4640,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4633,7 +4656,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4649,7 +4672,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4665,7 +4688,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4681,7 +4704,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4697,7 +4720,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4753,7 +4776,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>71</v>
@@ -4767,7 +4790,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4783,7 +4806,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4799,7 +4822,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4815,7 +4838,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -4831,7 +4854,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4847,7 +4870,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4903,7 +4926,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>75</v>
@@ -4917,7 +4940,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -4933,7 +4956,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -4949,7 +4972,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4965,7 +4988,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -4981,7 +5004,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -4997,7 +5020,7 @@
     <row r="39" spans="1:8">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -5053,7 +5076,7 @@
     <row r="43" spans="1:8">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>79</v>
@@ -5067,7 +5090,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -5083,7 +5106,7 @@
     <row r="45" spans="1:8">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5099,7 +5122,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5115,7 +5138,7 @@
     <row r="47" spans="1:8">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -5131,7 +5154,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5147,7 +5170,7 @@
     <row r="49" spans="1:8">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -5203,7 +5226,7 @@
     <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>79</v>
@@ -5217,7 +5240,7 @@
     <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5233,7 +5256,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -5249,7 +5272,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -5265,7 +5288,7 @@
     <row r="57" spans="1:8">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -5281,7 +5304,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -5297,7 +5320,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -5353,7 +5376,7 @@
     <row r="63" spans="1:8">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>86</v>
@@ -5367,7 +5390,7 @@
     <row r="64" spans="1:8">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -5383,7 +5406,7 @@
     <row r="65" spans="1:8">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -5399,7 +5422,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -5415,7 +5438,7 @@
     <row r="67" spans="1:8">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -5431,7 +5454,7 @@
     <row r="68" spans="1:8">
       <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -5447,7 +5470,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -5503,7 +5526,7 @@
     <row r="73" spans="1:8">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>90</v>
@@ -5517,7 +5540,7 @@
     <row r="74" spans="1:8">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -5533,7 +5556,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -5549,7 +5572,7 @@
     <row r="76" spans="1:8">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -5565,7 +5588,7 @@
     <row r="77" spans="1:8">
       <c r="A77" s="13"/>
       <c r="B77" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -5581,7 +5604,7 @@
     <row r="78" spans="1:8">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -5597,7 +5620,7 @@
     <row r="79" spans="1:8">
       <c r="A79" s="13"/>
       <c r="B79" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -5659,7 +5682,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5883,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01666E55-9237-448F-B2CC-24EB808BCEEE}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7009,8 +7032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EEB4E8-EA78-4265-9CF0-52F7D0DD4BED}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7283,7 +7306,7 @@
       <c r="F14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7406,7 +7429,7 @@
         <v>173</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7511,10 +7534,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="D26" s="8">
         <v>32</v>
@@ -7523,7 +7546,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G26" s="8"/>
     </row>
@@ -7990,10 +8013,10 @@
     <row r="51" spans="1:14">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D51" s="8">
         <v>32</v>
@@ -8002,7 +8025,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51"/>
@@ -8037,7 +8060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E277F-ED5A-4664-B237-01D026EDAD6A}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -8634,7 +8657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B68A3E-169F-4894-9368-EF1B0602432C}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -8681,7 +8704,7 @@
         <v>132</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10116,19 +10139,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10144,10 +10167,10 @@
     <row r="3" spans="1:6">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="D3" s="12">
         <v>65103</v>
@@ -10156,7 +10179,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10172,10 +10195,10 @@
     <row r="5" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="D5" s="13">
         <v>65103</v>
@@ -10184,7 +10207,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10200,10 +10223,10 @@
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="D7" s="12">
         <v>65103</v>
@@ -10212,7 +10235,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10228,10 +10251,10 @@
     <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="D9" s="13">
         <v>65103</v>
@@ -10240,7 +10263,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="5:5">
@@ -10262,8 +10285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFDFCCB-DFF7-466C-95F8-BB752093AD46}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10283,25 +10306,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10341,7 +10364,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -10353,7 +10376,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
@@ -10397,7 +10420,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -10409,7 +10432,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
@@ -10453,7 +10476,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -10465,7 +10488,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
@@ -10479,10 +10502,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -10523,7 +10546,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -10535,7 +10558,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="s">
@@ -10549,10 +10572,10 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -10593,7 +10616,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -10605,7 +10628,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
@@ -10649,7 +10672,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -10661,7 +10684,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
@@ -10705,7 +10728,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -10717,7 +10740,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12" t="s">
@@ -10761,7 +10784,7 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -10773,7 +10796,7 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
@@ -10817,7 +10840,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -10829,7 +10852,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12" t="s">
@@ -10843,10 +10866,10 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H40" s="12"/>
     </row>
@@ -10887,7 +10910,7 @@
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -10899,7 +10922,7 @@
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13" t="s">
@@ -10913,10 +10936,10 @@
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H45" s="13"/>
     </row>
@@ -10957,7 +10980,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -10969,7 +10992,7 @@
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12" t="s">
@@ -11013,7 +11036,7 @@
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -11025,7 +11048,7 @@
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="15" t="s">
@@ -11061,8 +11084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F6DC45-993E-4A5F-A2BF-10AE02B022F6}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11078,13 +11101,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11098,7 +11121,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11106,7 +11129,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
@@ -11124,7 +11147,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -11132,7 +11155,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
@@ -11150,7 +11173,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -11158,7 +11181,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
@@ -11168,10 +11191,10 @@
     <row r="11" spans="1:4">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="12"/>
     </row>
@@ -11186,7 +11209,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11194,7 +11217,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
@@ -11204,10 +11227,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -11222,7 +11245,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -11230,7 +11253,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
@@ -11248,7 +11271,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -11256,7 +11279,7 @@
     <row r="21" spans="1:4">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
@@ -11274,7 +11297,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -11282,7 +11305,7 @@
     <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
@@ -11300,7 +11323,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -11308,7 +11331,7 @@
     <row r="27" spans="1:4">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
@@ -11326,7 +11349,7 @@
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -11334,7 +11357,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
@@ -11344,10 +11367,10 @@
     <row r="31" spans="1:4">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31" s="12"/>
     </row>
@@ -11362,7 +11385,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -11370,7 +11393,7 @@
     <row r="34" spans="1:9">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
@@ -11380,10 +11403,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D35" s="13"/>
     </row>
@@ -11398,7 +11421,7 @@
     <row r="37" spans="1:9">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -11406,7 +11429,7 @@
     <row r="38" spans="1:9">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
@@ -11424,7 +11447,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -11432,7 +11455,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="15" t="s">
@@ -11446,6 +11469,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A25:D25"/>
@@ -11453,11 +11481,6 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBA5F82-EB40-486D-B8F6-DBF34EE0691D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96FECC-628D-46D2-B7DF-1C700BCCDACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70320" yWindow="1200" windowWidth="19200" windowHeight="11265" activeTab="3" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="71580" yWindow="555" windowWidth="24090" windowHeight="14655" activeTab="7" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="275">
   <si>
     <t>mgmt_ip</t>
   </si>
@@ -834,12 +834,6 @@
     <t>20.20.20.6:3</t>
   </si>
   <si>
-    <t>mclag-peer,l3rtr</t>
-  </si>
-  <si>
-    <t>l3rtr</t>
-  </si>
-  <si>
     <t>external_ip</t>
   </si>
   <si>
@@ -873,7 +867,10 @@
     <t>to-spine2-overlay</t>
   </si>
   <si>
-    <t>configurar API</t>
+    <t>multi_hop</t>
+  </si>
+  <si>
+    <t>mclag-peer,ext-router</t>
   </si>
 </sst>
 </file>
@@ -1033,6 +1030,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1072,8 +1071,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,7 +1388,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1432,16 +1429,16 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5">
@@ -1470,16 +1467,16 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
@@ -1508,16 +1505,16 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5">
@@ -1546,16 +1543,16 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
@@ -1584,16 +1581,16 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5">
@@ -1622,16 +1619,16 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
@@ -1660,16 +1657,16 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5">
@@ -1685,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
@@ -1698,16 +1695,16 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
@@ -1723,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -1736,16 +1733,16 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5">
@@ -1761,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>11</v>
@@ -1774,16 +1771,16 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
@@ -1799,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -1812,16 +1809,16 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5">
@@ -1837,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
@@ -1850,16 +1847,16 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
@@ -1875,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -1911,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042134A-B227-445A-ADC9-97C4504769C8}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1941,13 +1938,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12"/>
@@ -2070,13 +2067,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13"/>
@@ -2199,13 +2196,13 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="12"/>
@@ -2249,7 +2246,7 @@
         <v>189</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2264,7 +2261,7 @@
         <v>189</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2283,13 +2280,13 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="13"/>
@@ -2333,7 +2330,7 @@
         <v>189</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2348,7 +2345,7 @@
         <v>189</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2367,13 +2364,13 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12"/>
@@ -2417,7 +2414,7 @@
         <v>189</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2432,17 +2429,17 @@
         <v>189</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="13"/>
@@ -2486,7 +2483,7 @@
         <v>189</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2501,55 +2498,51 @@
         <v>189</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="13"/>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="18">
         <v>65206</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="F42" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="G42" s="31"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="13"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="18">
         <v>65206</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F43" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="G43" s="31"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="12"/>
@@ -2672,13 +2665,13 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="13"/>
@@ -2801,13 +2794,13 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="12"/>
@@ -2851,7 +2844,7 @@
         <v>189</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2866,7 +2859,7 @@
         <v>189</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2885,13 +2878,13 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="13"/>
@@ -2935,7 +2928,7 @@
         <v>189</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2950,7 +2943,7 @@
         <v>189</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2969,13 +2962,13 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="12"/>
@@ -3019,7 +3012,7 @@
         <v>189</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3034,17 +3027,17 @@
         <v>189</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="13"/>
@@ -3088,7 +3081,7 @@
         <v>189</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3103,44 +3096,40 @@
         <v>189</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="13"/>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="30">
+      <c r="C84" s="18">
         <v>65106</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="F84" s="31" t="s">
-        <v>275</v>
-      </c>
+      <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13"/>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="18">
         <v>65106</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F85" s="31" t="s">
-        <v>275</v>
-      </c>
+      <c r="F85" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3166,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C52FBF0-50B8-419E-8B18-9F1CF31FBDEC}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -3201,14 +3190,14 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12"/>
@@ -3283,14 +3272,14 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13"/>
@@ -3365,14 +3354,14 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12"/>
@@ -3447,14 +3436,14 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13"/>
@@ -3529,14 +3518,14 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="12"/>
@@ -3611,14 +3600,14 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="13"/>
@@ -3693,14 +3682,14 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12"/>
@@ -3775,14 +3764,14 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="13"/>
@@ -3878,7 +3867,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3890,7 +3879,7 @@
     <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3920,16 +3909,16 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12"/>
@@ -3952,7 +3941,7 @@
         <v>56</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3976,20 +3965,20 @@
         <v>57</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="13"/>
@@ -4012,7 +4001,7 @@
         <v>56</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4036,20 +4025,20 @@
         <v>57</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="12"/>
@@ -4072,7 +4061,7 @@
         <v>56</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4096,20 +4085,20 @@
         <v>57</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="13"/>
@@ -4132,7 +4121,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4156,20 +4145,20 @@
         <v>57</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="12"/>
@@ -4192,7 +4181,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4216,20 +4205,20 @@
         <v>57</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="13"/>
@@ -4252,7 +4241,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4276,20 +4265,20 @@
         <v>57</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="12"/>
@@ -4312,7 +4301,7 @@
         <v>56</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4336,20 +4325,20 @@
         <v>57</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="13"/>
@@ -4372,7 +4361,7 @@
         <v>56</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4396,7 +4385,7 @@
         <v>57</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4419,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE81A0-AC4B-4D30-8365-F6A87D15D01B}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4440,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>202</v>
@@ -4458,25 +4447,25 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>60</v>
@@ -4490,7 +4479,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4506,7 +4495,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4522,7 +4511,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -4538,7 +4527,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4554,7 +4543,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4570,7 +4559,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4612,21 +4601,21 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>60</v>
@@ -4640,7 +4629,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4656,7 +4645,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4672,7 +4661,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4688,7 +4677,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4704,7 +4693,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4720,7 +4709,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4762,21 +4751,21 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>71</v>
@@ -4790,7 +4779,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4806,7 +4795,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4822,7 +4811,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4838,7 +4827,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -4854,7 +4843,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4870,7 +4859,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4912,21 +4901,21 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>75</v>
@@ -4940,7 +4929,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -4956,7 +4945,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -4972,7 +4961,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4988,7 +4977,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -5004,7 +4993,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -5020,7 +5009,7 @@
     <row r="39" spans="1:8">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -5062,21 +5051,21 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>79</v>
@@ -5090,7 +5079,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -5106,7 +5095,7 @@
     <row r="45" spans="1:8">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5122,7 +5111,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5138,7 +5127,7 @@
     <row r="47" spans="1:8">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -5154,7 +5143,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5170,7 +5159,7 @@
     <row r="49" spans="1:8">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -5212,21 +5201,21 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>79</v>
@@ -5240,7 +5229,7 @@
     <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5256,7 +5245,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -5272,7 +5261,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -5288,7 +5277,7 @@
     <row r="57" spans="1:8">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -5304,7 +5293,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -5320,7 +5309,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -5362,21 +5351,21 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>86</v>
@@ -5390,7 +5379,7 @@
     <row r="64" spans="1:8">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -5406,7 +5395,7 @@
     <row r="65" spans="1:8">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -5422,7 +5411,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -5438,7 +5427,7 @@
     <row r="67" spans="1:8">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -5454,7 +5443,7 @@
     <row r="68" spans="1:8">
       <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -5470,7 +5459,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -5512,21 +5501,21 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>90</v>
@@ -5540,7 +5529,7 @@
     <row r="74" spans="1:8">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -5556,7 +5545,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -5572,7 +5561,7 @@
     <row r="76" spans="1:8">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -5588,7 +5577,7 @@
     <row r="77" spans="1:8">
       <c r="A77" s="13"/>
       <c r="B77" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -5604,7 +5593,7 @@
     <row r="78" spans="1:8">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -5620,7 +5609,7 @@
     <row r="79" spans="1:8">
       <c r="A79" s="13"/>
       <c r="B79" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -5682,7 +5671,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5701,10 +5690,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5">
@@ -5723,10 +5712,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="25"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8">
@@ -5745,10 +5734,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5">
@@ -5767,10 +5756,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="25"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8">
@@ -5789,10 +5778,10 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5">
@@ -5811,10 +5800,10 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8">
@@ -5833,10 +5822,10 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5">
@@ -5855,10 +5844,10 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8">
@@ -5882,8 +5871,8 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5906,8 +5895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01666E55-9237-448F-B2CC-24EB808BCEEE}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5946,15 +5935,15 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5"/>
@@ -6079,15 +6068,15 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8"/>
@@ -6212,15 +6201,15 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5"/>
@@ -6345,15 +6334,15 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8"/>
@@ -6478,15 +6467,15 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5"/>
@@ -6611,15 +6600,15 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8"/>
@@ -6744,15 +6733,15 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5"/>
@@ -6877,15 +6866,15 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="8"/>
@@ -7032,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EEB4E8-EA78-4265-9CF0-52F7D0DD4BED}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7072,15 +7061,15 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5">
@@ -7104,15 +7093,15 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8">
@@ -7136,15 +7125,15 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5">
@@ -7235,15 +7224,15 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8">
@@ -7334,15 +7323,15 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5">
@@ -7433,15 +7422,15 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8">
@@ -7534,10 +7523,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D26" s="8">
         <v>32</v>
@@ -7546,20 +7535,20 @@
         <v>11</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5">
@@ -7583,15 +7572,15 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8">
@@ -7615,15 +7604,15 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5">
@@ -7714,15 +7703,15 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8">
@@ -7813,15 +7802,15 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5">
@@ -7912,15 +7901,15 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8">
@@ -8013,10 +8002,10 @@
     <row r="51" spans="1:14">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D51" s="8">
         <v>32</v>
@@ -8025,7 +8014,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51"/>
@@ -8126,22 +8115,22 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="6"/>
@@ -8252,22 +8241,22 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10"/>
@@ -8378,22 +8367,22 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
@@ -8504,22 +8493,22 @@
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="10"/>
@@ -8658,7 +8647,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A54" sqref="A54:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8708,18 +8697,18 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="12">
@@ -8818,18 +8807,18 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="13">
@@ -8928,18 +8917,18 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="12">
@@ -9042,18 +9031,18 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="13">
@@ -9139,7 +9128,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>11</v>
@@ -9180,18 +9169,18 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="12">
@@ -9251,7 +9240,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>11</v>
@@ -9277,7 +9266,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>11</v>
@@ -9301,7 +9290,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>11</v>
@@ -9318,18 +9307,18 @@
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="13">
@@ -9404,18 +9393,18 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="12">
@@ -9514,18 +9503,18 @@
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="13">
@@ -9624,18 +9613,18 @@
       <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="12">
@@ -9738,18 +9727,18 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="13">
@@ -9835,7 +9824,7 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>11</v>
@@ -9876,18 +9865,18 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="12">
@@ -9947,7 +9936,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>11</v>
@@ -9971,7 +9960,7 @@
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>11</v>
@@ -9995,7 +9984,7 @@
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>11</v>
@@ -10010,18 +9999,18 @@
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="13">
@@ -10121,7 +10110,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10155,14 +10144,14 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12"/>
@@ -10183,14 +10172,14 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13"/>
@@ -10201,7 +10190,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="13">
-        <v>65103</v>
+        <v>65104</v>
       </c>
       <c r="E5" s="13">
         <v>10</v>
@@ -10211,14 +10200,14 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
@@ -10229,7 +10218,7 @@
         <v>180</v>
       </c>
       <c r="D7" s="12">
-        <v>65103</v>
+        <v>65203</v>
       </c>
       <c r="E7" s="12">
         <v>10</v>
@@ -10239,14 +10228,14 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13"/>
@@ -10257,7 +10246,7 @@
         <v>180</v>
       </c>
       <c r="D9" s="13">
-        <v>65103</v>
+        <v>65204</v>
       </c>
       <c r="E9" s="13">
         <v>10</v>
@@ -10283,10 +10272,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFDFCCB-DFF7-466C-95F8-BB752093AD46}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10299,9 +10288,10 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10326,20 +10316,24 @@
       <c r="H1" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="I1" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="12"/>
       <c r="B3" s="12">
         <v>65101</v>
@@ -10356,8 +10350,9 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -10368,8 +10363,9 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -10382,20 +10378,22 @@
       <c r="H5" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="28" t="s">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="13">
         <v>65102</v>
@@ -10412,8 +10410,9 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -10424,8 +10423,9 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -10438,20 +10438,22 @@
       <c r="H9" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="29" t="s">
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="12"/>
       <c r="B11" s="12">
         <v>65103</v>
@@ -10468,8 +10470,9 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -10480,8 +10483,9 @@
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -10494,8 +10498,9 @@
       <c r="H13" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -10508,20 +10513,22 @@
         <v>179</v>
       </c>
       <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="28" t="s">
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="13"/>
       <c r="B16" s="13">
         <v>65104</v>
@@ -10538,8 +10545,9 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -10550,8 +10558,9 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -10564,8 +10573,9 @@
       <c r="H18" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -10578,20 +10588,22 @@
         <v>179</v>
       </c>
       <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="29" t="s">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="12"/>
       <c r="B21" s="12">
         <v>65105</v>
@@ -10608,8 +10620,9 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -10620,8 +10633,9 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -10634,20 +10648,22 @@
       <c r="H23" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="28" t="s">
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="13"/>
       <c r="B25" s="13">
         <v>65106</v>
@@ -10664,8 +10680,9 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -10676,8 +10693,9 @@
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -10690,391 +10708,486 @@
       <c r="H27" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="29" t="s">
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12">
         <v>65201</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D31" s="12">
         <v>16</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="28" t="s">
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13">
         <v>65202</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D35" s="13">
         <v>16</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13" t="s">
+      <c r="G37" s="13"/>
+      <c r="H37" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="29" t="s">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12">
         <v>65203</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D39" s="12">
         <v>16</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="s">
-        <v>189</v>
-      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G42" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="28" t="s">
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13">
         <v>65204</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D44" s="13">
         <v>16</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G47" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="29" t="s">
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12">
-        <v>65205</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="12">
-        <v>16</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="s">
+      <c r="B49" s="12">
+        <v>65205</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="12">
+        <v>16</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12" t="s">
+      <c r="G51" s="12"/>
+      <c r="H51" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="28" t="s">
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13">
-        <v>65206</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="13">
-        <v>16</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
+      <c r="B53" s="13">
+        <v>65206</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="13">
+        <v>16</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="15" t="s">
+      <c r="G55" s="13"/>
+      <c r="H55" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="15">
+        <v>30</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A43:I43"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11111,12 +11224,12 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="12"/>
@@ -11137,12 +11250,12 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="13"/>
@@ -11163,12 +11276,12 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="12"/>
@@ -11199,12 +11312,12 @@
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="13"/>
@@ -11235,12 +11348,12 @@
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
@@ -11261,12 +11374,12 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13"/>
@@ -11287,12 +11400,12 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12"/>
@@ -11313,12 +11426,12 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="13"/>
@@ -11339,12 +11452,12 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
@@ -11375,12 +11488,12 @@
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="13"/>
@@ -11411,12 +11524,12 @@
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="12"/>
@@ -11437,12 +11550,12 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="13"/>
@@ -11469,11 +11582,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A25:D25"/>
@@ -11481,6 +11589,11 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96FECC-628D-46D2-B7DF-1C700BCCDACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4CB9A-0AD9-47DC-B98E-25B7A427B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71580" yWindow="555" windowWidth="24090" windowHeight="14655" activeTab="7" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="42525" yWindow="615" windowWidth="24090" windowHeight="14655" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>instance</t>
   </si>
   <si>
-    <t>192.168.0.215</t>
-  </si>
-  <si>
     <t>STANDARD</t>
   </si>
   <si>
@@ -84,39 +81,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>192.168.0.216</t>
-  </si>
-  <si>
-    <t>192.168.0.217</t>
-  </si>
-  <si>
-    <t>192.168.0.218</t>
-  </si>
-  <si>
-    <t>192.168.0.219</t>
-  </si>
-  <si>
-    <t>192.168.0.220</t>
-  </si>
-  <si>
-    <t>192.168.0.225</t>
-  </si>
-  <si>
-    <t>192.168.0.226</t>
-  </si>
-  <si>
-    <t>192.168.0.227</t>
-  </si>
-  <si>
-    <t>192.168.0.228</t>
-  </si>
-  <si>
-    <t>192.168.0.229</t>
-  </si>
-  <si>
-    <t>192.168.0.230</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -871,6 +835,42 @@
   </si>
   <si>
     <t>mclag-peer,ext-router</t>
+  </si>
+  <si>
+    <t>192.168.122.215</t>
+  </si>
+  <si>
+    <t>192.168.122.216</t>
+  </si>
+  <si>
+    <t>192.168.122.217</t>
+  </si>
+  <si>
+    <t>192.168.122.218</t>
+  </si>
+  <si>
+    <t>192.168.122.219</t>
+  </si>
+  <si>
+    <t>192.168.122.220</t>
+  </si>
+  <si>
+    <t>192.168.122.225</t>
+  </si>
+  <si>
+    <t>192.168.122.226</t>
+  </si>
+  <si>
+    <t>192.168.122.227</t>
+  </si>
+  <si>
+    <t>192.168.122.228</t>
+  </si>
+  <si>
+    <t>192.168.122.229</t>
+  </si>
+  <si>
+    <t>192.168.122.230</t>
   </si>
 </sst>
 </file>
@@ -1387,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035F7E6-6A3D-48A1-B528-F39752DCEDD0}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1445,30 +1445,30 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1483,30 +1483,30 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1521,30 +1521,30 @@
         <v>0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="19" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1559,30 +1559,30 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1597,30 +1597,30 @@
         <v>0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1635,30 +1635,30 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1673,30 +1673,30 @@
         <v>0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1711,30 +1711,30 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1749,30 +1749,30 @@
         <v>0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -1787,30 +1787,30 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="22" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1825,30 +1825,30 @@
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -1863,25 +1863,25 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1925,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1949,126 +1949,126 @@
     <row r="3" spans="1:5">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C3" s="12">
         <v>65106</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C4" s="12">
         <v>65103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C5" s="12">
         <v>65104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C6" s="12">
         <v>65105</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C7" s="12">
         <v>65103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C8" s="12">
         <v>65104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C9" s="12">
         <v>65105</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C10" s="12">
         <v>65106</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="30" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -2078,126 +2078,126 @@
     <row r="12" spans="1:5">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C12" s="13">
         <v>65106</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C13" s="13">
         <v>65103</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C14" s="13">
         <v>65104</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C15" s="13">
         <v>65105</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C16" s="13">
         <v>65103</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C17" s="13">
         <v>65104</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C18" s="13">
         <v>65105</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C19" s="13">
         <v>65106</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="31" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -2207,81 +2207,81 @@
     <row r="21" spans="1:5">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C21" s="12">
         <v>65101</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C22" s="12">
         <v>65102</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C23" s="12">
         <v>65101</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C24" s="12">
         <v>65102</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C25" s="12">
         <v>65104</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2291,81 +2291,81 @@
     <row r="27" spans="1:5">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C27" s="13">
         <v>65101</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C28" s="13">
         <v>65102</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C29" s="13">
         <v>65101</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C30" s="13">
         <v>65102</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C31" s="13">
         <v>65103</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="31" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -2375,66 +2375,66 @@
     <row r="33" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C33" s="12">
         <v>65101</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C34" s="12">
         <v>65102</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C35" s="12">
         <v>65101</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C36" s="12">
         <v>65102</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -2444,76 +2444,76 @@
     <row r="38" spans="1:7">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C38" s="13">
         <v>65101</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C39" s="13">
         <v>65102</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C40" s="13">
         <v>65101</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C41" s="13">
         <v>65102</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="13"/>
       <c r="B42" s="18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C42" s="18">
         <v>65206</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -2521,23 +2521,23 @@
     <row r="43" spans="1:7">
       <c r="A43" s="13"/>
       <c r="B43" s="18" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C43" s="18">
         <v>65206</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="31" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -2547,126 +2547,126 @@
     <row r="45" spans="1:7">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C45" s="12">
         <v>65206</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C46" s="12">
         <v>65203</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C47" s="12">
         <v>65204</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C48" s="12">
         <v>65205</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C49" s="12">
         <v>65203</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C50" s="12">
         <v>65204</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C51" s="12">
         <v>65205</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C52" s="12">
         <v>65206</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="30" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -2676,126 +2676,126 @@
     <row r="54" spans="1:5">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C54" s="13">
         <v>65206</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C55" s="13">
         <v>65203</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C56" s="13">
         <v>65204</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C57" s="13">
         <v>65205</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C58" s="13">
         <v>65203</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C59" s="13">
         <v>65204</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="13"/>
       <c r="B60" s="13" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C60" s="13">
         <v>65205</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="13"/>
       <c r="B61" s="13" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C61" s="13">
         <v>65206</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -2805,81 +2805,81 @@
     <row r="63" spans="1:5">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C63" s="12">
         <v>65201</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C64" s="12">
         <v>65202</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C65" s="12">
         <v>65201</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C66" s="12">
         <v>65202</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C67" s="12">
         <v>65204</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="30" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -2889,81 +2889,81 @@
     <row r="69" spans="1:5">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C69" s="13">
         <v>65201</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C70" s="13">
         <v>65202</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C71" s="13">
         <v>65201</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C72" s="13">
         <v>65202</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C73" s="13">
         <v>65203</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="31" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -2973,66 +2973,66 @@
     <row r="75" spans="1:5">
       <c r="A75" s="12"/>
       <c r="B75" s="12" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C75" s="12">
         <v>65201</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="12"/>
       <c r="B76" s="12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C76" s="12">
         <v>65202</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="12"/>
       <c r="B77" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C77" s="12">
         <v>65201</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="12"/>
       <c r="B78" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C78" s="12">
         <v>65202</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="30" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
@@ -3042,92 +3042,92 @@
     <row r="80" spans="1:5">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C80" s="13">
         <v>65201</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C81" s="13">
         <v>65202</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C82" s="13">
         <v>65201</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C83" s="13">
         <v>65202</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="13"/>
       <c r="B84" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C84" s="18">
         <v>65106</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13"/>
       <c r="B85" s="18" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C85" s="18">
         <v>65106</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F85" s="17"/>
     </row>
@@ -3177,21 +3177,21 @@
         <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3202,78 +3202,78 @@
     <row r="3" spans="1:6">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C3" s="12">
         <v>5010</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12">
         <v>5020</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12">
         <v>5100</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>5200</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="30" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -3284,78 +3284,78 @@
     <row r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8" s="13">
         <v>5010</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C9" s="13">
         <v>5020</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" s="13">
         <v>5100</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13"/>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C11" s="13">
         <v>5200</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="31" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -3366,78 +3366,78 @@
     <row r="13" spans="1:6">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12">
         <v>5010</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C14" s="12">
         <v>5020</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" s="12">
         <v>5100</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C16" s="12">
         <v>5200</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="30" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -3448,78 +3448,78 @@
     <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C18" s="13">
         <v>5010</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C19" s="13">
         <v>5020</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C20" s="13">
         <v>5100</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C21" s="13">
         <v>5200</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -3530,78 +3530,78 @@
     <row r="23" spans="1:6">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C23" s="12">
         <v>5010</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C24" s="12">
         <v>5030</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C25" s="12">
         <v>5100</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C26" s="12">
         <v>5300</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="30" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -3612,78 +3612,78 @@
     <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C28" s="13">
         <v>5010</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C29" s="13">
         <v>5030</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C30" s="13">
         <v>5100</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C31" s="13">
         <v>5300</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="31" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -3694,78 +3694,78 @@
     <row r="33" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C33" s="12">
         <v>5010</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C34" s="12">
         <v>5030</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C35" s="12">
         <v>5100</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C36" s="12">
         <v>5300</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -3776,73 +3776,73 @@
     <row r="38" spans="1:7">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C38" s="13">
         <v>5010</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C39" s="13">
         <v>5030</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C40" s="13">
         <v>5100</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C41" s="13">
         <v>5300</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G41" s="14"/>
     </row>
@@ -3887,30 +3887,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3926,22 +3926,22 @@
         <v>65103</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3950,27 +3950,27 @@
         <v>65103</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3986,22 +3986,22 @@
         <v>65104</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4010,27 +4010,27 @@
         <v>65104</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="31" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4046,22 +4046,22 @@
         <v>65105</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4070,27 +4070,27 @@
         <v>65105</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="30" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -4106,22 +4106,22 @@
         <v>65106</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4130,27 +4130,27 @@
         <v>65106</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -4166,22 +4166,22 @@
         <v>65203</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4190,27 +4190,27 @@
         <v>65203</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="30" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -4226,22 +4226,22 @@
         <v>65204</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4250,27 +4250,27 @@
         <v>65204</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4286,22 +4286,22 @@
         <v>65205</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4310,27 +4310,27 @@
         <v>65205</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="30" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -4346,22 +4346,22 @@
         <v>65206</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4370,22 +4370,22 @@
         <v>65206</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4429,30 +4429,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4465,10 +4465,10 @@
     <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4479,7 +4479,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4495,7 +4495,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4511,7 +4511,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -4527,7 +4527,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4543,7 +4543,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4559,7 +4559,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4580,7 +4580,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H10" s="12">
         <v>10010</v>
@@ -4594,7 +4594,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H11" s="12">
         <v>10020</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="30" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4615,10 +4615,10 @@
     <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -4629,7 +4629,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4645,7 +4645,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4661,7 +4661,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4677,7 +4677,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4693,7 +4693,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4709,7 +4709,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4730,7 +4730,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H20" s="13">
         <v>10010</v>
@@ -4744,7 +4744,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H21" s="13">
         <v>10020</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="31" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -4765,10 +4765,10 @@
     <row r="23" spans="1:8">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -4779,7 +4779,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4795,7 +4795,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4811,7 +4811,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4827,7 +4827,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -4843,7 +4843,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4859,7 +4859,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4880,7 +4880,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H30" s="12">
         <v>10010</v>
@@ -4894,7 +4894,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H31" s="12">
         <v>10020</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="30" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -4915,10 +4915,10 @@
     <row r="33" spans="1:8">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -4929,7 +4929,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -4945,7 +4945,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -4961,7 +4961,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4977,7 +4977,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -4993,7 +4993,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -5009,7 +5009,7 @@
     <row r="39" spans="1:8">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -5030,7 +5030,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H40" s="13">
         <v>10010</v>
@@ -5044,7 +5044,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H41" s="13">
         <v>10020</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -5065,10 +5065,10 @@
     <row r="43" spans="1:8">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5079,7 +5079,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -5095,7 +5095,7 @@
     <row r="45" spans="1:8">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5111,7 +5111,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5127,7 +5127,7 @@
     <row r="47" spans="1:8">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -5143,7 +5143,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5159,7 +5159,7 @@
     <row r="49" spans="1:8">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -5180,7 +5180,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H50" s="12">
         <v>10010</v>
@@ -5194,7 +5194,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H51" s="12">
         <v>10020</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="30" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -5215,10 +5215,10 @@
     <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -5229,7 +5229,7 @@
     <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5245,7 +5245,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -5261,7 +5261,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -5277,7 +5277,7 @@
     <row r="57" spans="1:8">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -5293,7 +5293,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -5309,7 +5309,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -5330,7 +5330,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H60" s="13">
         <v>10010</v>
@@ -5344,7 +5344,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H61" s="13">
         <v>10020</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="31" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -5365,10 +5365,10 @@
     <row r="63" spans="1:8">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -5379,7 +5379,7 @@
     <row r="64" spans="1:8">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -5395,7 +5395,7 @@
     <row r="65" spans="1:8">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -5411,7 +5411,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -5427,7 +5427,7 @@
     <row r="67" spans="1:8">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -5443,7 +5443,7 @@
     <row r="68" spans="1:8">
       <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -5459,7 +5459,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -5480,7 +5480,7 @@
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H70" s="12">
         <v>10010</v>
@@ -5494,7 +5494,7 @@
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H71" s="12">
         <v>10020</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="30" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -5515,10 +5515,10 @@
     <row r="73" spans="1:8">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -5529,7 +5529,7 @@
     <row r="74" spans="1:8">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -5545,7 +5545,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -5561,7 +5561,7 @@
     <row r="76" spans="1:8">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -5577,7 +5577,7 @@
     <row r="77" spans="1:8">
       <c r="A77" s="13"/>
       <c r="B77" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -5593,7 +5593,7 @@
     <row r="78" spans="1:8">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -5609,7 +5609,7 @@
     <row r="79" spans="1:8">
       <c r="A79" s="13"/>
       <c r="B79" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -5630,7 +5630,7 @@
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H80" s="13">
         <v>10010</v>
@@ -5644,7 +5644,7 @@
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H81" s="13">
         <v>10020</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B2" s="27"/>
     </row>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5708,12 +5708,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B5" s="25"/>
     </row>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5730,12 +5730,12 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B8" s="27"/>
     </row>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5752,12 +5752,12 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B11" s="25"/>
     </row>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5774,12 +5774,12 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B14" s="27"/>
     </row>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5796,12 +5796,12 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="25" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B17" s="25"/>
     </row>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5818,12 +5818,12 @@
         <v>0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="27" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B20" s="27"/>
     </row>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5840,12 +5840,12 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="25" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B23" s="25"/>
     </row>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -5916,27 +5916,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -5954,13 +5954,13 @@
         <v>9050</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -5973,13 +5973,13 @@
         <v>9050</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -5992,16 +5992,16 @@
         <v>9000</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6013,16 +6013,16 @@
         <v>9000</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6034,16 +6034,16 @@
         <v>9000</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6055,21 +6055,21 @@
         <v>9000</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -6087,13 +6087,13 @@
         <v>9050</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -6106,13 +6106,13 @@
         <v>9050</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -6125,16 +6125,16 @@
         <v>9000</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6146,16 +6146,16 @@
         <v>9000</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6167,16 +6167,16 @@
         <v>9000</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6188,21 +6188,21 @@
         <v>9000</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -6220,13 +6220,13 @@
         <v>9050</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -6239,13 +6239,13 @@
         <v>9050</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -6258,16 +6258,16 @@
         <v>9000</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6279,16 +6279,16 @@
         <v>9000</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6300,16 +6300,16 @@
         <v>9000</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6321,21 +6321,21 @@
         <v>9000</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="25" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6353,13 +6353,13 @@
         <v>9050</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -6372,13 +6372,13 @@
         <v>9050</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -6391,16 +6391,16 @@
         <v>9000</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6412,16 +6412,16 @@
         <v>9000</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6433,16 +6433,16 @@
         <v>9000</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6454,21 +6454,21 @@
         <v>9000</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="27" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -6486,13 +6486,13 @@
         <v>9050</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G31" s="5"/>
     </row>
@@ -6505,13 +6505,13 @@
         <v>9050</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -6524,16 +6524,16 @@
         <v>9000</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6545,16 +6545,16 @@
         <v>9000</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6566,16 +6566,16 @@
         <v>9000</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6587,21 +6587,21 @@
         <v>9000</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -6619,13 +6619,13 @@
         <v>9050</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G38" s="8"/>
     </row>
@@ -6638,13 +6638,13 @@
         <v>9050</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G39" s="8"/>
     </row>
@@ -6657,16 +6657,16 @@
         <v>9000</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6678,16 +6678,16 @@
         <v>9000</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6699,16 +6699,16 @@
         <v>9000</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6720,21 +6720,21 @@
         <v>9000</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="27" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -6752,13 +6752,13 @@
         <v>9050</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G45" s="5"/>
     </row>
@@ -6771,13 +6771,13 @@
         <v>9050</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G46" s="5"/>
     </row>
@@ -6790,16 +6790,16 @@
         <v>9000</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6811,16 +6811,16 @@
         <v>9000</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6832,16 +6832,16 @@
         <v>9000</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6853,21 +6853,21 @@
         <v>9000</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="25" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -6885,13 +6885,13 @@
         <v>9050</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G52" s="8"/>
     </row>
@@ -6904,13 +6904,13 @@
         <v>9050</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G53" s="8"/>
     </row>
@@ -6923,16 +6923,16 @@
         <v>9000</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6944,16 +6944,16 @@
         <v>9000</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -6965,16 +6965,16 @@
         <v>9000</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6986,16 +6986,16 @@
         <v>9000</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
@@ -7042,19 +7042,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -7076,25 +7076,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D3" s="5">
         <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="25" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -7108,25 +7108,25 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8">
         <v>32</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="27" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7140,19 +7140,19 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5">
         <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -7161,19 +7161,19 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5">
         <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -7182,22 +7182,22 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5">
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7205,27 +7205,27 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5">
         <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="25" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -7239,19 +7239,19 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8">
         <v>32</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -7260,19 +7260,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8">
         <v>32</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -7281,22 +7281,22 @@
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D14" s="8">
         <v>32</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7304,27 +7304,27 @@
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D15" s="8">
         <v>32</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -7359,19 +7359,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5">
         <v>32</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -7380,22 +7380,22 @@
         <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5">
         <v>32</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7403,27 +7403,27 @@
         <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5">
         <v>32</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8">
         <v>32</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -7458,19 +7458,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8">
         <v>32</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -7479,22 +7479,22 @@
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D24" s="8">
         <v>32</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7502,46 +7502,46 @@
         <v>0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D25" s="8">
         <v>32</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D26" s="8">
         <v>32</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="27" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -7555,25 +7555,25 @@
         <v>0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D28" s="5">
         <v>32</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="25" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -7587,25 +7587,25 @@
         <v>0</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D30" s="8">
         <v>32</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="27" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -7619,19 +7619,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5">
         <v>32</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -7640,19 +7640,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D33" s="5">
         <v>32</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -7661,22 +7661,22 @@
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D34" s="5">
         <v>32</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7684,27 +7684,27 @@
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D35" s="5">
         <v>32</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="25" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -7718,19 +7718,19 @@
         <v>0</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D37" s="8">
         <v>32</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G37" s="8"/>
     </row>
@@ -7739,19 +7739,19 @@
         <v>0</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D38" s="8">
         <v>32</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G38" s="8"/>
     </row>
@@ -7760,22 +7760,22 @@
         <v>0</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D39" s="8">
         <v>32</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7783,27 +7783,27 @@
         <v>0</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D40" s="8">
         <v>32</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="27" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7817,19 +7817,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D42" s="5">
         <v>32</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G42" s="5"/>
     </row>
@@ -7838,19 +7838,19 @@
         <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D43" s="5">
         <v>32</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G43" s="5"/>
     </row>
@@ -7859,22 +7859,22 @@
         <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D44" s="5">
         <v>32</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7882,27 +7882,27 @@
         <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="25" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -7916,19 +7916,19 @@
         <v>0</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D47" s="8">
         <v>32</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G47" s="8"/>
     </row>
@@ -7937,19 +7937,19 @@
         <v>0</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D48" s="8">
         <v>32</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G48" s="8"/>
     </row>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D49" s="8">
         <v>32</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -7981,40 +7981,40 @@
         <v>0</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D50" s="8">
         <v>32</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D51" s="8">
         <v>32</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51"/>
@@ -8075,48 +8075,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="28" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -8135,23 +8135,23 @@
     <row r="3" spans="1:14">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6">
         <v>9050</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -8161,7 +8161,7 @@
     <row r="4" spans="1:14">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -8175,13 +8175,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8193,13 +8193,13 @@
         <v>9050</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G5" s="6">
         <v>31</v>
@@ -8215,14 +8215,14 @@
     <row r="6" spans="1:14">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C6" s="6">
         <v>9000</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="29" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8261,23 +8261,23 @@
     <row r="8" spans="1:14">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C8" s="10">
         <v>9050</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -8287,7 +8287,7 @@
     <row r="9" spans="1:14">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -8301,13 +8301,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -8319,13 +8319,13 @@
         <v>9050</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G10" s="10">
         <v>31</v>
@@ -8341,14 +8341,14 @@
     <row r="11" spans="1:14">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C11" s="10">
         <v>9000</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K11" s="10">
         <v>1</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="28" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -8387,23 +8387,23 @@
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6">
         <v>9050</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -8413,7 +8413,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -8427,13 +8427,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -8445,13 +8445,13 @@
         <v>9050</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G15" s="6">
         <v>31</v>
@@ -8467,14 +8467,14 @@
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C16" s="6">
         <v>9000</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K16" s="6">
         <v>1</v>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="29" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -8513,23 +8513,23 @@
     <row r="18" spans="1:26">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C18" s="10">
         <v>9050</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -8539,7 +8539,7 @@
     <row r="19" spans="1:26">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -8553,13 +8553,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -8571,13 +8571,13 @@
         <v>9050</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G20" s="10">
         <v>31</v>
@@ -8593,14 +8593,14 @@
     <row r="21" spans="1:26">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C21" s="10">
         <v>9000</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K21" s="10">
         <v>1</v>
@@ -8669,36 +8669,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8715,20 +8715,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D3" s="12">
         <v>31</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -8739,20 +8739,20 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D4" s="12">
         <v>31</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -8763,20 +8763,20 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D5" s="12">
         <v>31</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -8787,20 +8787,20 @@
         <v>0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D6" s="12">
         <v>31</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="30" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -8825,20 +8825,20 @@
         <v>0</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="D8" s="13">
         <v>31</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -8849,20 +8849,20 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D9" s="13">
         <v>31</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -8873,20 +8873,20 @@
         <v>0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D10" s="13">
         <v>31</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -8897,20 +8897,20 @@
         <v>0</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D11" s="13">
         <v>31</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="31" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -8935,20 +8935,20 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D13" s="12">
         <v>31</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -8959,20 +8959,20 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D14" s="12">
         <v>31</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -8991,17 +8991,17 @@
         <v>9000</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12">
         <v>1</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -9017,22 +9017,22 @@
         <v>9050</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12">
         <v>2</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="30" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -9049,20 +9049,20 @@
         <v>0</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D18" s="13">
         <v>31</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -9073,20 +9073,20 @@
         <v>0</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D19" s="13">
         <v>31</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -9105,17 +9105,17 @@
         <v>9000</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13">
         <v>1</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -9131,10 +9131,10 @@
         <v>9000</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -9155,22 +9155,22 @@
         <v>9050</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13">
         <v>2</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="31" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -9187,20 +9187,20 @@
         <v>0</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D24" s="12">
         <v>31</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -9211,20 +9211,20 @@
         <v>0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D25" s="12">
         <v>31</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -9243,10 +9243,10 @@
         <v>9000</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H26" s="12">
         <v>10</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -9269,10 +9269,10 @@
         <v>9000</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H27" s="12">
         <v>20</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -9293,10 +9293,10 @@
         <v>9000</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H28" s="12">
         <v>200</v>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="30" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9325,20 +9325,20 @@
         <v>0</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D30" s="13">
         <v>31</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -9349,20 +9349,20 @@
         <v>0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D31" s="13">
         <v>31</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -9373,20 +9373,20 @@
         <v>0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D32" s="13">
         <v>31</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="31" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -9411,20 +9411,20 @@
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D34" s="12">
         <v>31</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -9435,20 +9435,20 @@
         <v>0</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D35" s="12">
         <v>31</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -9459,20 +9459,20 @@
         <v>0</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D36" s="12">
         <v>31</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -9483,20 +9483,20 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D37" s="12">
         <v>31</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="30" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9521,20 +9521,20 @@
         <v>0</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D39" s="13">
         <v>31</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -9545,20 +9545,20 @@
         <v>0</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D40" s="13">
         <v>31</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -9569,20 +9569,20 @@
         <v>0</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D41" s="13">
         <v>31</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -9593,20 +9593,20 @@
         <v>0</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D42" s="13">
         <v>31</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -9631,20 +9631,20 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D44" s="12">
         <v>31</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -9655,20 +9655,20 @@
         <v>0</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D45" s="12">
         <v>31</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -9687,17 +9687,17 @@
         <v>9000</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12">
         <v>1</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -9713,22 +9713,22 @@
         <v>9050</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12">
         <v>2</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="30" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -9745,20 +9745,20 @@
         <v>0</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D49" s="13">
         <v>31</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
@@ -9769,20 +9769,20 @@
         <v>0</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D50" s="13">
         <v>31</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -9801,17 +9801,17 @@
         <v>9000</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13">
         <v>1</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -9827,10 +9827,10 @@
         <v>9000</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H52" s="13">
         <v>100</v>
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -9851,22 +9851,22 @@
         <v>9050</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13">
         <v>2</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="31" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -9883,20 +9883,20 @@
         <v>0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D55" s="12">
         <v>31</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -9907,20 +9907,20 @@
         <v>0</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D56" s="12">
         <v>31</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -9931,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -9939,10 +9939,10 @@
         <v>9000</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H57" s="12">
         <v>10</v>
@@ -9955,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -9963,10 +9963,10 @@
         <v>9000</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H58" s="12">
         <v>30</v>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -9987,10 +9987,10 @@
         <v>9000</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H59" s="12">
         <v>300</v>
@@ -10000,7 +10000,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="30" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -10017,20 +10017,20 @@
         <v>0</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D61" s="13">
         <v>31</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
@@ -10041,20 +10041,20 @@
         <v>0</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D62" s="13">
         <v>31</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
@@ -10065,20 +10065,20 @@
         <v>0</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D63" s="13">
         <v>31</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
@@ -10128,24 +10128,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10156,10 +10156,10 @@
     <row r="3" spans="1:6">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D3" s="12">
         <v>65103</v>
@@ -10168,12 +10168,12 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -10184,10 +10184,10 @@
     <row r="5" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D5" s="13">
         <v>65104</v>
@@ -10196,12 +10196,12 @@
         <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -10212,10 +10212,10 @@
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D7" s="12">
         <v>65203</v>
@@ -10224,12 +10224,12 @@
         <v>10</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -10240,10 +10240,10 @@
     <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D9" s="13">
         <v>65204</v>
@@ -10252,7 +10252,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="5:5">
@@ -10274,7 +10274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFDFCCB-DFF7-466C-95F8-BB752093AD46}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -10296,33 +10296,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10339,13 +10339,13 @@
         <v>65101</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D3" s="12">
         <v>16</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -10359,7 +10359,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -10372,17 +10372,17 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="30" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -10399,13 +10399,13 @@
         <v>65102</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D7" s="13">
         <v>16</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -10419,7 +10419,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -10432,17 +10432,17 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -10459,13 +10459,13 @@
         <v>65103</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D11" s="12">
         <v>16</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10479,7 +10479,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -10492,11 +10492,11 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I13" s="12"/>
     </row>
@@ -10507,17 +10507,17 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -10534,13 +10534,13 @@
         <v>65104</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D16" s="13">
         <v>16</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -10554,7 +10554,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -10567,11 +10567,11 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I18" s="13"/>
     </row>
@@ -10582,17 +10582,17 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="31" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -10609,13 +10609,13 @@
         <v>65105</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D21" s="12">
         <v>16</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -10629,7 +10629,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -10642,17 +10642,17 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -10669,13 +10669,13 @@
         <v>65106</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D25" s="13">
         <v>16</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -10689,7 +10689,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -10702,11 +10702,11 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I27" s="13"/>
     </row>
@@ -10717,11 +10717,11 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I28" s="13">
         <v>30</v>
@@ -10734,7 +10734,7 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="31" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -10761,13 +10761,13 @@
         <v>65201</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D31" s="12">
         <v>16</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -10781,7 +10781,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -10794,17 +10794,17 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -10821,13 +10821,13 @@
         <v>65202</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D35" s="13">
         <v>16</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -10841,7 +10841,7 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -10854,17 +10854,17 @@
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -10881,13 +10881,13 @@
         <v>65203</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D39" s="12">
         <v>16</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -10901,7 +10901,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -10914,11 +10914,11 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I41" s="12"/>
     </row>
@@ -10929,17 +10929,17 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="30" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -10956,13 +10956,13 @@
         <v>65204</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D44" s="13">
         <v>16</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -10976,7 +10976,7 @@
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -10989,11 +10989,11 @@
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I46" s="13"/>
     </row>
@@ -11004,17 +11004,17 @@
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="31" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -11031,13 +11031,13 @@
         <v>65205</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D49" s="12">
         <v>16</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
@@ -11051,7 +11051,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -11064,17 +11064,17 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="30" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -11091,13 +11091,13 @@
         <v>65206</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D53" s="13">
         <v>16</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -11111,7 +11111,7 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -11124,11 +11124,11 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="15" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="14"/>
@@ -11143,11 +11143,11 @@
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="15" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I56" s="15">
         <v>30</v>
@@ -11164,7 +11164,7 @@
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -11214,18 +11214,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -11234,7 +11234,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11242,16 +11242,16 @@
     <row r="4" spans="1:4">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -11260,7 +11260,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -11268,16 +11268,16 @@
     <row r="7" spans="1:4">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="31" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -11286,7 +11286,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -11294,26 +11294,26 @@
     <row r="10" spans="1:4">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="30" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -11322,7 +11322,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11330,26 +11330,26 @@
     <row r="14" spans="1:4">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="31" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -11358,7 +11358,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -11366,16 +11366,16 @@
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="30" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -11384,7 +11384,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -11392,16 +11392,16 @@
     <row r="21" spans="1:4">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="31" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -11410,7 +11410,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -11418,16 +11418,16 @@
     <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -11436,7 +11436,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -11444,16 +11444,16 @@
     <row r="27" spans="1:4">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -11462,7 +11462,7 @@
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -11470,26 +11470,26 @@
     <row r="30" spans="1:4">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="30" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -11498,7 +11498,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -11506,26 +11506,26 @@
     <row r="34" spans="1:9">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="31" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -11534,7 +11534,7 @@
     <row r="37" spans="1:9">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -11542,16 +11542,16 @@
     <row r="38" spans="1:9">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="30" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -11560,7 +11560,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -11568,11 +11568,11 @@
     <row r="41" spans="1:9">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="15" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4CB9A-0AD9-47DC-B98E-25B7A427B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29A31D-0D37-4791-A68D-B73CA057C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42525" yWindow="615" windowWidth="24090" windowHeight="14655" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="67380" yWindow="75" windowWidth="24090" windowHeight="14655" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>lab3-dc2-sonic-leaf-2</t>
   </si>
   <si>
-    <t>lab3-dc3-sonic-leaf-3</t>
-  </si>
-  <si>
     <t>lab3-dc2-sonic-borderleaf-1</t>
   </si>
   <si>
@@ -871,6 +868,9 @@
   </si>
   <si>
     <t>192.168.122.230</t>
+  </si>
+  <si>
+    <t>lab3-dc2-sonic-leaf-3</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1720,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>10</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -1796,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
@@ -1834,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>10</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1925,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1949,126 +1949,126 @@
     <row r="3" spans="1:5">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="12">
         <v>65106</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="12">
         <v>65103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="12">
         <v>65104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="12">
         <v>65105</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12">
         <v>65103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="12">
         <v>65104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="12">
         <v>65105</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="12">
         <v>65106</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -2078,126 +2078,126 @@
     <row r="12" spans="1:5">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="13">
         <v>65106</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="13">
         <v>65103</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="13">
         <v>65104</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="13">
         <v>65105</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="13">
         <v>65103</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="13">
         <v>65104</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="13">
         <v>65105</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="13">
         <v>65106</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -2207,81 +2207,81 @@
     <row r="21" spans="1:5">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="12">
         <v>65101</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="12">
         <v>65102</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="12">
         <v>65101</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="12">
         <v>65102</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="12">
         <v>65104</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2291,81 +2291,81 @@
     <row r="27" spans="1:5">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="13">
         <v>65101</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="13">
         <v>65102</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="13">
         <v>65101</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="13">
         <v>65102</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="13">
         <v>65103</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -2375,66 +2375,66 @@
     <row r="33" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="12">
         <v>65101</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="12">
         <v>65102</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="12">
         <v>65101</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="12">
         <v>65102</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -2444,76 +2444,76 @@
     <row r="38" spans="1:7">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="13">
         <v>65101</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="13">
         <v>65102</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="13">
         <v>65101</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="13">
         <v>65102</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="13"/>
       <c r="B42" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="18">
         <v>65206</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -2521,23 +2521,23 @@
     <row r="43" spans="1:7">
       <c r="A43" s="13"/>
       <c r="B43" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="18">
         <v>65206</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -2547,126 +2547,126 @@
     <row r="45" spans="1:7">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="12">
         <v>65206</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" s="12">
         <v>65203</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="12">
         <v>65204</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" s="12">
         <v>65205</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="12">
         <v>65203</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="12">
         <v>65204</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="12">
         <v>65205</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="12">
         <v>65206</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -2676,126 +2676,126 @@
     <row r="54" spans="1:5">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="13">
         <v>65206</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="13">
         <v>65203</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="13">
         <v>65204</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="13">
         <v>65205</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="13">
         <v>65203</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="13">
         <v>65204</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="13"/>
       <c r="B60" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="13">
         <v>65205</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="13"/>
       <c r="B61" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="13">
         <v>65206</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -2805,81 +2805,81 @@
     <row r="63" spans="1:5">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="12">
         <v>65201</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="12">
         <v>65202</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="12">
         <v>65201</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="12">
         <v>65202</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="12">
         <v>65204</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -2889,81 +2889,81 @@
     <row r="69" spans="1:5">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="13">
         <v>65201</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="13">
         <v>65202</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" s="13">
         <v>65201</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" s="13">
         <v>65202</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="13">
         <v>65203</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -2973,66 +2973,66 @@
     <row r="75" spans="1:5">
       <c r="A75" s="12"/>
       <c r="B75" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="12">
         <v>65201</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="12"/>
       <c r="B76" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="12">
         <v>65202</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="12"/>
       <c r="B77" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="12">
         <v>65201</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="12"/>
       <c r="B78" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" s="12">
         <v>65202</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
@@ -3042,92 +3042,92 @@
     <row r="80" spans="1:5">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="13">
         <v>65201</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="13">
         <v>65202</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" s="13">
         <v>65201</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C83" s="13">
         <v>65202</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="13"/>
       <c r="B84" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84" s="18">
         <v>65106</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13"/>
       <c r="B85" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="18">
         <v>65106</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F85" s="17"/>
     </row>
@@ -3177,21 +3177,21 @@
         <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3208,13 +3208,13 @@
         <v>5010</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3226,13 +3226,13 @@
         <v>5020</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3244,13 +3244,13 @@
         <v>5100</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3262,18 +3262,18 @@
         <v>5200</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -3290,13 +3290,13 @@
         <v>5010</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3308,13 +3308,13 @@
         <v>5020</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3326,13 +3326,13 @@
         <v>5100</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3344,18 +3344,18 @@
         <v>5200</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -3372,13 +3372,13 @@
         <v>5010</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3390,13 +3390,13 @@
         <v>5020</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3408,13 +3408,13 @@
         <v>5100</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3426,18 +3426,18 @@
         <v>5200</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -3454,13 +3454,13 @@
         <v>5010</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3472,13 +3472,13 @@
         <v>5020</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3490,13 +3490,13 @@
         <v>5100</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3508,18 +3508,18 @@
         <v>5200</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -3536,13 +3536,13 @@
         <v>5010</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3554,13 +3554,13 @@
         <v>5030</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3572,13 +3572,13 @@
         <v>5100</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3590,18 +3590,18 @@
         <v>5300</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -3618,13 +3618,13 @@
         <v>5010</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3636,13 +3636,13 @@
         <v>5030</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3654,13 +3654,13 @@
         <v>5100</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3672,18 +3672,18 @@
         <v>5300</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -3700,13 +3700,13 @@
         <v>5010</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3718,13 +3718,13 @@
         <v>5030</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3736,13 +3736,13 @@
         <v>5100</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3754,18 +3754,18 @@
         <v>5300</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -3782,13 +3782,13 @@
         <v>5010</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3800,13 +3800,13 @@
         <v>5030</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3818,13 +3818,13 @@
         <v>5100</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3836,13 +3836,13 @@
         <v>5300</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" s="14"/>
     </row>
@@ -3887,30 +3887,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3926,22 +3926,22 @@
         <v>65103</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3950,27 +3950,27 @@
         <v>65103</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3986,22 +3986,22 @@
         <v>65104</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4010,27 +4010,27 @@
         <v>65104</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4046,22 +4046,22 @@
         <v>65105</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4070,27 +4070,27 @@
         <v>65105</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -4106,22 +4106,22 @@
         <v>65106</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4130,27 +4130,27 @@
         <v>65106</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -4166,22 +4166,22 @@
         <v>65203</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4190,27 +4190,27 @@
         <v>65203</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -4226,22 +4226,22 @@
         <v>65204</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4250,27 +4250,27 @@
         <v>65204</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4286,22 +4286,22 @@
         <v>65205</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4310,27 +4310,27 @@
         <v>65205</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -4346,22 +4346,22 @@
         <v>65206</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4370,22 +4370,22 @@
         <v>65206</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4429,30 +4429,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4465,10 +4465,10 @@
     <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4479,7 +4479,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4495,7 +4495,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4511,7 +4511,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -4527,7 +4527,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4543,7 +4543,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4559,7 +4559,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4580,7 +4580,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="12">
         <v>10010</v>
@@ -4594,7 +4594,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="12">
         <v>10020</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4615,10 +4615,10 @@
     <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -4629,7 +4629,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4645,7 +4645,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4661,7 +4661,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4677,7 +4677,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4693,7 +4693,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4709,7 +4709,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4730,7 +4730,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="13">
         <v>10010</v>
@@ -4744,7 +4744,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="13">
         <v>10020</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -4765,10 +4765,10 @@
     <row r="23" spans="1:8">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -4779,7 +4779,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4795,7 +4795,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4811,7 +4811,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4827,7 +4827,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -4843,7 +4843,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4859,7 +4859,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4880,7 +4880,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30" s="12">
         <v>10010</v>
@@ -4894,7 +4894,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="12">
         <v>10020</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -4915,10 +4915,10 @@
     <row r="33" spans="1:8">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -4929,7 +4929,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -4945,7 +4945,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -4961,7 +4961,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4977,7 +4977,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -4993,7 +4993,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -5009,7 +5009,7 @@
     <row r="39" spans="1:8">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -5030,7 +5030,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40" s="13">
         <v>10010</v>
@@ -5044,7 +5044,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41" s="13">
         <v>10020</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -5065,10 +5065,10 @@
     <row r="43" spans="1:8">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5079,7 +5079,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -5095,7 +5095,7 @@
     <row r="45" spans="1:8">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5111,7 +5111,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5127,7 +5127,7 @@
     <row r="47" spans="1:8">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -5143,7 +5143,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5159,7 +5159,7 @@
     <row r="49" spans="1:8">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -5180,7 +5180,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H50" s="12">
         <v>10010</v>
@@ -5194,7 +5194,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H51" s="12">
         <v>10020</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -5215,10 +5215,10 @@
     <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -5229,7 +5229,7 @@
     <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5245,7 +5245,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -5261,7 +5261,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -5277,7 +5277,7 @@
     <row r="57" spans="1:8">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -5293,7 +5293,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -5309,7 +5309,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -5330,7 +5330,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60" s="13">
         <v>10010</v>
@@ -5344,7 +5344,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H61" s="13">
         <v>10020</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -5365,10 +5365,10 @@
     <row r="63" spans="1:8">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -5379,7 +5379,7 @@
     <row r="64" spans="1:8">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -5395,7 +5395,7 @@
     <row r="65" spans="1:8">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -5411,7 +5411,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -5427,7 +5427,7 @@
     <row r="67" spans="1:8">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -5443,7 +5443,7 @@
     <row r="68" spans="1:8">
       <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -5459,7 +5459,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -5480,7 +5480,7 @@
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H70" s="12">
         <v>10010</v>
@@ -5494,7 +5494,7 @@
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" s="12">
         <v>10020</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -5515,10 +5515,10 @@
     <row r="73" spans="1:8">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -5529,7 +5529,7 @@
     <row r="74" spans="1:8">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -5545,7 +5545,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -5561,7 +5561,7 @@
     <row r="76" spans="1:8">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -5577,7 +5577,7 @@
     <row r="77" spans="1:8">
       <c r="A77" s="13"/>
       <c r="B77" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -5593,7 +5593,7 @@
     <row r="78" spans="1:8">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -5609,7 +5609,7 @@
     <row r="79" spans="1:8">
       <c r="A79" s="13"/>
       <c r="B79" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -5630,7 +5630,7 @@
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H80" s="13">
         <v>10010</v>
@@ -5644,7 +5644,7 @@
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H81" s="13">
         <v>10020</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="27"/>
     </row>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5708,12 +5708,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="25"/>
     </row>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5730,12 +5730,12 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="27"/>
     </row>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5752,12 +5752,12 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="25"/>
     </row>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5774,12 +5774,12 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14" s="27"/>
     </row>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5796,12 +5796,12 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B17" s="25"/>
     </row>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5818,12 +5818,12 @@
         <v>0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="27"/>
     </row>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5840,12 +5840,12 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B23" s="25"/>
     </row>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -5916,27 +5916,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -5957,10 +5957,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -5976,10 +5976,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -5995,13 +5995,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6016,13 +6016,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6037,13 +6037,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6058,18 +6058,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -6090,10 +6090,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -6109,10 +6109,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -6128,13 +6128,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6149,13 +6149,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6170,13 +6170,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6191,18 +6191,18 @@
         <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -6223,10 +6223,10 @@
         <v>10</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -6242,10 +6242,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -6261,13 +6261,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6282,13 +6282,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6303,13 +6303,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6324,18 +6324,18 @@
         <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6356,10 +6356,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -6375,10 +6375,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -6394,13 +6394,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6415,13 +6415,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6436,13 +6436,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6457,18 +6457,18 @@
         <v>10</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -6489,10 +6489,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="5"/>
     </row>
@@ -6508,10 +6508,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -6527,13 +6527,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6548,13 +6548,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6569,13 +6569,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6590,18 +6590,18 @@
         <v>10</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -6622,10 +6622,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" s="8"/>
     </row>
@@ -6641,10 +6641,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" s="8"/>
     </row>
@@ -6660,13 +6660,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6681,13 +6681,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6702,13 +6702,13 @@
         <v>10</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6723,18 +6723,18 @@
         <v>10</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -6755,10 +6755,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" s="5"/>
     </row>
@@ -6774,10 +6774,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" s="5"/>
     </row>
@@ -6793,13 +6793,13 @@
         <v>10</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6814,13 +6814,13 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6835,13 +6835,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6856,18 +6856,18 @@
         <v>10</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -6888,10 +6888,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G52" s="8"/>
     </row>
@@ -6907,10 +6907,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" s="8"/>
     </row>
@@ -6926,13 +6926,13 @@
         <v>10</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6947,13 +6947,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -6968,13 +6968,13 @@
         <v>10</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6989,13 +6989,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
@@ -7042,19 +7042,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -7076,10 +7076,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5">
         <v>32</v>
@@ -7088,13 +7088,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -7108,10 +7108,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8">
         <v>32</v>
@@ -7120,13 +7120,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7140,10 +7140,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5">
         <v>32</v>
@@ -7152,7 +7152,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -7161,10 +7161,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5">
         <v>32</v>
@@ -7173,7 +7173,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -7182,10 +7182,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5">
         <v>32</v>
@@ -7194,10 +7194,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7205,10 +7205,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5">
         <v>32</v>
@@ -7217,15 +7217,15 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -7239,10 +7239,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="8">
         <v>32</v>
@@ -7251,7 +7251,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8">
         <v>32</v>
@@ -7272,7 +7272,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -7281,10 +7281,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8">
         <v>32</v>
@@ -7293,10 +7293,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7304,10 +7304,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="8">
         <v>32</v>
@@ -7316,15 +7316,15 @@
         <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -7338,10 +7338,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
@@ -7350,7 +7350,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -7359,10 +7359,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5">
         <v>32</v>
@@ -7371,7 +7371,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -7380,10 +7380,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5">
         <v>32</v>
@@ -7392,10 +7392,10 @@
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7403,10 +7403,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5">
         <v>32</v>
@@ -7415,15 +7415,15 @@
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8">
         <v>32</v>
@@ -7449,7 +7449,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -7458,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="8">
         <v>32</v>
@@ -7470,7 +7470,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -7479,10 +7479,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="8">
         <v>32</v>
@@ -7491,10 +7491,10 @@
         <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7502,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="8">
         <v>32</v>
@@ -7514,19 +7514,19 @@
         <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="D26" s="8">
         <v>32</v>
@@ -7535,13 +7535,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -7555,10 +7555,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="5">
         <v>32</v>
@@ -7567,13 +7567,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -7587,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="8">
         <v>32</v>
@@ -7599,13 +7599,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5">
         <v>32</v>
@@ -7631,7 +7631,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -7640,10 +7640,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="5">
         <v>32</v>
@@ -7652,7 +7652,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -7661,10 +7661,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="5">
         <v>32</v>
@@ -7673,10 +7673,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7684,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="5">
         <v>32</v>
@@ -7696,15 +7696,15 @@
         <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -7718,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="8">
         <v>32</v>
@@ -7730,7 +7730,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" s="8"/>
     </row>
@@ -7739,10 +7739,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="8">
         <v>32</v>
@@ -7751,7 +7751,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G38" s="8"/>
     </row>
@@ -7760,10 +7760,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="8">
         <v>32</v>
@@ -7772,10 +7772,10 @@
         <v>10</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7783,10 +7783,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="8">
         <v>32</v>
@@ -7795,15 +7795,15 @@
         <v>10</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7817,10 +7817,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="5">
         <v>32</v>
@@ -7829,7 +7829,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" s="5"/>
     </row>
@@ -7838,10 +7838,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="5">
         <v>32</v>
@@ -7850,7 +7850,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G43" s="5"/>
     </row>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="5">
         <v>32</v>
@@ -7871,10 +7871,10 @@
         <v>10</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7882,10 +7882,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
@@ -7894,15 +7894,15 @@
         <v>10</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -7916,10 +7916,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="8">
         <v>32</v>
@@ -7928,7 +7928,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G47" s="8"/>
     </row>
@@ -7937,10 +7937,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="8">
         <v>32</v>
@@ -7949,7 +7949,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G48" s="8"/>
     </row>
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="8">
         <v>32</v>
@@ -7970,10 +7970,10 @@
         <v>10</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="8">
         <v>32</v>
@@ -7993,19 +7993,19 @@
         <v>10</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D51" s="8">
         <v>32</v>
@@ -8014,7 +8014,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51"/>
@@ -8075,48 +8075,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="J1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -8135,23 +8135,23 @@
     <row r="3" spans="1:14">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="6">
         <v>9050</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -8161,7 +8161,7 @@
     <row r="4" spans="1:14">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -8175,13 +8175,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8196,10 +8196,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="G5" s="6">
         <v>31</v>
@@ -8215,14 +8215,14 @@
     <row r="6" spans="1:14">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6">
         <v>9000</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8261,23 +8261,23 @@
     <row r="8" spans="1:14">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="10">
         <v>9050</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -8287,7 +8287,7 @@
     <row r="9" spans="1:14">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -8301,13 +8301,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -8322,10 +8322,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10">
         <v>31</v>
@@ -8341,14 +8341,14 @@
     <row r="11" spans="1:14">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="10">
         <v>9000</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="10">
         <v>1</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -8387,23 +8387,23 @@
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="6">
         <v>9050</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -8413,7 +8413,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -8427,13 +8427,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -8448,10 +8448,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" s="6">
         <v>31</v>
@@ -8467,14 +8467,14 @@
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="6">
         <v>9000</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" s="6">
         <v>1</v>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -8513,23 +8513,23 @@
     <row r="18" spans="1:26">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="10">
         <v>9050</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -8539,7 +8539,7 @@
     <row r="19" spans="1:26">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -8553,13 +8553,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -8574,10 +8574,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="10">
         <v>31</v>
@@ -8593,14 +8593,14 @@
     <row r="21" spans="1:26">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="10">
         <v>9000</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="10">
         <v>1</v>
@@ -8669,36 +8669,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8715,10 +8715,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="D3" s="12">
         <v>31</v>
@@ -8728,7 +8728,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -8739,10 +8739,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="12">
         <v>31</v>
@@ -8752,7 +8752,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="12">
         <v>31</v>
@@ -8776,7 +8776,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="12">
         <v>31</v>
@@ -8800,7 +8800,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -8825,10 +8825,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="13">
         <v>31</v>
@@ -8838,7 +8838,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -8849,10 +8849,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="13">
         <v>31</v>
@@ -8862,7 +8862,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -8873,10 +8873,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="13">
         <v>31</v>
@@ -8886,7 +8886,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -8897,10 +8897,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="13">
         <v>31</v>
@@ -8910,7 +8910,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="12">
         <v>31</v>
@@ -8948,7 +8948,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -8959,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="12">
         <v>31</v>
@@ -8972,7 +8972,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -8994,14 +8994,14 @@
         <v>10</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12">
         <v>1</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -9020,19 +9020,19 @@
         <v>10</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12">
         <v>2</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -9049,10 +9049,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="13">
         <v>31</v>
@@ -9062,7 +9062,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -9073,10 +9073,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="13">
         <v>31</v>
@@ -9086,7 +9086,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -9108,14 +9108,14 @@
         <v>10</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13">
         <v>1</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -9134,7 +9134,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -9158,19 +9158,19 @@
         <v>10</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13">
         <v>2</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="12">
         <v>31</v>
@@ -9200,7 +9200,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -9211,10 +9211,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="12">
         <v>31</v>
@@ -9224,7 +9224,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -9246,7 +9246,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H26" s="12">
         <v>10</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -9272,7 +9272,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H27" s="12">
         <v>20</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -9296,7 +9296,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" s="12">
         <v>200</v>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9325,10 +9325,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="13">
         <v>31</v>
@@ -9338,7 +9338,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -9349,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="13">
         <v>31</v>
@@ -9362,7 +9362,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -9373,10 +9373,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="13">
         <v>31</v>
@@ -9386,7 +9386,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -9411,10 +9411,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="12">
         <v>31</v>
@@ -9424,7 +9424,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -9435,10 +9435,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="12">
         <v>31</v>
@@ -9448,7 +9448,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -9459,10 +9459,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="12">
         <v>31</v>
@@ -9472,7 +9472,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -9483,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="12">
         <v>31</v>
@@ -9496,7 +9496,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9521,10 +9521,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="13">
         <v>31</v>
@@ -9534,7 +9534,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -9545,10 +9545,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="13">
         <v>31</v>
@@ -9558,7 +9558,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -9569,10 +9569,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="13">
         <v>31</v>
@@ -9582,7 +9582,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -9593,10 +9593,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D42" s="13">
         <v>31</v>
@@ -9606,7 +9606,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D44" s="12">
         <v>31</v>
@@ -9644,7 +9644,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="12">
         <v>31</v>
@@ -9668,7 +9668,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -9690,14 +9690,14 @@
         <v>10</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12">
         <v>1</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -9716,19 +9716,19 @@
         <v>10</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12">
         <v>2</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="13">
         <v>31</v>
@@ -9758,7 +9758,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="13">
         <v>31</v>
@@ -9782,7 +9782,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -9804,14 +9804,14 @@
         <v>10</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13">
         <v>1</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -9830,7 +9830,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H52" s="13">
         <v>100</v>
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -9854,19 +9854,19 @@
         <v>10</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13">
         <v>2</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55" s="12">
         <v>31</v>
@@ -9896,7 +9896,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -9907,10 +9907,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56" s="12">
         <v>31</v>
@@ -9920,7 +9920,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -9931,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -9942,7 +9942,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H57" s="12">
         <v>10</v>
@@ -9955,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -9966,7 +9966,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H58" s="12">
         <v>30</v>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -9990,7 +9990,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H59" s="12">
         <v>300</v>
@@ -10000,7 +10000,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -10017,10 +10017,10 @@
         <v>0</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D61" s="13">
         <v>31</v>
@@ -10030,7 +10030,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
@@ -10041,10 +10041,10 @@
         <v>0</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D62" s="13">
         <v>31</v>
@@ -10054,7 +10054,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
@@ -10065,10 +10065,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D63" s="13">
         <v>31</v>
@@ -10078,7 +10078,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
@@ -10128,24 +10128,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10156,10 +10156,10 @@
     <row r="3" spans="1:6">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="D3" s="12">
         <v>65103</v>
@@ -10168,12 +10168,12 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -10184,10 +10184,10 @@
     <row r="5" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="13">
         <v>65104</v>
@@ -10196,12 +10196,12 @@
         <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -10212,10 +10212,10 @@
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="D7" s="12">
         <v>65203</v>
@@ -10224,12 +10224,12 @@
         <v>10</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -10240,10 +10240,10 @@
     <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="D9" s="13">
         <v>65204</v>
@@ -10252,7 +10252,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="5:5">
@@ -10296,33 +10296,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10339,7 +10339,7 @@
         <v>65101</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12">
         <v>16</v>
@@ -10359,7 +10359,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -10372,17 +10372,17 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -10399,7 +10399,7 @@
         <v>65102</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="13">
         <v>16</v>
@@ -10419,7 +10419,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -10432,17 +10432,17 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -10459,7 +10459,7 @@
         <v>65103</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="12">
         <v>16</v>
@@ -10479,7 +10479,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -10492,11 +10492,11 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="12"/>
     </row>
@@ -10507,17 +10507,17 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -10534,7 +10534,7 @@
         <v>65104</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="13">
         <v>16</v>
@@ -10554,7 +10554,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -10567,11 +10567,11 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="13"/>
     </row>
@@ -10582,17 +10582,17 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -10609,7 +10609,7 @@
         <v>65105</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="12">
         <v>16</v>
@@ -10629,7 +10629,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -10642,17 +10642,17 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -10669,7 +10669,7 @@
         <v>65106</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="13">
         <v>16</v>
@@ -10689,7 +10689,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -10702,11 +10702,11 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27" s="13"/>
     </row>
@@ -10717,11 +10717,11 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I28" s="13">
         <v>30</v>
@@ -10734,7 +10734,7 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -10761,7 +10761,7 @@
         <v>65201</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="12">
         <v>16</v>
@@ -10781,7 +10781,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -10794,17 +10794,17 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -10821,7 +10821,7 @@
         <v>65202</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="13">
         <v>16</v>
@@ -10841,7 +10841,7 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -10854,17 +10854,17 @@
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -10881,7 +10881,7 @@
         <v>65203</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="12">
         <v>16</v>
@@ -10901,7 +10901,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -10914,11 +10914,11 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="12"/>
     </row>
@@ -10929,17 +10929,17 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -10956,7 +10956,7 @@
         <v>65204</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="13">
         <v>16</v>
@@ -10976,7 +10976,7 @@
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -10989,11 +10989,11 @@
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I46" s="13"/>
     </row>
@@ -11004,17 +11004,17 @@
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -11031,7 +11031,7 @@
         <v>65205</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="12">
         <v>16</v>
@@ -11051,7 +11051,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -11064,17 +11064,17 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -11091,7 +11091,7 @@
         <v>65206</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="13">
         <v>16</v>
@@ -11111,7 +11111,7 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -11124,11 +11124,11 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="14"/>
@@ -11143,11 +11143,11 @@
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I56" s="15">
         <v>30</v>
@@ -11164,7 +11164,7 @@
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -11174,11 +11174,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A20:I20"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="A24:I24"/>
@@ -11186,6 +11181,11 @@
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11214,18 +11214,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -11234,7 +11234,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11242,16 +11242,16 @@
     <row r="4" spans="1:4">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -11260,7 +11260,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -11268,16 +11268,16 @@
     <row r="7" spans="1:4">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -11286,7 +11286,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -11294,26 +11294,26 @@
     <row r="10" spans="1:4">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -11322,7 +11322,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11330,26 +11330,26 @@
     <row r="14" spans="1:4">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -11358,7 +11358,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -11366,16 +11366,16 @@
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -11384,7 +11384,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -11392,16 +11392,16 @@
     <row r="21" spans="1:4">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -11410,7 +11410,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -11418,16 +11418,16 @@
     <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -11436,7 +11436,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -11444,16 +11444,16 @@
     <row r="27" spans="1:4">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -11462,7 +11462,7 @@
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -11470,26 +11470,26 @@
     <row r="30" spans="1:4">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -11498,7 +11498,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -11506,26 +11506,26 @@
     <row r="34" spans="1:9">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -11534,7 +11534,7 @@
     <row r="37" spans="1:9">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -11542,16 +11542,16 @@
     <row r="38" spans="1:9">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -11560,7 +11560,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -11568,11 +11568,11 @@
     <row r="41" spans="1:9">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -11582,6 +11582,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A25:D25"/>
@@ -11589,11 +11594,6 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29A31D-0D37-4791-A68D-B73CA057C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF220B37-50CE-4F00-9C9A-4E2D9FC67FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67380" yWindow="75" windowWidth="24090" windowHeight="14655" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="274">
   <si>
     <t>mgmt_ip</t>
   </si>
@@ -817,9 +817,6 @@
   </si>
   <si>
     <t>20.1.1.1</t>
-  </si>
-  <si>
-    <t>00:00:00:00:02:02</t>
   </si>
   <si>
     <t>to-spine1-overlay</t>
@@ -1388,7 +1385,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1468,7 +1465,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1506,7 +1503,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1544,7 +1541,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1582,7 +1579,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1658,7 +1655,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1682,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>10</v>
@@ -1696,7 +1693,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1720,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1758,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>10</v>
@@ -1772,7 +1769,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -1796,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1810,7 +1807,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1825,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
@@ -1834,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>10</v>
@@ -1848,7 +1845,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -1872,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1908,7 +1905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042134A-B227-445A-ADC9-97C4504769C8}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
@@ -1939,7 +1936,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2068,7 +2065,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -2246,7 +2243,7 @@
         <v>176</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2261,7 +2258,7 @@
         <v>176</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2281,7 +2278,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2330,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2345,7 +2342,7 @@
         <v>176</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2365,7 +2362,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -2414,7 +2411,7 @@
         <v>176</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2429,12 +2426,12 @@
         <v>176</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -2483,7 +2480,7 @@
         <v>176</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2498,7 +2495,7 @@
         <v>176</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2537,7 +2534,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -2666,7 +2663,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -2795,7 +2792,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -2844,7 +2841,7 @@
         <v>176</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2859,7 +2856,7 @@
         <v>176</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2879,7 +2876,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -2928,7 +2925,7 @@
         <v>176</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2943,7 +2940,7 @@
         <v>176</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2963,7 +2960,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -3012,7 +3009,7 @@
         <v>176</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3027,12 +3024,12 @@
         <v>176</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
@@ -3081,7 +3078,7 @@
         <v>176</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3096,7 +3093,7 @@
         <v>176</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3155,7 +3152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C52FBF0-50B8-419E-8B18-9F1CF31FBDEC}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -3191,7 +3188,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3273,7 +3270,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -3355,7 +3352,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -3437,7 +3434,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -3519,7 +3516,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -3601,7 +3598,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -3683,7 +3680,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -3765,7 +3762,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -3910,7 +3907,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3941,7 +3938,7 @@
         <v>43</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3965,12 +3962,12 @@
         <v>44</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -4001,7 +3998,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4025,12 +4022,12 @@
         <v>44</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4090,7 +4087,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -4150,7 +4147,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -4181,7 +4178,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4205,12 +4202,12 @@
         <v>44</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -4241,7 +4238,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4265,12 +4262,12 @@
         <v>44</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4330,7 +4327,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -4408,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE81A0-AC4B-4D30-8365-F6A87D15D01B}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4452,7 +4449,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4602,7 +4599,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4752,7 +4749,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -4902,7 +4899,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -5052,7 +5049,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -5202,7 +5199,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -5352,7 +5349,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -5502,7 +5499,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -5691,7 +5688,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="27"/>
     </row>
@@ -5713,7 +5710,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="25"/>
     </row>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="27"/>
     </row>
@@ -5757,7 +5754,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="25"/>
     </row>
@@ -5779,7 +5776,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="27"/>
     </row>
@@ -5801,7 +5798,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" s="25"/>
     </row>
@@ -5823,7 +5820,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="27"/>
     </row>
@@ -5845,7 +5842,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B23" s="25"/>
     </row>
@@ -5895,7 +5892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01666E55-9237-448F-B2CC-24EB808BCEEE}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -5906,7 +5903,7 @@
     <col min="3" max="3" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="3"/>
   </cols>
@@ -5936,7 +5933,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -6069,7 +6066,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -6202,7 +6199,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -6335,7 +6332,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6468,7 +6465,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -6601,7 +6598,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -6734,7 +6731,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -6867,7 +6864,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -7062,7 +7059,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -7094,7 +7091,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -7126,7 +7123,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7225,7 +7222,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -7324,7 +7321,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -7423,7 +7420,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -7541,7 +7538,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -7573,7 +7570,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -7605,7 +7602,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -7704,7 +7701,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -7803,7 +7800,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7902,7 +7899,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -8116,7 +8113,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -8242,7 +8239,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8368,7 +8365,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -8494,7 +8491,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -8698,7 +8695,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8808,7 +8805,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -8918,7 +8915,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -9032,7 +9029,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -9170,7 +9167,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -9308,7 +9305,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9394,7 +9391,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -9504,7 +9501,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9614,7 +9611,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -9728,7 +9725,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -9866,7 +9863,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -10000,7 +9997,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -10145,7 +10142,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10173,7 +10170,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -10201,7 +10198,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -10229,7 +10226,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -10274,7 +10271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFDFCCB-DFF7-466C-95F8-BB752093AD46}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -10317,12 +10314,12 @@
         <v>174</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10382,7 +10379,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -10442,7 +10439,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -10517,7 +10514,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -10592,7 +10589,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -10652,7 +10649,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -10744,7 +10741,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -10804,7 +10801,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -10864,7 +10861,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -10939,7 +10936,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -11014,7 +11011,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -11074,7 +11071,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -11174,6 +11171,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="A24:I24"/>
@@ -11181,11 +11183,6 @@
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A20:I20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11197,7 +11194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F6DC45-993E-4A5F-A2BF-10AE02B022F6}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -11225,7 +11222,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -11251,7 +11248,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -11277,7 +11274,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -11313,7 +11310,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -11349,7 +11346,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -11375,7 +11372,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -11401,7 +11398,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -11427,7 +11424,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -11453,7 +11450,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -11489,7 +11486,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -11525,7 +11522,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -11551,7 +11548,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -11582,11 +11579,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A25:D25"/>
@@ -11594,6 +11586,11 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF220B37-50CE-4F00-9C9A-4E2D9FC67FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E320D37-F26B-4A33-821C-18A32E6D0933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -144,15 +144,9 @@
     <t>192.168.100.1/24</t>
   </si>
   <si>
-    <t>192.168.200.1/24</t>
-  </si>
-  <si>
     <t>192.168.30.1/24</t>
   </si>
   <si>
-    <t>192.168.33.1/24</t>
-  </si>
-  <si>
     <t>loopback</t>
   </si>
   <si>
@@ -868,6 +862,12 @@
   </si>
   <si>
     <t>lab3-dc2-sonic-leaf-3</t>
+  </si>
+  <si>
+    <t>192.168.101.1/24</t>
+  </si>
+  <si>
+    <t>192.168.102.1/24</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035F7E6-6A3D-48A1-B528-F39752DCEDD0}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -1922,21 +1922,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1946,126 +1946,126 @@
     <row r="3" spans="1:5">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="12">
         <v>65106</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="12">
         <v>65103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="12">
         <v>65104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="12">
         <v>65105</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="12">
         <v>65103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12">
         <v>65104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="12">
         <v>65105</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="12">
         <v>65106</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -2075,126 +2075,126 @@
     <row r="12" spans="1:5">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="13">
         <v>65106</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="13">
         <v>65103</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="13">
         <v>65104</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="13">
         <v>65105</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="13">
         <v>65103</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="13">
         <v>65104</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="13">
         <v>65105</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="13">
         <v>65106</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -2204,81 +2204,81 @@
     <row r="21" spans="1:5">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="12">
         <v>65101</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="12">
         <v>65102</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="12">
         <v>65101</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="12">
         <v>65102</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="12">
         <v>65104</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2288,81 +2288,81 @@
     <row r="27" spans="1:5">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="13">
         <v>65101</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" s="13">
         <v>65102</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="13">
         <v>65101</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="13">
         <v>65102</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="13">
         <v>65103</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -2372,66 +2372,66 @@
     <row r="33" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="12">
         <v>65101</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C34" s="12">
         <v>65102</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" s="12">
         <v>65101</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="12">
         <v>65102</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -2441,76 +2441,76 @@
     <row r="38" spans="1:7">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" s="13">
         <v>65101</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C39" s="13">
         <v>65102</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="13">
         <v>65101</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="13">
         <v>65102</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="13"/>
       <c r="B42" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="18">
         <v>65206</v>
       </c>
       <c r="D42" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>187</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -2518,23 +2518,23 @@
     <row r="43" spans="1:7">
       <c r="A43" s="13"/>
       <c r="B43" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" s="18">
         <v>65206</v>
       </c>
       <c r="D43" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -2544,126 +2544,126 @@
     <row r="45" spans="1:7">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C45" s="12">
         <v>65206</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" s="12">
         <v>65203</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C47" s="12">
         <v>65204</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C48" s="12">
         <v>65205</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="12">
         <v>65203</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" s="12">
         <v>65204</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="12">
         <v>65205</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52" s="12">
         <v>65206</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -2673,126 +2673,126 @@
     <row r="54" spans="1:5">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" s="13">
         <v>65206</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C55" s="13">
         <v>65203</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C56" s="13">
         <v>65204</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57" s="13">
         <v>65205</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="13">
         <v>65203</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="13">
         <v>65204</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="13"/>
       <c r="B60" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="13">
         <v>65205</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="13"/>
       <c r="B61" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="13">
         <v>65206</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -2802,81 +2802,81 @@
     <row r="63" spans="1:5">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C63" s="12">
         <v>65201</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C64" s="12">
         <v>65202</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C65" s="12">
         <v>65201</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C66" s="12">
         <v>65202</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" s="12">
         <v>65204</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -2886,81 +2886,81 @@
     <row r="69" spans="1:5">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C69" s="13">
         <v>65201</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" s="13">
         <v>65202</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C71" s="13">
         <v>65201</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="13">
         <v>65202</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="13">
         <v>65203</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -2970,66 +2970,66 @@
     <row r="75" spans="1:5">
       <c r="A75" s="12"/>
       <c r="B75" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" s="12">
         <v>65201</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="12"/>
       <c r="B76" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C76" s="12">
         <v>65202</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="12"/>
       <c r="B77" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C77" s="12">
         <v>65201</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="12"/>
       <c r="B78" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C78" s="12">
         <v>65202</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
@@ -3039,92 +3039,92 @@
     <row r="80" spans="1:5">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C80" s="13">
         <v>65201</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C81" s="13">
         <v>65202</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C82" s="13">
         <v>65201</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C83" s="13">
         <v>65202</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="13"/>
       <c r="B84" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C84" s="18">
         <v>65106</v>
       </c>
       <c r="D84" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>187</v>
       </c>
       <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13"/>
       <c r="B85" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C85" s="18">
         <v>65106</v>
       </c>
       <c r="D85" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="F85" s="17"/>
     </row>
@@ -3152,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C52FBF0-50B8-419E-8B18-9F1CF31FBDEC}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3174,21 +3174,21 @@
         <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3205,13 +3205,13 @@
         <v>5010</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3223,13 +3223,13 @@
         <v>5020</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3241,13 +3241,13 @@
         <v>5100</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3259,18 +3259,18 @@
         <v>5200</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -3287,13 +3287,13 @@
         <v>5010</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3305,13 +3305,13 @@
         <v>5020</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3323,13 +3323,13 @@
         <v>5100</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3341,18 +3341,18 @@
         <v>5200</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -3369,13 +3369,13 @@
         <v>5010</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3387,13 +3387,13 @@
         <v>5020</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3405,13 +3405,13 @@
         <v>5100</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3423,18 +3423,18 @@
         <v>5200</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -3451,13 +3451,13 @@
         <v>5010</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3469,13 +3469,13 @@
         <v>5020</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3487,13 +3487,13 @@
         <v>5100</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3505,18 +3505,18 @@
         <v>5200</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -3533,13 +3533,13 @@
         <v>5010</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3551,13 +3551,13 @@
         <v>5030</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3569,13 +3569,13 @@
         <v>5100</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3587,18 +3587,18 @@
         <v>5300</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -3615,13 +3615,13 @@
         <v>5010</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3633,13 +3633,13 @@
         <v>5030</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3651,13 +3651,13 @@
         <v>5100</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3669,18 +3669,18 @@
         <v>5300</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -3697,13 +3697,13 @@
         <v>5010</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3715,13 +3715,13 @@
         <v>5030</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3733,13 +3733,13 @@
         <v>5100</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3751,18 +3751,18 @@
         <v>5300</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -3779,13 +3779,13 @@
         <v>5010</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3797,13 +3797,13 @@
         <v>5030</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3815,13 +3815,13 @@
         <v>5100</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3833,13 +3833,13 @@
         <v>5300</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G41" s="14"/>
     </row>
@@ -3884,30 +3884,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3923,22 +3923,22 @@
         <v>65103</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3947,27 +3947,27 @@
         <v>65103</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3983,22 +3983,22 @@
         <v>65104</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4007,27 +4007,27 @@
         <v>65104</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4043,22 +4043,22 @@
         <v>65105</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4067,27 +4067,27 @@
         <v>65105</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -4103,22 +4103,22 @@
         <v>65106</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4127,27 +4127,27 @@
         <v>65106</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -4163,22 +4163,22 @@
         <v>65203</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4187,27 +4187,27 @@
         <v>65203</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -4223,22 +4223,22 @@
         <v>65204</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4247,27 +4247,27 @@
         <v>65204</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4283,22 +4283,22 @@
         <v>65205</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4307,27 +4307,27 @@
         <v>65205</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -4343,22 +4343,22 @@
         <v>65206</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4367,22 +4367,22 @@
         <v>65206</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4426,16 +4426,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>23</v>
@@ -4444,12 +4444,12 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4462,10 +4462,10 @@
     <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4476,7 +4476,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4492,7 +4492,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4508,7 +4508,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -4524,7 +4524,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4540,7 +4540,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4556,7 +4556,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4577,7 +4577,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="12">
         <v>10010</v>
@@ -4591,7 +4591,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="12">
         <v>10020</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4612,10 +4612,10 @@
     <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -4626,7 +4626,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4642,7 +4642,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4658,7 +4658,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4674,7 +4674,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4690,7 +4690,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4706,7 +4706,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4727,7 +4727,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20" s="13">
         <v>10010</v>
@@ -4741,7 +4741,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H21" s="13">
         <v>10020</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -4762,10 +4762,10 @@
     <row r="23" spans="1:8">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -4776,7 +4776,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4792,7 +4792,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4808,7 +4808,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4824,7 +4824,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -4840,7 +4840,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4856,7 +4856,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4877,7 +4877,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H30" s="12">
         <v>10010</v>
@@ -4891,7 +4891,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H31" s="12">
         <v>10020</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -4912,10 +4912,10 @@
     <row r="33" spans="1:8">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -4926,7 +4926,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -4942,7 +4942,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -4958,7 +4958,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4974,7 +4974,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -4990,7 +4990,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -5006,7 +5006,7 @@
     <row r="39" spans="1:8">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -5027,7 +5027,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H40" s="13">
         <v>10010</v>
@@ -5041,7 +5041,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H41" s="13">
         <v>10020</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -5062,10 +5062,10 @@
     <row r="43" spans="1:8">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5076,7 +5076,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -5092,7 +5092,7 @@
     <row r="45" spans="1:8">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5108,7 +5108,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5124,7 +5124,7 @@
     <row r="47" spans="1:8">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -5140,7 +5140,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5156,7 +5156,7 @@
     <row r="49" spans="1:8">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -5177,7 +5177,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H50" s="12">
         <v>10010</v>
@@ -5191,7 +5191,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H51" s="12">
         <v>10020</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -5212,10 +5212,10 @@
     <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -5226,7 +5226,7 @@
     <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5242,7 +5242,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -5258,7 +5258,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -5274,7 +5274,7 @@
     <row r="57" spans="1:8">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -5290,7 +5290,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -5306,7 +5306,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -5327,7 +5327,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H60" s="13">
         <v>10010</v>
@@ -5341,7 +5341,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H61" s="13">
         <v>10020</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -5362,10 +5362,10 @@
     <row r="63" spans="1:8">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -5376,7 +5376,7 @@
     <row r="64" spans="1:8">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -5392,7 +5392,7 @@
     <row r="65" spans="1:8">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -5408,7 +5408,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -5424,7 +5424,7 @@
     <row r="67" spans="1:8">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -5440,7 +5440,7 @@
     <row r="68" spans="1:8">
       <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -5456,7 +5456,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -5477,7 +5477,7 @@
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H70" s="12">
         <v>10010</v>
@@ -5491,7 +5491,7 @@
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H71" s="12">
         <v>10020</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -5512,10 +5512,10 @@
     <row r="73" spans="1:8">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -5526,7 +5526,7 @@
     <row r="74" spans="1:8">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -5542,7 +5542,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -5558,7 +5558,7 @@
     <row r="76" spans="1:8">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -5574,7 +5574,7 @@
     <row r="77" spans="1:8">
       <c r="A77" s="13"/>
       <c r="B77" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -5590,7 +5590,7 @@
     <row r="78" spans="1:8">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -5606,7 +5606,7 @@
     <row r="79" spans="1:8">
       <c r="A79" s="13"/>
       <c r="B79" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -5627,7 +5627,7 @@
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H80" s="13">
         <v>10010</v>
@@ -5641,7 +5641,7 @@
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H81" s="13">
         <v>10020</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="27"/>
     </row>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5705,12 +5705,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B5" s="25"/>
     </row>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5727,12 +5727,12 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B8" s="27"/>
     </row>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5749,12 +5749,12 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B11" s="25"/>
     </row>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5771,12 +5771,12 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B14" s="27"/>
     </row>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5793,12 +5793,12 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B17" s="25"/>
     </row>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5815,12 +5815,12 @@
         <v>0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B20" s="27"/>
     </row>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5837,12 +5837,12 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B23" s="25"/>
     </row>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -5892,8 +5892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01666E55-9237-448F-B2CC-24EB808BCEEE}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5904,7 +5904,7 @@
     <col min="4" max="4" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
@@ -5925,7 +5925,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>26</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -5954,7 +5954,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -5973,7 +5973,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>29</v>
@@ -5992,7 +5992,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>27</v>
@@ -6013,7 +6013,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -6034,7 +6034,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>29</v>
@@ -6055,18 +6055,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -6087,7 +6087,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>27</v>
@@ -6106,7 +6106,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>29</v>
@@ -6125,7 +6125,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>27</v>
@@ -6146,7 +6146,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>27</v>
@@ -6167,7 +6167,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>29</v>
@@ -6188,18 +6188,18 @@
         <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -6220,7 +6220,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>27</v>
@@ -6239,7 +6239,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>29</v>
@@ -6258,7 +6258,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>27</v>
@@ -6279,7 +6279,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>27</v>
@@ -6300,7 +6300,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>29</v>
@@ -6321,18 +6321,18 @@
         <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6353,7 +6353,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>27</v>
@@ -6372,7 +6372,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>29</v>
@@ -6391,7 +6391,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>27</v>
@@ -6412,7 +6412,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>27</v>
@@ -6433,7 +6433,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>29</v>
@@ -6454,18 +6454,18 @@
         <v>10</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -6486,7 +6486,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>27</v>
@@ -6505,7 +6505,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>29</v>
@@ -6524,7 +6524,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>27</v>
@@ -6545,13 +6545,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6566,7 +6566,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>29</v>
@@ -6587,18 +6587,18 @@
         <v>10</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -6619,7 +6619,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>27</v>
@@ -6638,7 +6638,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>29</v>
@@ -6657,7 +6657,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>27</v>
@@ -6678,13 +6678,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6699,7 +6699,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>29</v>
@@ -6720,18 +6720,18 @@
         <v>10</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -6752,7 +6752,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>27</v>
@@ -6771,7 +6771,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>29</v>
@@ -6790,7 +6790,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>27</v>
@@ -6811,13 +6811,13 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6832,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>29</v>
@@ -6853,18 +6853,18 @@
         <v>10</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -6885,7 +6885,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>27</v>
@@ -6904,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>29</v>
@@ -6923,7 +6923,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>27</v>
@@ -6944,13 +6944,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -6965,7 +6965,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>29</v>
@@ -6986,13 +6986,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
@@ -7018,8 +7018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EEB4E8-EA78-4265-9CF0-52F7D0DD4BED}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7039,19 +7039,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -7073,10 +7073,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5">
         <v>32</v>
@@ -7085,13 +7085,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -7105,10 +7105,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8">
         <v>32</v>
@@ -7117,13 +7117,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7137,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5">
         <v>32</v>
@@ -7149,7 +7149,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -7158,10 +7158,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5">
         <v>32</v>
@@ -7170,7 +7170,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -7179,10 +7179,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5">
         <v>32</v>
@@ -7191,10 +7191,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7202,10 +7202,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5">
         <v>32</v>
@@ -7214,15 +7214,15 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -7236,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8">
         <v>32</v>
@@ -7248,7 +7248,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -7257,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8">
         <v>32</v>
@@ -7269,7 +7269,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -7278,10 +7278,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8">
         <v>32</v>
@@ -7290,10 +7290,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7301,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8">
         <v>32</v>
@@ -7313,15 +7313,15 @@
         <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -7335,10 +7335,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
@@ -7347,7 +7347,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -7356,10 +7356,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5">
         <v>32</v>
@@ -7368,7 +7368,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -7377,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="5">
         <v>32</v>
@@ -7389,10 +7389,10 @@
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5">
         <v>32</v>
@@ -7412,15 +7412,15 @@
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -7434,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8">
         <v>32</v>
@@ -7446,7 +7446,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -7455,10 +7455,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="8">
         <v>32</v>
@@ -7467,7 +7467,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="8">
         <v>32</v>
@@ -7488,10 +7488,10 @@
         <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="8">
         <v>32</v>
@@ -7511,19 +7511,19 @@
         <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D26" s="8">
         <v>32</v>
@@ -7532,13 +7532,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -7552,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="5">
         <v>32</v>
@@ -7564,13 +7564,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -7584,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="8">
         <v>32</v>
@@ -7596,13 +7596,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -7616,10 +7616,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" s="5">
         <v>32</v>
@@ -7628,7 +7628,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -7637,10 +7637,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" s="5">
         <v>32</v>
@@ -7649,7 +7649,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -7658,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="5">
         <v>32</v>
@@ -7670,10 +7670,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7681,10 +7681,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35" s="5">
         <v>32</v>
@@ -7693,15 +7693,15 @@
         <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -7715,10 +7715,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37" s="8">
         <v>32</v>
@@ -7727,7 +7727,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" s="8"/>
     </row>
@@ -7736,10 +7736,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38" s="8">
         <v>32</v>
@@ -7748,7 +7748,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G38" s="8"/>
     </row>
@@ -7757,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="8">
         <v>32</v>
@@ -7769,10 +7769,10 @@
         <v>10</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7780,10 +7780,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="8">
         <v>32</v>
@@ -7792,15 +7792,15 @@
         <v>10</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7814,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42" s="5">
         <v>32</v>
@@ -7826,7 +7826,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G42" s="5"/>
     </row>
@@ -7835,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D43" s="5">
         <v>32</v>
@@ -7847,7 +7847,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G43" s="5"/>
     </row>
@@ -7856,10 +7856,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44" s="5">
         <v>32</v>
@@ -7868,10 +7868,10 @@
         <v>10</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7879,10 +7879,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
@@ -7891,15 +7891,15 @@
         <v>10</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D47" s="8">
         <v>32</v>
@@ -7925,7 +7925,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G47" s="8"/>
     </row>
@@ -7934,10 +7934,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D48" s="8">
         <v>32</v>
@@ -7946,7 +7946,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G48" s="8"/>
     </row>
@@ -7955,10 +7955,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="8">
         <v>32</v>
@@ -7967,10 +7967,10 @@
         <v>10</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D50" s="8">
         <v>32</v>
@@ -7990,19 +7990,19 @@
         <v>10</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D51" s="8">
         <v>32</v>
@@ -8011,7 +8011,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51"/>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>24</v>
@@ -8081,39 +8081,39 @@
         <v>25</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -8132,23 +8132,23 @@
     <row r="3" spans="1:14">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6">
         <v>9050</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -8158,7 +8158,7 @@
     <row r="4" spans="1:14">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -8172,13 +8172,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8193,10 +8193,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="6">
         <v>31</v>
@@ -8212,14 +8212,14 @@
     <row r="6" spans="1:14">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6">
         <v>9000</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8258,23 +8258,23 @@
     <row r="8" spans="1:14">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="10">
         <v>9050</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -8284,7 +8284,7 @@
     <row r="9" spans="1:14">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -8298,13 +8298,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -8319,10 +8319,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" s="10">
         <v>31</v>
@@ -8338,14 +8338,14 @@
     <row r="11" spans="1:14">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="10">
         <v>9000</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -8354,7 +8354,7 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K11" s="10">
         <v>1</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -8384,23 +8384,23 @@
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="6">
         <v>9050</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -8410,7 +8410,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -8424,13 +8424,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -8445,10 +8445,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" s="6">
         <v>31</v>
@@ -8464,14 +8464,14 @@
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="6">
         <v>9000</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="6">
         <v>1</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -8510,23 +8510,23 @@
     <row r="18" spans="1:26">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="10">
         <v>9050</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -8536,7 +8536,7 @@
     <row r="19" spans="1:26">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -8550,13 +8550,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -8571,10 +8571,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" s="10">
         <v>31</v>
@@ -8590,14 +8590,14 @@
     <row r="21" spans="1:26">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="10">
         <v>9000</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K21" s="10">
         <v>1</v>
@@ -8666,13 +8666,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>24</v>
@@ -8681,21 +8681,21 @@
         <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8712,10 +8712,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="12">
         <v>31</v>
@@ -8725,7 +8725,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -8736,10 +8736,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12">
         <v>31</v>
@@ -8749,7 +8749,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -8760,10 +8760,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="12">
         <v>31</v>
@@ -8773,7 +8773,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="12">
         <v>31</v>
@@ -8797,7 +8797,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -8822,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="13">
         <v>31</v>
@@ -8835,7 +8835,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -8846,10 +8846,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="13">
         <v>31</v>
@@ -8859,7 +8859,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -8870,10 +8870,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="13">
         <v>31</v>
@@ -8883,7 +8883,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -8894,10 +8894,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="13">
         <v>31</v>
@@ -8907,7 +8907,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -8915,7 +8915,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" s="12">
         <v>31</v>
@@ -8945,7 +8945,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -8956,10 +8956,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="12">
         <v>31</v>
@@ -8969,7 +8969,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -8991,14 +8991,14 @@
         <v>10</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12">
         <v>1</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -9017,19 +9017,19 @@
         <v>10</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12">
         <v>2</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -9046,10 +9046,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="13">
         <v>31</v>
@@ -9059,7 +9059,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -9070,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="13">
         <v>31</v>
@@ -9083,7 +9083,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -9105,14 +9105,14 @@
         <v>10</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13">
         <v>1</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -9131,7 +9131,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -9155,19 +9155,19 @@
         <v>10</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13">
         <v>2</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D24" s="12">
         <v>31</v>
@@ -9197,7 +9197,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -9208,10 +9208,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D25" s="12">
         <v>31</v>
@@ -9221,7 +9221,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -9243,7 +9243,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H26" s="12">
         <v>10</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -9269,7 +9269,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H27" s="12">
         <v>20</v>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -9293,7 +9293,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H28" s="12">
         <v>200</v>
@@ -9305,7 +9305,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9322,10 +9322,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30" s="13">
         <v>31</v>
@@ -9335,7 +9335,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -9346,10 +9346,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D31" s="13">
         <v>31</v>
@@ -9359,7 +9359,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -9370,10 +9370,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D32" s="13">
         <v>31</v>
@@ -9383,7 +9383,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -9408,10 +9408,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="12">
         <v>31</v>
@@ -9421,7 +9421,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -9432,10 +9432,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" s="12">
         <v>31</v>
@@ -9445,7 +9445,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -9456,10 +9456,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" s="12">
         <v>31</v>
@@ -9469,7 +9469,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D37" s="12">
         <v>31</v>
@@ -9493,7 +9493,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9518,10 +9518,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D39" s="13">
         <v>31</v>
@@ -9531,7 +9531,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -9542,10 +9542,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" s="13">
         <v>31</v>
@@ -9555,7 +9555,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -9566,10 +9566,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D41" s="13">
         <v>31</v>
@@ -9579,7 +9579,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -9590,10 +9590,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D42" s="13">
         <v>31</v>
@@ -9603,7 +9603,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -9628,10 +9628,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D44" s="12">
         <v>31</v>
@@ -9641,7 +9641,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D45" s="12">
         <v>31</v>
@@ -9665,7 +9665,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -9687,14 +9687,14 @@
         <v>10</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12">
         <v>1</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -9713,19 +9713,19 @@
         <v>10</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12">
         <v>2</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="13">
         <v>31</v>
@@ -9755,7 +9755,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
@@ -9766,10 +9766,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="13">
         <v>31</v>
@@ -9779,7 +9779,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -9801,14 +9801,14 @@
         <v>10</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13">
         <v>1</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -9827,7 +9827,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H52" s="13">
         <v>100</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -9851,19 +9851,19 @@
         <v>10</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13">
         <v>2</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -9880,10 +9880,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D55" s="12">
         <v>31</v>
@@ -9893,7 +9893,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -9904,10 +9904,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D56" s="12">
         <v>31</v>
@@ -9917,7 +9917,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -9939,7 +9939,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H57" s="12">
         <v>10</v>
@@ -9952,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -9963,7 +9963,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H58" s="12">
         <v>30</v>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -9987,7 +9987,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H59" s="12">
         <v>300</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -10014,10 +10014,10 @@
         <v>0</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D61" s="13">
         <v>31</v>
@@ -10027,7 +10027,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D62" s="13">
         <v>31</v>
@@ -10051,7 +10051,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
@@ -10062,10 +10062,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D63" s="13">
         <v>31</v>
@@ -10075,7 +10075,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
@@ -10125,24 +10125,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10153,10 +10153,10 @@
     <row r="3" spans="1:6">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="12">
         <v>65103</v>
@@ -10165,12 +10165,12 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -10181,10 +10181,10 @@
     <row r="5" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" s="13">
         <v>65104</v>
@@ -10193,12 +10193,12 @@
         <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -10209,10 +10209,10 @@
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="12">
         <v>65203</v>
@@ -10221,12 +10221,12 @@
         <v>10</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -10237,10 +10237,10 @@
     <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D9" s="13">
         <v>65204</v>
@@ -10249,7 +10249,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="5:5">
@@ -10293,33 +10293,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10336,7 +10336,7 @@
         <v>65101</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="12">
         <v>16</v>
@@ -10356,7 +10356,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -10369,17 +10369,17 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -10396,7 +10396,7 @@
         <v>65102</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="13">
         <v>16</v>
@@ -10416,7 +10416,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -10429,17 +10429,17 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -10456,7 +10456,7 @@
         <v>65103</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="12">
         <v>16</v>
@@ -10476,7 +10476,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -10489,11 +10489,11 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13" s="12"/>
     </row>
@@ -10504,17 +10504,17 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -10531,7 +10531,7 @@
         <v>65104</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="13">
         <v>16</v>
@@ -10551,7 +10551,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -10564,11 +10564,11 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="13"/>
     </row>
@@ -10579,17 +10579,17 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -10606,7 +10606,7 @@
         <v>65105</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="12">
         <v>16</v>
@@ -10626,7 +10626,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -10639,17 +10639,17 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -10666,7 +10666,7 @@
         <v>65106</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="13">
         <v>16</v>
@@ -10686,7 +10686,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -10699,11 +10699,11 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I27" s="13"/>
     </row>
@@ -10714,11 +10714,11 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I28" s="13">
         <v>30</v>
@@ -10731,7 +10731,7 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -10741,7 +10741,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -10758,7 +10758,7 @@
         <v>65201</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="12">
         <v>16</v>
@@ -10778,7 +10778,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -10791,17 +10791,17 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -10818,7 +10818,7 @@
         <v>65202</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="13">
         <v>16</v>
@@ -10838,7 +10838,7 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -10851,17 +10851,17 @@
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -10878,7 +10878,7 @@
         <v>65203</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" s="12">
         <v>16</v>
@@ -10898,7 +10898,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -10911,11 +10911,11 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I41" s="12"/>
     </row>
@@ -10926,17 +10926,17 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -10953,7 +10953,7 @@
         <v>65204</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D44" s="13">
         <v>16</v>
@@ -10973,7 +10973,7 @@
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -10986,11 +10986,11 @@
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I46" s="13"/>
     </row>
@@ -11001,17 +11001,17 @@
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -11028,7 +11028,7 @@
         <v>65205</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D49" s="12">
         <v>16</v>
@@ -11048,7 +11048,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -11061,17 +11061,17 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -11088,7 +11088,7 @@
         <v>65206</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="13">
         <v>16</v>
@@ -11108,7 +11108,7 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -11121,11 +11121,11 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="14"/>
@@ -11140,11 +11140,11 @@
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I56" s="15">
         <v>30</v>
@@ -11161,7 +11161,7 @@
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -11171,11 +11171,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A20:I20"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="A24:I24"/>
@@ -11183,6 +11178,11 @@
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11211,18 +11211,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -11231,7 +11231,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11239,16 +11239,16 @@
     <row r="4" spans="1:4">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -11257,7 +11257,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -11265,16 +11265,16 @@
     <row r="7" spans="1:4">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -11283,7 +11283,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -11291,26 +11291,26 @@
     <row r="10" spans="1:4">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -11319,7 +11319,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11327,26 +11327,26 @@
     <row r="14" spans="1:4">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -11355,7 +11355,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -11363,16 +11363,16 @@
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -11381,7 +11381,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -11389,16 +11389,16 @@
     <row r="21" spans="1:4">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -11407,7 +11407,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -11415,16 +11415,16 @@
     <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -11433,7 +11433,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -11441,16 +11441,16 @@
     <row r="27" spans="1:4">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -11459,7 +11459,7 @@
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -11467,26 +11467,26 @@
     <row r="30" spans="1:4">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -11495,7 +11495,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -11503,26 +11503,26 @@
     <row r="34" spans="1:9">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -11531,7 +11531,7 @@
     <row r="37" spans="1:9">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -11539,16 +11539,16 @@
     <row r="38" spans="1:9">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -11557,7 +11557,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -11565,11 +11565,11 @@
     <row r="41" spans="1:9">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -11579,6 +11579,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A25:D25"/>
@@ -11586,11 +11591,6 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sonic_api/sonic_data.xlsx
+++ b/sonic_api/sonic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto_rampini\PycharmProjects\sonic_dci_api\sonic_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E320D37-F26B-4A33-821C-18A32E6D0933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD90E5BE-9E50-47E1-8BF6-AC2637D169E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
+    <workbookView xWindow="45465" yWindow="225" windowWidth="21495" windowHeight="13665" xr2:uid="{4598C45B-5BCD-4C74-84FC-9A606ED1EC80}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,10 @@
     <sheet name="INTERFACE" sheetId="6" r:id="rId6"/>
     <sheet name="ROUTEMAP" sheetId="7" r:id="rId7"/>
     <sheet name="BGP_GLOBAL" sheetId="8" r:id="rId8"/>
-    <sheet name="BGP_PG" sheetId="9" r:id="rId9"/>
-    <sheet name="BGP_NEIGH" sheetId="10" r:id="rId10"/>
-    <sheet name="BGP_VNI_MAP" sheetId="11" r:id="rId11"/>
-    <sheet name="BGP_VRF" sheetId="12" r:id="rId12"/>
-    <sheet name="VTEP" sheetId="13" r:id="rId13"/>
+    <sheet name="BGP_NEIGH" sheetId="10" r:id="rId9"/>
+    <sheet name="BGP_VNI_MAP" sheetId="11" r:id="rId10"/>
+    <sheet name="BGP_VRF" sheetId="12" r:id="rId11"/>
+    <sheet name="VTEP" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="273">
   <si>
     <t>mgmt_ip</t>
   </si>
@@ -820,9 +819,6 @@
   </si>
   <si>
     <t>multi_hop</t>
-  </si>
-  <si>
-    <t>mclag-peer,ext-router</t>
   </si>
   <si>
     <t>192.168.122.215</t>
@@ -1384,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035F7E6-6A3D-48A1-B528-F39752DCEDD0}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1427,7 +1423,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1465,7 +1461,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1503,7 +1499,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1541,7 +1537,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1579,7 +1575,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1617,7 +1613,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1655,7 +1651,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1693,7 +1689,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1731,7 +1727,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1769,7 +1765,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -1807,7 +1803,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1822,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
@@ -1845,7 +1841,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -1902,1257 +1898,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042134A-B227-445A-ADC9-97C4504769C8}">
-  <dimension ref="A1:G85"/>
-  <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="12">
-        <v>65106</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="12">
-        <v>65103</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="12">
-        <v>65104</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="12">
-        <v>65105</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="12">
-        <v>65103</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="12">
-        <v>65104</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="12">
-        <v>65105</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="12">
-        <v>65106</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="13">
-        <v>65106</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="13">
-        <v>65103</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="13">
-        <v>65104</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="13">
-        <v>65105</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="13">
-        <v>65103</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="13">
-        <v>65104</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="13">
-        <v>65105</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="13">
-        <v>65106</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="12">
-        <v>65101</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="12">
-        <v>65102</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="12">
-        <v>65101</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="12">
-        <v>65102</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="12">
-        <v>65104</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="13">
-        <v>65101</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="13">
-        <v>65102</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="13">
-        <v>65101</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="13">
-        <v>65102</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="13">
-        <v>65103</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="12">
-        <v>65101</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="12">
-        <v>65102</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="12">
-        <v>65101</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="12">
-        <v>65102</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="13">
-        <v>65101</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="13">
-        <v>65102</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="13">
-        <v>65101</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="13">
-        <v>65102</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="13"/>
-      <c r="B42" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="18">
-        <v>65206</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13"/>
-      <c r="B43" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="18">
-        <v>65206</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="12">
-        <v>65206</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="12">
-        <v>65203</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="12">
-        <v>65204</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="12">
-        <v>65205</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="12">
-        <v>65203</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="12">
-        <v>65204</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="12">
-        <v>65205</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="12">
-        <v>65206</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="13">
-        <v>65206</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="13">
-        <v>65203</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="13">
-        <v>65204</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="13">
-        <v>65205</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="13">
-        <v>65203</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="13">
-        <v>65204</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="13">
-        <v>65205</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="13">
-        <v>65206</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="12">
-        <v>65201</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="12">
-        <v>65202</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="12">
-        <v>65201</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="12">
-        <v>65202</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="12">
-        <v>65204</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="13">
-        <v>65201</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="13">
-        <v>65202</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="13">
-        <v>65201</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="13">
-        <v>65202</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="13">
-        <v>65203</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C75" s="12">
-        <v>65201</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="12">
-        <v>65202</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="12">
-        <v>65201</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="12">
-        <v>65202</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="13">
-        <v>65201</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="13">
-        <v>65202</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="13">
-        <v>65201</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="13">
-        <v>65202</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="13"/>
-      <c r="B84" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" s="18">
-        <v>65106</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F84" s="17"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="13"/>
-      <c r="B85" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="18">
-        <v>65106</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F85" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A53:E53"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C52FBF0-50B8-419E-8B18-9F1CF31FBDEC}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3188,7 +1937,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3270,7 +2019,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -3352,7 +2101,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -3434,7 +2183,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -3516,7 +2265,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -3598,7 +2347,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -3680,7 +2429,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -3762,7 +2511,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -3859,12 +2608,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C7F1D9-1766-4B3E-BAFD-2A3F26354F25}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3907,7 +2656,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3937,9 +2686,7 @@
       <c r="G3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="12"/>
@@ -3961,13 +2708,11 @@
       <c r="G4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3997,9 +2742,7 @@
       <c r="G6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>258</v>
-      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13"/>
@@ -4021,13 +2764,11 @@
       <c r="G7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>258</v>
-      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4057,9 +2798,7 @@
       <c r="G9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="12"/>
@@ -4081,13 +2820,11 @@
       <c r="G10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -4117,9 +2854,7 @@
       <c r="G12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13"/>
@@ -4141,13 +2876,11 @@
       <c r="G13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -4177,9 +2910,7 @@
       <c r="G15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="12"/>
@@ -4201,13 +2932,11 @@
       <c r="G16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -4237,9 +2966,7 @@
       <c r="G18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>258</v>
-      </c>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="13"/>
@@ -4261,13 +2988,11 @@
       <c r="G19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>258</v>
-      </c>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4297,9 +3022,7 @@
       <c r="G21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="12"/>
@@ -4321,13 +3044,11 @@
       <c r="G22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -4357,9 +3078,7 @@
       <c r="G24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="13"/>
@@ -4381,9 +3100,7 @@
       <c r="G25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="H25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4401,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE81A0-AC4B-4D30-8365-F6A87D15D01B}">
   <dimension ref="A1:H81"/>
   <sheetViews>
@@ -4449,7 +3166,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4599,7 +3316,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4749,7 +3466,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -4899,7 +3616,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -5049,7 +3766,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -5199,7 +3916,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -5349,7 +4066,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -5499,7 +4216,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -5688,7 +4405,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="27"/>
     </row>
@@ -5710,7 +4427,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="25"/>
     </row>
@@ -5732,7 +4449,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="27"/>
     </row>
@@ -5754,7 +4471,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="25"/>
     </row>
@@ -5776,7 +4493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="27"/>
     </row>
@@ -5798,7 +4515,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="25"/>
     </row>
@@ -5820,7 +4537,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="27"/>
     </row>
@@ -5842,7 +4559,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" s="25"/>
     </row>
@@ -5933,7 +4650,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -6061,12 +4778,12 @@
         <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -6194,12 +4911,12 @@
         <v>29</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -6327,12 +5044,12 @@
         <v>29</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6460,12 +5177,12 @@
         <v>29</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -6593,12 +5310,12 @@
         <v>29</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -6726,12 +5443,12 @@
         <v>29</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -6859,12 +5576,12 @@
         <v>29</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -6992,7 +5709,7 @@
         <v>29</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
@@ -7018,7 +5735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EEB4E8-EA78-4265-9CF0-52F7D0DD4BED}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -7059,7 +5776,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -7091,7 +5808,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -7123,7 +5840,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7222,7 +5939,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -7321,7 +6038,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -7420,7 +6137,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -7538,7 +6255,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -7570,7 +6287,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -7602,7 +6319,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -7701,7 +6418,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -7800,7 +6517,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7899,7 +6616,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -8113,7 +6830,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -8239,7 +6956,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8365,7 +7082,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -8491,7 +7208,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -8695,7 +7412,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8805,7 +7522,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -8915,7 +7632,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -9029,7 +7746,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -9167,7 +7884,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -9305,7 +8022,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9391,7 +8108,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -9501,7 +8218,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9611,7 +8328,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -9725,7 +8442,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -9863,7 +8580,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -9997,7 +8714,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -10142,7 +8859,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10170,7 +8887,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -10198,7 +8915,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -10226,7 +8943,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -10271,8 +8988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFDFCCB-DFF7-466C-95F8-BB752093AD46}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10319,7 +9036,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10379,7 +9096,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -10439,7 +9156,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -10514,7 +9231,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -10589,7 +9306,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -10649,7 +9366,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -10741,7 +9458,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -10801,7 +9518,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -10861,7 +9578,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -10936,7 +9653,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -11011,7 +9728,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -11071,7 +9788,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -11171,6 +9888,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="A24:I24"/>
@@ -11178,11 +9900,6 @@
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A20:I20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11191,406 +9908,1246 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F6DC45-993E-4A5F-A2BF-10AE02B022F6}">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042134A-B227-445A-ADC9-97C4504769C8}">
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="12">
+        <v>65106</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="12">
+        <v>65103</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12">
+        <v>65104</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="12">
+        <v>65105</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12">
+        <v>65103</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="E7" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="12">
+        <v>65104</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="C9" s="12">
+        <v>65105</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="12">
+        <v>65106</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E10" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="13">
+        <v>65106</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="13">
+        <v>65103</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="C14" s="13">
+        <v>65104</v>
+      </c>
       <c r="D14" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>173</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="13">
+        <v>65105</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
+      <c r="E15" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="13">
+        <v>65103</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+      <c r="E16" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="13">
+        <v>65104</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="C18" s="13">
+        <v>65105</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>65106</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="12">
+        <v>65101</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E21" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="12">
+        <v>65102</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12">
+        <v>65101</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="12">
+        <v>65102</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E24" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="12">
+        <v>65104</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="13">
+        <v>65101</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="13">
+        <v>65102</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="13">
+        <v>65101</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12" t="s">
+      <c r="E29" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="13">
+        <v>65102</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="13">
+        <v>65103</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="12">
+        <v>65101</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12" t="s">
+      <c r="E33" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="12">
+        <v>65102</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="12">
+        <v>65101</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13" t="s">
+      <c r="E35" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="12">
+        <v>65102</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="13">
+        <v>65101</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
+      <c r="E38" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="13">
+        <v>65102</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="E39" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="C40" s="13">
+        <v>65101</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="13">
+        <v>65102</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="15" t="s">
+      <c r="E41" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="13"/>
+      <c r="B42" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="C42" s="18">
+        <v>65206</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13"/>
+      <c r="B43" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="18">
+        <v>65206</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="12">
+        <v>65206</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="12">
+        <v>65203</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="12">
+        <v>65204</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="12">
+        <v>65205</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="12">
+        <v>65203</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="12">
+        <v>65204</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="12">
+        <v>65205</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="12">
+        <v>65206</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="13">
+        <v>65206</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="13">
+        <v>65203</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="13">
+        <v>65204</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="13">
+        <v>65205</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="13">
+        <v>65203</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="13">
+        <v>65204</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="13">
+        <v>65205</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="13">
+        <v>65206</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="12">
+        <v>65201</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="12">
+        <v>65202</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="12">
+        <v>65201</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="12">
+        <v>65202</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="12">
+        <v>65204</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="13">
+        <v>65201</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="13">
+        <v>65202</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="13">
+        <v>65201</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="13">
+        <v>65202</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="13">
+        <v>65203</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="12">
+        <v>65201</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="12">
+        <v>65202</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="12">
+        <v>65201</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="12">
+        <v>65202</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="13">
+        <v>65201</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="13">
+        <v>65202</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="13">
+        <v>65201</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="13">
+        <v>65202</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="13"/>
+      <c r="B84" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="18">
+        <v>65106</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="13"/>
+      <c r="B85" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="18">
+        <v>65106</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F85" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A53:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
